--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D9F70-F013-484D-8611-F35922155C6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D720D1B-6936-4512-BEFA-406A487A7AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4650" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="1" r:id="rId1"/>
-    <sheet name="aniamtion" sheetId="2" r:id="rId2"/>
-    <sheet name="aniamtion_set" sheetId="3" r:id="rId3"/>
+    <sheet name="sprite misc" sheetId="5" r:id="rId2"/>
+    <sheet name="aniamtion" sheetId="2" r:id="rId3"/>
+    <sheet name="aniamtion_set" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -356,6 +358,21 @@
   </si>
   <si>
     <t>#define MARIO_ANIMATION_SAMLL_SLIDE_RIGHT</t>
+  </si>
+  <si>
+    <t># id</t>
+  </si>
+  <si>
+    <t># ani_id</t>
+  </si>
+  <si>
+    <t>#golden</t>
+  </si>
+  <si>
+    <t>#animationset item</t>
+  </si>
+  <si>
+    <t>#animation golden</t>
   </si>
 </sst>
 </file>
@@ -709,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,6 +2064,857 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F515-6D2A-4B63-9568-E36E7173119D}">
+  <dimension ref="A1:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30001</v>
+      </c>
+      <c r="B2">
+        <v>1208</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B2+G2</f>
+        <v>1224</v>
+      </c>
+      <c r="E2">
+        <f>C2+H2</f>
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>30001</v>
+      </c>
+      <c r="L2">
+        <v>30001</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30002</v>
+      </c>
+      <c r="B3">
+        <v>1140</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">B3+G3</f>
+        <v>1156</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="1">C3+H3</f>
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>30002</v>
+      </c>
+      <c r="L3">
+        <v>30002</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>30003</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>30004</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>30005</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30003</v>
+      </c>
+      <c r="B4">
+        <v>1157</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1173</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30004</v>
+      </c>
+      <c r="B5">
+        <v>1174</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1190</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30005</v>
+      </c>
+      <c r="B6">
+        <v>1191</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1207</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30006</v>
+      </c>
+      <c r="B7">
+        <v>698</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30007</v>
+      </c>
+      <c r="B10">
+        <v>953</v>
+      </c>
+      <c r="C10">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>969</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>30004</v>
+      </c>
+      <c r="L10">
+        <v>30007</v>
+      </c>
+      <c r="M10">
+        <v>100</v>
+      </c>
+      <c r="N10">
+        <v>30008</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>30009</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>30010</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>30011</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30008</v>
+      </c>
+      <c r="B11">
+        <v>970</v>
+      </c>
+      <c r="C11">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>986</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30009</v>
+      </c>
+      <c r="B12">
+        <v>987</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30010</v>
+      </c>
+      <c r="B13">
+        <v>1004</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1020</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30011</v>
+      </c>
+      <c r="B14">
+        <v>1021</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1037</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30012</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30013</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30014</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30015</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30016</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30017</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30018</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30019</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30020</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>30021</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30022</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30023</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30024</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30025</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30026</v>
+      </c>
+      <c r="F29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30027</v>
+      </c>
+      <c r="F30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30028</v>
+      </c>
+      <c r="F31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30029</v>
+      </c>
+      <c r="F32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30030</v>
+      </c>
+      <c r="F33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30031</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30032</v>
+      </c>
+      <c r="F35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30033</v>
+      </c>
+      <c r="F36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30034</v>
+      </c>
+      <c r="F37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30035</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30036</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30037</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30038</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30039</v>
+      </c>
+      <c r="F42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30040</v>
+      </c>
+      <c r="F43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30041</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30042</v>
+      </c>
+      <c r="F45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30043</v>
+      </c>
+      <c r="F46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30044</v>
+      </c>
+      <c r="F47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30045</v>
+      </c>
+      <c r="F48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30046</v>
+      </c>
+      <c r="F49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>30047</v>
+      </c>
+      <c r="F50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30048</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30049</v>
+      </c>
+      <c r="F52">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CDDCB-37A8-48C2-AB4F-C5BB0FC86B86}">
   <dimension ref="A1:F53"/>
   <sheetViews>
@@ -2557,11 +3425,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587876D1-DCD4-44E5-9ABC-9F4A74AB23E7}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3152,4 +4020,295 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A9162-F69A-40B9-84D4-8B5CB6F3D404}">
+  <dimension ref="C1:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="L1:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>248</v>
+      </c>
+      <c r="E1">
+        <v>369</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>280</v>
+      </c>
+      <c r="H1">
+        <v>377</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1495</v>
+      </c>
+      <c r="N1">
+        <v>177</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>1687</v>
+      </c>
+      <c r="Q1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>281</v>
+      </c>
+      <c r="E2">
+        <v>337</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>312</v>
+      </c>
+      <c r="H2">
+        <v>343</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1414</v>
+      </c>
+      <c r="N2">
+        <v>191</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1464</v>
+      </c>
+      <c r="Q2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>409</v>
+      </c>
+      <c r="E3">
+        <v>369</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>470</v>
+      </c>
+      <c r="H3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>474</v>
+      </c>
+      <c r="E4">
+        <v>337</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>519</v>
+      </c>
+      <c r="H4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>521</v>
+      </c>
+      <c r="E5">
+        <v>305</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>569</v>
+      </c>
+      <c r="H5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2185</v>
+      </c>
+      <c r="E6">
+        <v>273</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2216</v>
+      </c>
+      <c r="H6">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2152</v>
+      </c>
+      <c r="E7">
+        <v>369</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2184</v>
+      </c>
+      <c r="H7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1337</v>
+      </c>
+      <c r="E8">
+        <v>320</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1431</v>
+      </c>
+      <c r="H8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1322</v>
+      </c>
+      <c r="E9">
+        <v>144</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1366</v>
+      </c>
+      <c r="H9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1304</v>
+      </c>
+      <c r="E10">
+        <v>352</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1400</v>
+      </c>
+      <c r="H10">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1274</v>
+      </c>
+      <c r="E11">
+        <v>385</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1367</v>
+      </c>
+      <c r="H11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>520</v>
+      </c>
+      <c r="E12">
+        <v>384</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0611DB-9393-4631-B366-2B8E693C0A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE5F79-C733-4A5C-B1FA-7E28085E49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="274">
   <si>
     <t>id</t>
   </si>
@@ -850,6 +850,15 @@
   </si>
   <si>
     <t>#define MARIO_ANIMATION_REACCOON_SPIN_RIGHT</t>
+  </si>
+  <si>
+    <t>#koopas</t>
+  </si>
+  <si>
+    <t>#left</t>
+  </si>
+  <si>
+    <t>#right</t>
   </si>
 </sst>
 </file>
@@ -1201,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:F244"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2237,7 @@
         <v>524</v>
       </c>
       <c r="C38">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <f>B38+G38</f>
@@ -2245,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2256,7 +2265,7 @@
         <v>542</v>
       </c>
       <c r="C39">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D39">
         <f t="shared" ref="D39:D103" si="2">B39+G39</f>
@@ -2273,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="H39">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2284,7 +2293,7 @@
         <v>560</v>
       </c>
       <c r="C40">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
@@ -2301,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="H40">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2340,7 +2349,7 @@
         <v>596</v>
       </c>
       <c r="C42">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
@@ -2357,7 +2366,7 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2368,7 +2377,7 @@
         <v>614</v>
       </c>
       <c r="C43">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
@@ -2385,7 +2394,7 @@
         <v>24</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2396,7 +2405,7 @@
         <v>640</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
@@ -2413,7 +2422,7 @@
         <v>24</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2424,7 +2433,7 @@
         <v>666</v>
       </c>
       <c r="C45">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
@@ -2441,7 +2450,7 @@
         <v>24</v>
       </c>
       <c r="H45">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2452,7 +2461,7 @@
         <v>692</v>
       </c>
       <c r="C46">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
@@ -2469,7 +2478,7 @@
         <v>24</v>
       </c>
       <c r="H46">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2480,7 +2489,7 @@
         <v>718</v>
       </c>
       <c r="C47">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
@@ -2497,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2508,7 +2517,7 @@
         <v>736</v>
       </c>
       <c r="C48">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
@@ -2525,10 +2534,10 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20047</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>754</v>
       </c>
       <c r="C49">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
@@ -2553,10 +2562,10 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20048</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>772</v>
       </c>
       <c r="C50">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
@@ -2581,10 +2590,10 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20049</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>790</v>
       </c>
       <c r="C51">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
@@ -2609,10 +2618,10 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20050</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>808</v>
       </c>
       <c r="C52">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
@@ -2637,10 +2646,10 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20051</v>
       </c>
@@ -2648,7 +2657,7 @@
         <v>826</v>
       </c>
       <c r="C53">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
@@ -2665,10 +2674,10 @@
         <v>24</v>
       </c>
       <c r="H53">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20052</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>852</v>
       </c>
       <c r="C54">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
@@ -2693,10 +2702,10 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20053</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>870</v>
       </c>
       <c r="C55">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
@@ -2721,10 +2730,10 @@
         <v>24</v>
       </c>
       <c r="H55">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20054</v>
       </c>
@@ -2732,7 +2741,7 @@
         <v>896</v>
       </c>
       <c r="C56">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
@@ -2749,10 +2758,10 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20055</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>922</v>
       </c>
       <c r="C57">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
@@ -2777,10 +2786,10 @@
         <v>24</v>
       </c>
       <c r="H57">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20056</v>
       </c>
@@ -2788,7 +2797,7 @@
         <v>948</v>
       </c>
       <c r="C58">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
@@ -2805,10 +2814,10 @@
         <v>24</v>
       </c>
       <c r="H58">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20057</v>
       </c>
@@ -2824,7 +2833,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F59">
         <v>10</v>
@@ -2833,10 +2842,14 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I39:I102" si="4">C59+4</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20058</v>
       </c>
@@ -2863,8 +2876,12 @@
       <c r="H60">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>20059</v>
       </c>
@@ -2891,8 +2908,12 @@
       <c r="H61">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20060</v>
       </c>
@@ -2919,8 +2940,12 @@
       <c r="H62">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20061</v>
       </c>
@@ -2947,8 +2972,12 @@
       <c r="H63">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>20062</v>
       </c>
@@ -2975,8 +3004,12 @@
       <c r="H64">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20063</v>
       </c>
@@ -3003,8 +3036,12 @@
       <c r="H65">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20064</v>
       </c>
@@ -3031,8 +3068,12 @@
       <c r="H66">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20065</v>
       </c>
@@ -3059,8 +3100,12 @@
       <c r="H67">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>20066</v>
       </c>
@@ -3087,8 +3132,12 @@
       <c r="H68">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20067</v>
       </c>
@@ -3115,8 +3164,12 @@
       <c r="H69">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20068</v>
       </c>
@@ -3143,13 +3196,17 @@
       <c r="H70">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20069</v>
       </c>
@@ -3157,7 +3214,7 @@
         <v>505</v>
       </c>
       <c r="C72">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D72">
         <f t="shared" si="2"/>
@@ -3174,10 +3231,10 @@
         <v>16</v>
       </c>
       <c r="H72">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20070</v>
       </c>
@@ -3185,7 +3242,7 @@
         <v>487</v>
       </c>
       <c r="C73">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <f t="shared" si="2"/>
@@ -3202,10 +3259,10 @@
         <v>16</v>
       </c>
       <c r="H73">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20071</v>
       </c>
@@ -3213,7 +3270,7 @@
         <v>469</v>
       </c>
       <c r="C74">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D74">
         <f t="shared" si="2"/>
@@ -3230,10 +3287,10 @@
         <v>16</v>
       </c>
       <c r="H74">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>20072</v>
       </c>
@@ -3261,7 +3318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20073</v>
       </c>
@@ -3269,7 +3326,7 @@
         <v>433</v>
       </c>
       <c r="C76">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D76">
         <f t="shared" si="2"/>
@@ -3286,10 +3343,10 @@
         <v>16</v>
       </c>
       <c r="H76">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20074</v>
       </c>
@@ -3297,7 +3354,7 @@
         <v>407</v>
       </c>
       <c r="C77">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D77">
         <f t="shared" si="2"/>
@@ -3314,10 +3371,10 @@
         <v>24</v>
       </c>
       <c r="H77">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20075</v>
       </c>
@@ -3325,7 +3382,7 @@
         <v>381</v>
       </c>
       <c r="C78">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <f t="shared" si="2"/>
@@ -3342,10 +3399,10 @@
         <v>24</v>
       </c>
       <c r="H78">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>20076</v>
       </c>
@@ -3353,7 +3410,7 @@
         <v>355</v>
       </c>
       <c r="C79">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D79">
         <f t="shared" si="2"/>
@@ -3370,10 +3427,10 @@
         <v>24</v>
       </c>
       <c r="H79">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20077</v>
       </c>
@@ -3381,7 +3438,7 @@
         <v>329</v>
       </c>
       <c r="C80">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D80">
         <f t="shared" si="2"/>
@@ -3398,10 +3455,10 @@
         <v>24</v>
       </c>
       <c r="H80">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20078</v>
       </c>
@@ -3409,7 +3466,7 @@
         <v>311</v>
       </c>
       <c r="C81">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D81">
         <f t="shared" si="2"/>
@@ -3426,10 +3483,10 @@
         <v>16</v>
       </c>
       <c r="H81">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20079</v>
       </c>
@@ -3437,7 +3494,7 @@
         <v>293</v>
       </c>
       <c r="C82">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D82">
         <f t="shared" si="2"/>
@@ -3454,10 +3511,10 @@
         <v>16</v>
       </c>
       <c r="H82">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20080</v>
       </c>
@@ -3465,7 +3522,7 @@
         <v>275</v>
       </c>
       <c r="C83">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <f t="shared" si="2"/>
@@ -3482,10 +3539,10 @@
         <v>16</v>
       </c>
       <c r="H83">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20081</v>
       </c>
@@ -3493,7 +3550,7 @@
         <v>257</v>
       </c>
       <c r="C84">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D84">
         <f t="shared" si="2"/>
@@ -3510,10 +3567,10 @@
         <v>16</v>
       </c>
       <c r="H84">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20082</v>
       </c>
@@ -3521,7 +3578,7 @@
         <v>239</v>
       </c>
       <c r="C85">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
@@ -3538,10 +3595,10 @@
         <v>16</v>
       </c>
       <c r="H85">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20083</v>
       </c>
@@ -3549,7 +3606,7 @@
         <v>221</v>
       </c>
       <c r="C86">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D86">
         <f t="shared" si="2"/>
@@ -3566,10 +3623,10 @@
         <v>16</v>
       </c>
       <c r="H86">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20084</v>
       </c>
@@ -3577,7 +3634,7 @@
         <v>195</v>
       </c>
       <c r="C87">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D87">
         <f t="shared" si="2"/>
@@ -3594,10 +3651,10 @@
         <v>24</v>
       </c>
       <c r="H87">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20085</v>
       </c>
@@ -3605,7 +3662,7 @@
         <v>177</v>
       </c>
       <c r="C88">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D88">
         <f t="shared" si="2"/>
@@ -3622,10 +3679,10 @@
         <v>16</v>
       </c>
       <c r="H88">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20086</v>
       </c>
@@ -3633,7 +3690,7 @@
         <v>151</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D89">
         <f t="shared" si="2"/>
@@ -3650,10 +3707,10 @@
         <v>24</v>
       </c>
       <c r="H89">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20087</v>
       </c>
@@ -3661,7 +3718,7 @@
         <v>125</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D90">
         <f t="shared" si="2"/>
@@ -3678,10 +3735,10 @@
         <v>24</v>
       </c>
       <c r="H90">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20088</v>
       </c>
@@ -3689,7 +3746,7 @@
         <v>99</v>
       </c>
       <c r="C91">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D91">
         <f t="shared" si="2"/>
@@ -3706,10 +3763,10 @@
         <v>24</v>
       </c>
       <c r="H91">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20089</v>
       </c>
@@ -3717,7 +3774,7 @@
         <v>73</v>
       </c>
       <c r="C92">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <f t="shared" si="2"/>
@@ -3734,10 +3791,10 @@
         <v>24</v>
       </c>
       <c r="H92">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20090</v>
       </c>
@@ -3745,7 +3802,7 @@
         <v>55</v>
       </c>
       <c r="C93">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D93">
         <f t="shared" si="2"/>
@@ -3762,10 +3819,10 @@
         <v>16</v>
       </c>
       <c r="H93">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20091</v>
       </c>
@@ -3792,8 +3849,12 @@
       <c r="H94">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20092</v>
       </c>
@@ -3820,8 +3881,12 @@
       <c r="H95">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20093</v>
       </c>
@@ -3848,8 +3913,12 @@
       <c r="H96">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20094</v>
       </c>
@@ -3876,8 +3945,12 @@
       <c r="H97">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20095</v>
       </c>
@@ -3904,8 +3977,12 @@
       <c r="H98">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20096</v>
       </c>
@@ -3932,8 +4009,12 @@
       <c r="H99">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20097</v>
       </c>
@@ -3960,8 +4041,12 @@
       <c r="H100">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20098</v>
       </c>
@@ -3988,8 +4073,12 @@
       <c r="H101">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20099</v>
       </c>
@@ -4016,8 +4105,12 @@
       <c r="H102">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20100</v>
       </c>
@@ -4044,8 +4137,12 @@
       <c r="H103">
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" ref="I103:I104" si="5">C103+4</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20101</v>
       </c>
@@ -4056,11 +4153,11 @@
         <v>122</v>
       </c>
       <c r="D104">
-        <f t="shared" ref="D104:E104" si="4">B104+G104</f>
+        <f t="shared" ref="D104:E104" si="6">B104+G104</f>
         <v>71</v>
       </c>
       <c r="E104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="F104">
@@ -4072,18 +4169,22 @@
       <c r="H104">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20102</v>
       </c>
@@ -4111,7 +4212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20103</v>
       </c>
@@ -4122,11 +4223,11 @@
         <v>260</v>
       </c>
       <c r="D108">
-        <f t="shared" ref="D108:D138" si="5">B108+G108</f>
+        <f t="shared" ref="D108:D138" si="7">B108+G108</f>
         <v>558</v>
       </c>
       <c r="E108">
-        <f t="shared" ref="E108:E138" si="6">C108+H108</f>
+        <f t="shared" ref="E108:E138" si="8">C108+H108</f>
         <v>292</v>
       </c>
       <c r="F108">
@@ -4139,7 +4240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20104</v>
       </c>
@@ -4150,11 +4251,11 @@
         <v>260</v>
       </c>
       <c r="D109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>576</v>
       </c>
       <c r="E109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F109">
@@ -4167,7 +4268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20105</v>
       </c>
@@ -4178,11 +4279,11 @@
         <v>260</v>
       </c>
       <c r="D110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>594</v>
       </c>
       <c r="E110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>284</v>
       </c>
       <c r="F110">
@@ -4195,7 +4296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20106</v>
       </c>
@@ -4206,11 +4307,11 @@
         <v>260</v>
       </c>
       <c r="D111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>612</v>
       </c>
       <c r="E111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F111">
@@ -4223,7 +4324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20107</v>
       </c>
@@ -4234,11 +4335,11 @@
         <v>260</v>
       </c>
       <c r="D112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>638</v>
       </c>
       <c r="E112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F112">
@@ -4262,11 +4363,11 @@
         <v>260</v>
       </c>
       <c r="D113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>664</v>
       </c>
       <c r="E113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F113">
@@ -4290,11 +4391,11 @@
         <v>260</v>
       </c>
       <c r="D114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>690</v>
       </c>
       <c r="E114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F114">
@@ -4318,11 +4419,11 @@
         <v>260</v>
       </c>
       <c r="D115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>716</v>
       </c>
       <c r="E115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F115">
@@ -4346,11 +4447,11 @@
         <v>260</v>
       </c>
       <c r="D116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>734</v>
       </c>
       <c r="E116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F116">
@@ -4374,11 +4475,11 @@
         <v>260</v>
       </c>
       <c r="D117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>752</v>
       </c>
       <c r="E117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F117">
@@ -4402,11 +4503,11 @@
         <v>260</v>
       </c>
       <c r="D118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>770</v>
       </c>
       <c r="E118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F118">
@@ -4430,11 +4531,11 @@
         <v>260</v>
       </c>
       <c r="D119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>788</v>
       </c>
       <c r="E119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F119">
@@ -4458,11 +4559,11 @@
         <v>260</v>
       </c>
       <c r="D120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>806</v>
       </c>
       <c r="E120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F120">
@@ -4486,11 +4587,11 @@
         <v>260</v>
       </c>
       <c r="D121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>824</v>
       </c>
       <c r="E121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F121">
@@ -4514,11 +4615,11 @@
         <v>260</v>
       </c>
       <c r="D122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="E122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F122">
@@ -4542,11 +4643,11 @@
         <v>260</v>
       </c>
       <c r="D123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>868</v>
       </c>
       <c r="E123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F123">
@@ -4570,11 +4671,11 @@
         <v>260</v>
       </c>
       <c r="D124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>894</v>
       </c>
       <c r="E124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F124">
@@ -4598,11 +4699,11 @@
         <v>260</v>
       </c>
       <c r="D125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>912</v>
       </c>
       <c r="E125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F125">
@@ -4626,11 +4727,11 @@
         <v>260</v>
       </c>
       <c r="D126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>946</v>
       </c>
       <c r="E126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F126">
@@ -4654,11 +4755,11 @@
         <v>260</v>
       </c>
       <c r="D127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>972</v>
       </c>
       <c r="E127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F127">
@@ -4682,11 +4783,11 @@
         <v>260</v>
       </c>
       <c r="D128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>990</v>
       </c>
       <c r="E128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>292</v>
       </c>
       <c r="F128">
@@ -4710,11 +4811,11 @@
         <v>294</v>
       </c>
       <c r="D129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>548</v>
       </c>
       <c r="E129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F129">
@@ -4738,11 +4839,11 @@
         <v>294</v>
       </c>
       <c r="D130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>574</v>
       </c>
       <c r="E130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F130">
@@ -4766,11 +4867,11 @@
         <v>294</v>
       </c>
       <c r="D131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="E131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F131">
@@ -4794,11 +4895,11 @@
         <v>294</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>626</v>
       </c>
       <c r="E132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F132">
@@ -4822,11 +4923,11 @@
         <v>294</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>652</v>
       </c>
       <c r="E133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F133">
@@ -4850,11 +4951,11 @@
         <v>294</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>678</v>
       </c>
       <c r="E134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F134">
@@ -4878,11 +4979,11 @@
         <v>294</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>704</v>
       </c>
       <c r="E135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F135">
@@ -4906,11 +5007,11 @@
         <v>294</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>730</v>
       </c>
       <c r="E136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F136">
@@ -4934,11 +5035,11 @@
         <v>294</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>748</v>
       </c>
       <c r="E137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F137">
@@ -4962,11 +5063,11 @@
         <v>294</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>766</v>
       </c>
       <c r="E138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="F138">
@@ -4995,11 +5096,11 @@
         <v>260</v>
       </c>
       <c r="D140">
-        <f t="shared" ref="D140:D205" si="7">B140+G140</f>
+        <f t="shared" ref="D140:D205" si="9">B140+G140</f>
         <v>521</v>
       </c>
       <c r="E140">
-        <f t="shared" ref="E140:E205" si="8">C140+H140</f>
+        <f t="shared" ref="E140:E205" si="10">C140+H140</f>
         <v>292</v>
       </c>
       <c r="F140">
@@ -5023,11 +5124,11 @@
         <v>260</v>
       </c>
       <c r="D141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>503</v>
       </c>
       <c r="E141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F141">
@@ -5051,11 +5152,11 @@
         <v>260</v>
       </c>
       <c r="D142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>485</v>
       </c>
       <c r="E142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F142">
@@ -5079,11 +5180,11 @@
         <v>260</v>
       </c>
       <c r="D143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>467</v>
       </c>
       <c r="E143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>284</v>
       </c>
       <c r="F143">
@@ -5107,11 +5208,11 @@
         <v>260</v>
       </c>
       <c r="D144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>449</v>
       </c>
       <c r="E144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F144">
@@ -5135,11 +5236,11 @@
         <v>260</v>
       </c>
       <c r="D145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>431</v>
       </c>
       <c r="E145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F145">
@@ -5163,11 +5264,11 @@
         <v>260</v>
       </c>
       <c r="D146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>405</v>
       </c>
       <c r="E146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F146">
@@ -5191,11 +5292,11 @@
         <v>260</v>
       </c>
       <c r="D147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>379</v>
       </c>
       <c r="E147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F147">
@@ -5219,11 +5320,11 @@
         <v>260</v>
       </c>
       <c r="D148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>353</v>
       </c>
       <c r="E148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F148">
@@ -5247,11 +5348,11 @@
         <v>260</v>
       </c>
       <c r="D149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>327</v>
       </c>
       <c r="E149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F149">
@@ -5275,11 +5376,11 @@
         <v>260</v>
       </c>
       <c r="D150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>309</v>
       </c>
       <c r="E150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F150">
@@ -5303,11 +5404,11 @@
         <v>260</v>
       </c>
       <c r="D151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>291</v>
       </c>
       <c r="E151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F151">
@@ -5331,11 +5432,11 @@
         <v>260</v>
       </c>
       <c r="D152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="E152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F152">
@@ -5359,11 +5460,11 @@
         <v>260</v>
       </c>
       <c r="D153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>255</v>
       </c>
       <c r="E153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F153">
@@ -5387,11 +5488,11 @@
         <v>260</v>
       </c>
       <c r="D154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>237</v>
       </c>
       <c r="E154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F154">
@@ -5415,11 +5516,11 @@
         <v>260</v>
       </c>
       <c r="D155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>219</v>
       </c>
       <c r="E155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F155">
@@ -5443,11 +5544,11 @@
         <v>260</v>
       </c>
       <c r="D156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>193</v>
       </c>
       <c r="E156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F156">
@@ -5471,11 +5572,11 @@
         <v>260</v>
       </c>
       <c r="D157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
       <c r="E157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F157">
@@ -5499,11 +5600,11 @@
         <v>260</v>
       </c>
       <c r="D158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>149</v>
       </c>
       <c r="E158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F158">
@@ -5527,11 +5628,11 @@
         <v>260</v>
       </c>
       <c r="D159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="E159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F159">
@@ -5555,11 +5656,11 @@
         <v>260</v>
       </c>
       <c r="D160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="E160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F160">
@@ -5583,11 +5684,11 @@
         <v>260</v>
       </c>
       <c r="D161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="E161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="F161">
@@ -5611,11 +5712,11 @@
         <v>294</v>
       </c>
       <c r="D162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>521</v>
       </c>
       <c r="E162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F162">
@@ -5639,11 +5740,11 @@
         <v>294</v>
       </c>
       <c r="D163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
       <c r="E163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F163">
@@ -5667,11 +5768,11 @@
         <v>294</v>
       </c>
       <c r="D164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>469</v>
       </c>
       <c r="E164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F164">
@@ -5695,11 +5796,11 @@
         <v>294</v>
       </c>
       <c r="D165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>443</v>
       </c>
       <c r="E165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F165">
@@ -5723,11 +5824,11 @@
         <v>294</v>
       </c>
       <c r="D166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>417</v>
       </c>
       <c r="E166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F166">
@@ -5751,11 +5852,11 @@
         <v>294</v>
       </c>
       <c r="D167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>391</v>
       </c>
       <c r="E167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F167">
@@ -5779,11 +5880,11 @@
         <v>294</v>
       </c>
       <c r="D168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>365</v>
       </c>
       <c r="E168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F168">
@@ -5807,11 +5908,11 @@
         <v>294</v>
       </c>
       <c r="D169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>339</v>
       </c>
       <c r="E169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F169">
@@ -5835,11 +5936,11 @@
         <v>294</v>
       </c>
       <c r="D170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>313</v>
       </c>
       <c r="E170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F170">
@@ -5863,11 +5964,11 @@
         <v>294</v>
       </c>
       <c r="D171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="E171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="F171">
@@ -5901,11 +6002,11 @@
         <v>346</v>
       </c>
       <c r="D174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>548</v>
       </c>
       <c r="E174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F174">
@@ -5929,11 +6030,11 @@
         <v>346</v>
       </c>
       <c r="D175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>574</v>
       </c>
       <c r="E175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F175">
@@ -5957,11 +6058,11 @@
         <v>346</v>
       </c>
       <c r="D176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="E176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F176">
@@ -5985,11 +6086,11 @@
         <v>346</v>
       </c>
       <c r="D177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>626</v>
       </c>
       <c r="E177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>370</v>
       </c>
       <c r="F177">
@@ -6013,11 +6114,11 @@
         <v>346</v>
       </c>
       <c r="D178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>652</v>
       </c>
       <c r="E178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F178">
@@ -6041,11 +6142,11 @@
         <v>346</v>
       </c>
       <c r="D179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>678</v>
       </c>
       <c r="E179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F179">
@@ -6069,11 +6170,11 @@
         <v>346</v>
       </c>
       <c r="D180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>704</v>
       </c>
       <c r="E180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F180">
@@ -6097,11 +6198,11 @@
         <v>346</v>
       </c>
       <c r="D181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>730</v>
       </c>
       <c r="E181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F181">
@@ -6125,11 +6226,11 @@
         <v>346</v>
       </c>
       <c r="D182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>756</v>
       </c>
       <c r="E182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F182">
@@ -6153,11 +6254,11 @@
         <v>346</v>
       </c>
       <c r="D183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>782</v>
       </c>
       <c r="E183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F183">
@@ -6181,11 +6282,11 @@
         <v>346</v>
       </c>
       <c r="D184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>808</v>
       </c>
       <c r="E184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F184">
@@ -6209,11 +6310,11 @@
         <v>346</v>
       </c>
       <c r="D185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>834</v>
       </c>
       <c r="E185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F185">
@@ -6237,11 +6338,11 @@
         <v>346</v>
       </c>
       <c r="D186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>860</v>
       </c>
       <c r="E186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F186">
@@ -6265,11 +6366,11 @@
         <v>346</v>
       </c>
       <c r="D187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>878</v>
       </c>
       <c r="E187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F187">
@@ -6293,11 +6394,11 @@
         <v>346</v>
       </c>
       <c r="D188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>896</v>
       </c>
       <c r="E188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F188">
@@ -6321,11 +6422,11 @@
         <v>346</v>
       </c>
       <c r="D189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>922</v>
       </c>
       <c r="E189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F189">
@@ -6349,11 +6450,11 @@
         <v>346</v>
       </c>
       <c r="D190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>940</v>
       </c>
       <c r="E190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="F190">
@@ -6377,11 +6478,11 @@
         <v>380</v>
       </c>
       <c r="D191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>548</v>
       </c>
       <c r="E191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F191">
@@ -6405,11 +6506,11 @@
         <v>380</v>
       </c>
       <c r="D192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>574</v>
       </c>
       <c r="E192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F192">
@@ -6433,11 +6534,11 @@
         <v>380</v>
       </c>
       <c r="D193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="E193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F193">
@@ -6461,11 +6562,11 @@
         <v>380</v>
       </c>
       <c r="D194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>626</v>
       </c>
       <c r="E194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F194">
@@ -6489,11 +6590,11 @@
         <v>380</v>
       </c>
       <c r="D195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>644</v>
       </c>
       <c r="E195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F195">
@@ -6517,11 +6618,11 @@
         <v>380</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>670</v>
       </c>
       <c r="E196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F196">
@@ -6545,11 +6646,11 @@
         <v>380</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>696</v>
       </c>
       <c r="E197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F197">
@@ -6573,11 +6674,11 @@
         <v>380</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>722</v>
       </c>
       <c r="E198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F198">
@@ -6601,11 +6702,11 @@
         <v>380</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>748</v>
       </c>
       <c r="E199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F199">
@@ -6629,11 +6730,11 @@
         <v>380</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>766</v>
       </c>
       <c r="E200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F200">
@@ -6657,11 +6758,11 @@
         <v>380</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>792</v>
       </c>
       <c r="E201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F201">
@@ -6685,11 +6786,11 @@
         <v>380</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>818</v>
       </c>
       <c r="E202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F202">
@@ -6713,11 +6814,11 @@
         <v>380</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>844</v>
       </c>
       <c r="E203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F203">
@@ -6741,11 +6842,11 @@
         <v>380</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>870</v>
       </c>
       <c r="E204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F204">
@@ -6769,11 +6870,11 @@
         <v>380</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>896</v>
       </c>
       <c r="E205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="F205">
@@ -6797,11 +6898,11 @@
         <v>380</v>
       </c>
       <c r="D206">
-        <f t="shared" ref="D206:E271" si="9">B206+G206</f>
+        <f t="shared" ref="D206:E271" si="11">B206+G206</f>
         <v>922</v>
       </c>
       <c r="E206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F206">
@@ -6825,11 +6926,11 @@
         <v>380</v>
       </c>
       <c r="D207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>948</v>
       </c>
       <c r="E207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F207">
@@ -6853,11 +6954,11 @@
         <v>380</v>
       </c>
       <c r="D208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>974</v>
       </c>
       <c r="E208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F208">
@@ -6886,11 +6987,11 @@
         <v>346</v>
       </c>
       <c r="D210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>521</v>
       </c>
       <c r="E210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F210">
@@ -6914,11 +7015,11 @@
         <v>346</v>
       </c>
       <c r="D211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>495</v>
       </c>
       <c r="E211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F211">
@@ -6942,11 +7043,11 @@
         <v>346</v>
       </c>
       <c r="D212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>469</v>
       </c>
       <c r="E212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F212">
@@ -6970,11 +7071,11 @@
         <v>346</v>
       </c>
       <c r="D213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>443</v>
       </c>
       <c r="E213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>370</v>
       </c>
       <c r="F213">
@@ -6998,11 +7099,11 @@
         <v>346</v>
       </c>
       <c r="D214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>417</v>
       </c>
       <c r="E214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F214">
@@ -7026,11 +7127,11 @@
         <v>346</v>
       </c>
       <c r="D215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>391</v>
       </c>
       <c r="E215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F215">
@@ -7054,11 +7155,11 @@
         <v>346</v>
       </c>
       <c r="D216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>365</v>
       </c>
       <c r="E216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F216">
@@ -7082,11 +7183,11 @@
         <v>346</v>
       </c>
       <c r="D217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="E217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F217">
@@ -7110,11 +7211,11 @@
         <v>346</v>
       </c>
       <c r="D218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>322</v>
       </c>
       <c r="E218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F218">
@@ -7138,11 +7239,11 @@
         <v>346</v>
       </c>
       <c r="D219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>287</v>
       </c>
       <c r="E219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F219">
@@ -7166,11 +7267,11 @@
         <v>346</v>
       </c>
       <c r="D220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>261</v>
       </c>
       <c r="E220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F220">
@@ -7194,11 +7295,11 @@
         <v>346</v>
       </c>
       <c r="D221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>235</v>
       </c>
       <c r="E221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F221">
@@ -7222,11 +7323,11 @@
         <v>346</v>
       </c>
       <c r="D222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>209</v>
       </c>
       <c r="E222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F222">
@@ -7250,11 +7351,11 @@
         <v>346</v>
       </c>
       <c r="D223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>183</v>
       </c>
       <c r="E223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F223">
@@ -7278,11 +7379,11 @@
         <v>346</v>
       </c>
       <c r="D224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
       <c r="E224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F224">
@@ -7306,11 +7407,11 @@
         <v>346</v>
       </c>
       <c r="D225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="E225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F225">
@@ -7334,11 +7435,11 @@
         <v>346</v>
       </c>
       <c r="D226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="E226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>378</v>
       </c>
       <c r="F226">
@@ -7362,11 +7463,11 @@
         <v>380</v>
       </c>
       <c r="D227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>521</v>
       </c>
       <c r="E227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F227">
@@ -7390,11 +7491,11 @@
         <v>380</v>
       </c>
       <c r="D228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>495</v>
       </c>
       <c r="E228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F228">
@@ -7418,11 +7519,11 @@
         <v>380</v>
       </c>
       <c r="D229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>469</v>
       </c>
       <c r="E229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F229">
@@ -7446,11 +7547,11 @@
         <v>380</v>
       </c>
       <c r="D230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>443</v>
       </c>
       <c r="E230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F230">
@@ -7474,11 +7575,11 @@
         <v>380</v>
       </c>
       <c r="D231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>417</v>
       </c>
       <c r="E231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F231">
@@ -7502,11 +7603,11 @@
         <v>380</v>
       </c>
       <c r="D232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>399</v>
       </c>
       <c r="E232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F232">
@@ -7530,11 +7631,11 @@
         <v>380</v>
       </c>
       <c r="D233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>373</v>
       </c>
       <c r="E233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F233">
@@ -7558,11 +7659,11 @@
         <v>380</v>
       </c>
       <c r="D234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>347</v>
       </c>
       <c r="E234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F234">
@@ -7586,11 +7687,11 @@
         <v>380</v>
       </c>
       <c r="D235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>321</v>
       </c>
       <c r="E235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F235">
@@ -7614,11 +7715,11 @@
         <v>380</v>
       </c>
       <c r="D236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>295</v>
       </c>
       <c r="E236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F236">
@@ -7642,11 +7743,11 @@
         <v>380</v>
       </c>
       <c r="D237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>277</v>
       </c>
       <c r="E237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F237">
@@ -7670,11 +7771,11 @@
         <v>380</v>
       </c>
       <c r="D238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>251</v>
       </c>
       <c r="E238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F238">
@@ -7698,11 +7799,11 @@
         <v>380</v>
       </c>
       <c r="D239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>225</v>
       </c>
       <c r="E239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F239">
@@ -7726,11 +7827,11 @@
         <v>380</v>
       </c>
       <c r="D240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>199</v>
       </c>
       <c r="E240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F240">
@@ -7754,11 +7855,11 @@
         <v>380</v>
       </c>
       <c r="D241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>173</v>
       </c>
       <c r="E241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F241">
@@ -7782,11 +7883,11 @@
         <v>380</v>
       </c>
       <c r="D242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="E242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F242">
@@ -7810,11 +7911,11 @@
         <v>380</v>
       </c>
       <c r="D243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="E243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F243">
@@ -7838,11 +7939,11 @@
         <v>380</v>
       </c>
       <c r="D244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="E244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412</v>
       </c>
       <c r="F244">
@@ -7860,11 +7961,11 @@
         <v>20236</v>
       </c>
       <c r="D246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F246">
@@ -7882,11 +7983,11 @@
         <v>20237</v>
       </c>
       <c r="D247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F247">
@@ -7904,11 +8005,11 @@
         <v>20238</v>
       </c>
       <c r="D248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F248">
@@ -7926,11 +8027,11 @@
         <v>20239</v>
       </c>
       <c r="D249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F249">
@@ -7948,11 +8049,11 @@
         <v>20240</v>
       </c>
       <c r="D250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F250">
@@ -7970,11 +8071,11 @@
         <v>20241</v>
       </c>
       <c r="D251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F251">
@@ -7992,11 +8093,11 @@
         <v>20242</v>
       </c>
       <c r="D252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F252">
@@ -8014,11 +8115,11 @@
         <v>20243</v>
       </c>
       <c r="D253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F253">
@@ -8036,11 +8137,11 @@
         <v>20244</v>
       </c>
       <c r="D254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F254">
@@ -8058,11 +8159,11 @@
         <v>20245</v>
       </c>
       <c r="D255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F255">
@@ -8080,11 +8181,11 @@
         <v>20246</v>
       </c>
       <c r="D256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F256">
@@ -8102,11 +8203,11 @@
         <v>20247</v>
       </c>
       <c r="D257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F257">
@@ -8124,11 +8225,11 @@
         <v>20248</v>
       </c>
       <c r="D258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F258">
@@ -8146,11 +8247,11 @@
         <v>20249</v>
       </c>
       <c r="D259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F259">
@@ -8168,11 +8269,11 @@
         <v>20250</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F260">
@@ -8190,11 +8291,11 @@
         <v>20251</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F261">
@@ -8212,11 +8313,11 @@
         <v>20252</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F262">
@@ -8234,11 +8335,11 @@
         <v>20253</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F263">
@@ -8256,11 +8357,11 @@
         <v>20254</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F264">
@@ -8278,11 +8379,11 @@
         <v>20255</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F265">
@@ -8300,11 +8401,11 @@
         <v>20256</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F266">
@@ -8322,11 +8423,11 @@
         <v>20257</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F267">
@@ -8344,11 +8445,11 @@
         <v>20258</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F268">
@@ -8366,11 +8467,11 @@
         <v>20259</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F269">
@@ -8388,11 +8489,11 @@
         <v>20260</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F270">
@@ -8410,11 +8511,11 @@
         <v>20261</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="F271">
@@ -8432,11 +8533,11 @@
         <v>20262</v>
       </c>
       <c r="D272">
-        <f t="shared" ref="D272:E291" si="10">B272+G272</f>
+        <f t="shared" ref="D272:E291" si="12">B272+G272</f>
         <v>16</v>
       </c>
       <c r="E272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F272">
@@ -8454,11 +8555,11 @@
         <v>20263</v>
       </c>
       <c r="D273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F273">
@@ -8476,11 +8577,11 @@
         <v>20264</v>
       </c>
       <c r="D274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F274">
@@ -8498,11 +8599,11 @@
         <v>20265</v>
       </c>
       <c r="D275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F275">
@@ -8520,11 +8621,11 @@
         <v>20266</v>
       </c>
       <c r="D276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F276">
@@ -8542,11 +8643,11 @@
         <v>20267</v>
       </c>
       <c r="D277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F277">
@@ -8564,11 +8665,11 @@
         <v>20268</v>
       </c>
       <c r="D278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F278">
@@ -8586,11 +8687,11 @@
         <v>20269</v>
       </c>
       <c r="D279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F279">
@@ -8608,11 +8709,11 @@
         <v>20270</v>
       </c>
       <c r="D280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F280">
@@ -8630,11 +8731,11 @@
         <v>20271</v>
       </c>
       <c r="D281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F281">
@@ -8652,11 +8753,11 @@
         <v>20272</v>
       </c>
       <c r="D282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F282">
@@ -8674,11 +8775,11 @@
         <v>20273</v>
       </c>
       <c r="D283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F283">
@@ -8696,11 +8797,11 @@
         <v>20274</v>
       </c>
       <c r="D284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F284">
@@ -8718,11 +8819,11 @@
         <v>20275</v>
       </c>
       <c r="D285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F285">
@@ -8740,11 +8841,11 @@
         <v>20276</v>
       </c>
       <c r="D286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F286">
@@ -8762,11 +8863,11 @@
         <v>20277</v>
       </c>
       <c r="D287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F287">
@@ -8784,11 +8885,11 @@
         <v>20278</v>
       </c>
       <c r="D288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F288">
@@ -8806,11 +8907,11 @@
         <v>20279</v>
       </c>
       <c r="D289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F289">
@@ -8828,11 +8929,11 @@
         <v>20280</v>
       </c>
       <c r="D290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F290">
@@ -8850,11 +8951,11 @@
         <v>20281</v>
       </c>
       <c r="D291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="F291">
@@ -11974,10 +12075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F515-6D2A-4B63-9568-E36E7173119D}">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12068,11 +12169,11 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D22" si="0">B3+G3</f>
+        <f t="shared" ref="D3:D39" si="0">B3+G3</f>
         <v>1156</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="1">C3+H3</f>
+        <f t="shared" ref="E3:E55" si="1">C3+H3</f>
         <v>17</v>
       </c>
       <c r="F3">
@@ -12461,108 +12562,134 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>30013</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>30014</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30015</v>
+      <c r="B19">
+        <v>524</v>
+      </c>
+      <c r="C19">
+        <v>193</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>540</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="F19">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>16</v>
       </c>
       <c r="H19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>30006</v>
+      </c>
+      <c r="L19">
+        <v>30013</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>30014</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>30006</v>
+      </c>
+      <c r="R19">
+        <v>30007</v>
+      </c>
+      <c r="S19">
+        <v>30008</v>
+      </c>
+      <c r="T19">
+        <v>30009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>30016</v>
+        <v>30014</v>
+      </c>
+      <c r="B20">
+        <v>541</v>
+      </c>
+      <c r="C20">
+        <v>193</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>557</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="F20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>30007</v>
+      </c>
+      <c r="L20">
+        <v>30031</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>30032</v>
+      </c>
+      <c r="O20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>30017</v>
+        <v>30015</v>
+      </c>
+      <c r="B21">
+        <v>524</v>
+      </c>
+      <c r="C21">
+        <v>221</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>540</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -12570,21 +12697,36 @@
       <c r="H21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>30008</v>
+      </c>
+      <c r="L21">
+        <v>30022</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>30018</v>
+        <v>30016</v>
+      </c>
+      <c r="B22">
+        <v>541</v>
+      </c>
+      <c r="C22">
+        <v>221</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>557</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>16</v>
@@ -12592,253 +12734,947 @@
       <c r="H22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>30009</v>
+      </c>
+      <c r="L22">
+        <v>30037</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>30017</v>
+      </c>
+      <c r="B23">
+        <v>558</v>
+      </c>
+      <c r="C23">
+        <v>221</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>30010</v>
+      </c>
+      <c r="L23">
         <v>30019</v>
       </c>
-      <c r="F23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>30020</v>
+      </c>
+      <c r="O23">
+        <v>100</v>
+      </c>
+      <c r="P23">
+        <v>30021</v>
+      </c>
+      <c r="Q23">
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>30022</v>
+      </c>
+      <c r="S23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>30018</v>
+      </c>
+      <c r="B24">
+        <v>575</v>
+      </c>
+      <c r="C24">
+        <v>221</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30019</v>
+      </c>
+      <c r="B25">
+        <v>524</v>
+      </c>
+      <c r="C25">
+        <v>238</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>30020</v>
       </c>
-      <c r="F24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B26">
+        <v>541</v>
+      </c>
+      <c r="C26">
+        <v>238</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>30021</v>
       </c>
-      <c r="F25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B27">
+        <v>558</v>
+      </c>
+      <c r="C27">
+        <v>238</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>30022</v>
       </c>
-      <c r="F26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B28">
+        <v>575</v>
+      </c>
+      <c r="C28">
+        <v>238</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>30023</v>
       </c>
-      <c r="F27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B29">
+        <v>524</v>
+      </c>
+      <c r="C29">
+        <v>255</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>30024</v>
       </c>
-      <c r="F28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B30">
+        <v>514</v>
+      </c>
+      <c r="C30">
+        <v>255</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30025</v>
       </c>
-      <c r="F29">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B31">
+        <v>558</v>
+      </c>
+      <c r="C31">
+        <v>255</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>30026</v>
       </c>
-      <c r="F30">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B32">
+        <v>575</v>
+      </c>
+      <c r="C32">
+        <v>255</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>30027</v>
       </c>
-      <c r="F31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B33">
+        <v>524</v>
+      </c>
+      <c r="C33">
+        <v>284</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="F33">
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>30028</v>
       </c>
-      <c r="F32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B34">
+        <v>549</v>
+      </c>
+      <c r="C34">
+        <v>284</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>30029</v>
       </c>
-      <c r="F33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B35">
+        <v>524</v>
+      </c>
+      <c r="C35">
+        <v>317</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>30030</v>
       </c>
-      <c r="F34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B36">
+        <v>549</v>
+      </c>
+      <c r="C36">
+        <v>317</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>30031</v>
       </c>
-      <c r="F35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B38">
+        <v>603</v>
+      </c>
+      <c r="C38">
+        <v>194</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>619</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="F38">
+        <v>23</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>30032</v>
       </c>
-      <c r="F36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B39">
+        <v>620</v>
+      </c>
+      <c r="C39">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>636</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="F39">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>16</v>
+      </c>
+      <c r="H39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>30033</v>
       </c>
-      <c r="F37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B40">
+        <v>603</v>
+      </c>
+      <c r="C40">
+        <v>222</v>
+      </c>
+      <c r="D40">
+        <f>B40+G44</f>
+        <v>619</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>16</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>30034</v>
       </c>
-      <c r="F38">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B41">
+        <v>620</v>
+      </c>
+      <c r="C41">
+        <v>222</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D55" si="2">B41+G45</f>
+        <v>636</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="F41">
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>30035</v>
       </c>
-      <c r="F39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B42">
+        <v>637</v>
+      </c>
+      <c r="C42">
+        <v>222</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>653</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="F42">
+        <v>23</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>30036</v>
       </c>
-      <c r="F40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B43">
+        <v>654</v>
+      </c>
+      <c r="C43">
+        <v>222</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>670</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="F43">
+        <v>23</v>
+      </c>
+      <c r="G43">
+        <v>16</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>30037</v>
       </c>
-      <c r="F41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B44">
+        <v>603</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>619</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>30038</v>
       </c>
-      <c r="F42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B45">
+        <v>620</v>
+      </c>
+      <c r="C45">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>636</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="F45">
+        <v>23</v>
+      </c>
+      <c r="G45">
+        <v>16</v>
+      </c>
+      <c r="H45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>30039</v>
       </c>
-      <c r="F43">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B46">
+        <v>637</v>
+      </c>
+      <c r="C46">
+        <v>239</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>653</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="F46">
+        <v>23</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>30040</v>
       </c>
-      <c r="F44">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B47">
+        <v>654</v>
+      </c>
+      <c r="C47">
+        <v>239</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>670</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="F47">
+        <v>23</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>30041</v>
       </c>
-      <c r="F45">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B48">
+        <v>603</v>
+      </c>
+      <c r="C48">
+        <v>256</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>627</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="F48">
+        <v>23</v>
+      </c>
+      <c r="G48">
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>30042</v>
       </c>
-      <c r="F46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B49">
+        <v>620</v>
+      </c>
+      <c r="C49">
+        <v>256</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>644</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="F49">
+        <v>23</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>30043</v>
       </c>
-      <c r="F47">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B50">
+        <v>637</v>
+      </c>
+      <c r="C50">
+        <v>256</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>661</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="F50">
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>30044</v>
       </c>
-      <c r="F48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B51">
+        <v>654</v>
+      </c>
+      <c r="C51">
+        <v>256</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>678</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="F51">
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>30045</v>
       </c>
-      <c r="F49">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B52">
+        <v>603</v>
+      </c>
+      <c r="C52">
+        <v>285</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>317</v>
+      </c>
+      <c r="F52">
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>30046</v>
       </c>
-      <c r="F50">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>30047</v>
-      </c>
-      <c r="F51">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>30048</v>
-      </c>
-      <c r="F52">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>30049</v>
+      <c r="B53">
+        <v>628</v>
+      </c>
+      <c r="C53">
+        <v>285</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>628</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>317</v>
       </c>
       <c r="F53">
         <v>21</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30047</v>
+      </c>
+      <c r="B54">
+        <v>603</v>
+      </c>
+      <c r="C54">
+        <v>138</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="F54">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30048</v>
+      </c>
+      <c r="B55">
+        <v>628</v>
+      </c>
+      <c r="C55">
+        <v>138</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>628</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="F55">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30049</v>
       </c>
     </row>
   </sheetData>
@@ -12850,7 +13686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587876D1-DCD4-44E5-9ABC-9F4A74AB23E7}">
   <dimension ref="A1:EE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+    <sheetView topLeftCell="CI1" workbookViewId="0">
       <selection activeCell="CW10" sqref="CW10"/>
     </sheetView>
   </sheetViews>
@@ -14918,7 +15754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A9162-F69A-40B9-84D4-8B5CB6F3D404}">
   <dimension ref="C1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE5F79-C733-4A5C-B1FA-7E28085E49B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCD616-D6F3-4725-B59A-0C338212E9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="278">
   <si>
     <t>id</t>
   </si>
@@ -859,6 +859,18 @@
   </si>
   <si>
     <t>#right</t>
+  </si>
+  <si>
+    <t>#Goombas</t>
+  </si>
+  <si>
+    <t>#animation Goombas</t>
+  </si>
+  <si>
+    <t>#fireball</t>
+  </si>
+  <si>
+    <t>#ball</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2845,7 +2857,7 @@
         <v>28</v>
       </c>
       <c r="I59">
-        <f t="shared" ref="I39:I102" si="4">C59+4</f>
+        <f t="shared" ref="I59:I102" si="4">C59+4</f>
         <v>92</v>
       </c>
     </row>
@@ -3918,7 +3930,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20094</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20095</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20096</v>
       </c>
@@ -4014,7 +4026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20097</v>
       </c>
@@ -4046,7 +4058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20098</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20099</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20100</v>
       </c>
@@ -4142,7 +4154,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20101</v>
       </c>
@@ -4174,17 +4186,17 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20102</v>
       </c>
@@ -4192,7 +4204,8 @@
         <v>524</v>
       </c>
       <c r="C107">
-        <v>260</v>
+        <f>J107+4</f>
+        <v>264</v>
       </c>
       <c r="D107">
         <f>B107+G107</f>
@@ -4209,10 +4222,13 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J107">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20103</v>
       </c>
@@ -4220,27 +4236,31 @@
         <v>542</v>
       </c>
       <c r="C108">
+        <f t="shared" ref="C108:C109" si="7">J108+4</f>
+        <v>264</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ref="D108:D138" si="8">B108+G108</f>
+        <v>558</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E108:E138" si="9">C108+H108</f>
+        <v>292</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>16</v>
+      </c>
+      <c r="H108">
+        <v>28</v>
+      </c>
+      <c r="J108">
         <v>260</v>
       </c>
-      <c r="D108">
-        <f t="shared" ref="D108:D138" si="7">B108+G108</f>
-        <v>558</v>
-      </c>
-      <c r="E108">
-        <f t="shared" ref="E108:E138" si="8">C108+H108</f>
-        <v>292</v>
-      </c>
-      <c r="F108">
-        <v>10</v>
-      </c>
-      <c r="G108">
-        <v>16</v>
-      </c>
-      <c r="H108">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20104</v>
       </c>
@@ -4248,27 +4268,31 @@
         <v>560</v>
       </c>
       <c r="C109">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>576</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>16</v>
+      </c>
+      <c r="H109">
+        <v>28</v>
+      </c>
+      <c r="J109">
         <v>260</v>
       </c>
-      <c r="D109">
-        <f t="shared" si="7"/>
-        <v>576</v>
-      </c>
-      <c r="E109">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F109">
-        <v>10</v>
-      </c>
-      <c r="G109">
-        <v>16</v>
-      </c>
-      <c r="H109">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20105</v>
       </c>
@@ -4279,11 +4303,11 @@
         <v>260</v>
       </c>
       <c r="D110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>594</v>
       </c>
       <c r="E110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>284</v>
       </c>
       <c r="F110">
@@ -4295,8 +4319,11 @@
       <c r="H110">
         <v>24</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20106</v>
       </c>
@@ -4304,27 +4331,31 @@
         <v>596</v>
       </c>
       <c r="C111">
+        <f>J111+4</f>
+        <v>264</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="8"/>
+        <v>612</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>16</v>
+      </c>
+      <c r="H111">
+        <v>28</v>
+      </c>
+      <c r="J111">
         <v>260</v>
       </c>
-      <c r="D111">
-        <f t="shared" si="7"/>
-        <v>612</v>
-      </c>
-      <c r="E111">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F111">
-        <v>10</v>
-      </c>
-      <c r="G111">
-        <v>16</v>
-      </c>
-      <c r="H111">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20107</v>
       </c>
@@ -4332,14 +4363,15 @@
         <v>614</v>
       </c>
       <c r="C112">
-        <v>260</v>
+        <f t="shared" ref="C112:C138" si="10">J112+4</f>
+        <v>264</v>
       </c>
       <c r="D112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>638</v>
       </c>
       <c r="E112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F112">
@@ -4349,10 +4381,13 @@
         <v>24</v>
       </c>
       <c r="H112">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J112">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20108</v>
       </c>
@@ -4360,14 +4395,15 @@
         <v>640</v>
       </c>
       <c r="C113">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>664</v>
       </c>
       <c r="E113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F113">
@@ -4377,10 +4413,13 @@
         <v>24</v>
       </c>
       <c r="H113">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J113">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20109</v>
       </c>
@@ -4388,14 +4427,15 @@
         <v>666</v>
       </c>
       <c r="C114">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>690</v>
       </c>
       <c r="E114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F114">
@@ -4405,10 +4445,13 @@
         <v>24</v>
       </c>
       <c r="H114">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J114">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20110</v>
       </c>
@@ -4416,14 +4459,15 @@
         <v>692</v>
       </c>
       <c r="C115">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>716</v>
       </c>
       <c r="E115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F115">
@@ -4433,10 +4477,13 @@
         <v>24</v>
       </c>
       <c r="H115">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J115">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20111</v>
       </c>
@@ -4444,27 +4491,31 @@
         <v>718</v>
       </c>
       <c r="C116">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="8"/>
+        <v>734</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>16</v>
+      </c>
+      <c r="H116">
+        <v>28</v>
+      </c>
+      <c r="J116">
         <v>260</v>
       </c>
-      <c r="D116">
-        <f t="shared" si="7"/>
-        <v>734</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F116">
-        <v>10</v>
-      </c>
-      <c r="G116">
-        <v>16</v>
-      </c>
-      <c r="H116">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20112</v>
       </c>
@@ -4472,27 +4523,31 @@
         <v>736</v>
       </c>
       <c r="C117">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="8"/>
+        <v>752</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>16</v>
+      </c>
+      <c r="H117">
+        <v>28</v>
+      </c>
+      <c r="J117">
         <v>260</v>
       </c>
-      <c r="D117">
-        <f t="shared" si="7"/>
-        <v>752</v>
-      </c>
-      <c r="E117">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F117">
-        <v>10</v>
-      </c>
-      <c r="G117">
-        <v>16</v>
-      </c>
-      <c r="H117">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20113</v>
       </c>
@@ -4500,27 +4555,31 @@
         <v>754</v>
       </c>
       <c r="C118">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="8"/>
+        <v>770</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>16</v>
+      </c>
+      <c r="H118">
+        <v>28</v>
+      </c>
+      <c r="J118">
         <v>260</v>
       </c>
-      <c r="D118">
-        <f t="shared" si="7"/>
-        <v>770</v>
-      </c>
-      <c r="E118">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F118">
-        <v>10</v>
-      </c>
-      <c r="G118">
-        <v>16</v>
-      </c>
-      <c r="H118">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20114</v>
       </c>
@@ -4528,27 +4587,31 @@
         <v>772</v>
       </c>
       <c r="C119">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="8"/>
+        <v>788</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <v>16</v>
+      </c>
+      <c r="H119">
+        <v>28</v>
+      </c>
+      <c r="J119">
         <v>260</v>
       </c>
-      <c r="D119">
-        <f t="shared" si="7"/>
-        <v>788</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F119">
-        <v>10</v>
-      </c>
-      <c r="G119">
-        <v>16</v>
-      </c>
-      <c r="H119">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20115</v>
       </c>
@@ -4556,27 +4619,31 @@
         <v>790</v>
       </c>
       <c r="C120">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="8"/>
+        <v>806</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>16</v>
+      </c>
+      <c r="H120">
+        <v>28</v>
+      </c>
+      <c r="J120">
         <v>260</v>
       </c>
-      <c r="D120">
-        <f t="shared" si="7"/>
-        <v>806</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F120">
-        <v>10</v>
-      </c>
-      <c r="G120">
-        <v>16</v>
-      </c>
-      <c r="H120">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20116</v>
       </c>
@@ -4584,27 +4651,31 @@
         <v>808</v>
       </c>
       <c r="C121">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="8"/>
+        <v>824</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>16</v>
+      </c>
+      <c r="H121">
+        <v>28</v>
+      </c>
+      <c r="J121">
         <v>260</v>
       </c>
-      <c r="D121">
-        <f t="shared" si="7"/>
-        <v>824</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F121">
-        <v>10</v>
-      </c>
-      <c r="G121">
-        <v>16</v>
-      </c>
-      <c r="H121">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20117</v>
       </c>
@@ -4612,14 +4683,15 @@
         <v>826</v>
       </c>
       <c r="C122">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>850</v>
       </c>
       <c r="E122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F122">
@@ -4629,10 +4701,13 @@
         <v>24</v>
       </c>
       <c r="H122">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J122">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20118</v>
       </c>
@@ -4640,27 +4715,31 @@
         <v>852</v>
       </c>
       <c r="C123">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="8"/>
+        <v>868</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>16</v>
+      </c>
+      <c r="H123">
+        <v>28</v>
+      </c>
+      <c r="J123">
         <v>260</v>
       </c>
-      <c r="D123">
-        <f t="shared" si="7"/>
-        <v>868</v>
-      </c>
-      <c r="E123">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F123">
-        <v>10</v>
-      </c>
-      <c r="G123">
-        <v>16</v>
-      </c>
-      <c r="H123">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20119</v>
       </c>
@@ -4668,14 +4747,15 @@
         <v>870</v>
       </c>
       <c r="C124">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>894</v>
       </c>
       <c r="E124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F124">
@@ -4685,10 +4765,13 @@
         <v>24</v>
       </c>
       <c r="H124">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J124">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>20120</v>
       </c>
@@ -4696,27 +4779,31 @@
         <v>896</v>
       </c>
       <c r="C125">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="8"/>
+        <v>912</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>16</v>
+      </c>
+      <c r="H125">
+        <v>28</v>
+      </c>
+      <c r="J125">
         <v>260</v>
       </c>
-      <c r="D125">
-        <f t="shared" si="7"/>
-        <v>912</v>
-      </c>
-      <c r="E125">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F125">
-        <v>10</v>
-      </c>
-      <c r="G125">
-        <v>16</v>
-      </c>
-      <c r="H125">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20121</v>
       </c>
@@ -4724,14 +4811,15 @@
         <v>922</v>
       </c>
       <c r="C126">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>946</v>
       </c>
       <c r="E126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F126">
@@ -4741,10 +4829,13 @@
         <v>24</v>
       </c>
       <c r="H126">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J126">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20122</v>
       </c>
@@ -4752,14 +4843,15 @@
         <v>948</v>
       </c>
       <c r="C127">
-        <v>260</v>
+        <f t="shared" si="10"/>
+        <v>264</v>
       </c>
       <c r="D127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>972</v>
       </c>
       <c r="E127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>292</v>
       </c>
       <c r="F127">
@@ -4769,10 +4861,13 @@
         <v>24</v>
       </c>
       <c r="H127">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J127">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20123</v>
       </c>
@@ -4780,27 +4875,31 @@
         <v>974</v>
       </c>
       <c r="C128">
+        <f t="shared" si="10"/>
+        <v>264</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="8"/>
+        <v>990</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="9"/>
+        <v>292</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <v>16</v>
+      </c>
+      <c r="H128">
+        <v>28</v>
+      </c>
+      <c r="J128">
         <v>260</v>
       </c>
-      <c r="D128">
-        <f t="shared" si="7"/>
-        <v>990</v>
-      </c>
-      <c r="E128">
-        <f t="shared" si="8"/>
-        <v>292</v>
-      </c>
-      <c r="F128">
-        <v>10</v>
-      </c>
-      <c r="G128">
-        <v>16</v>
-      </c>
-      <c r="H128">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20124</v>
       </c>
@@ -4808,14 +4907,15 @@
         <v>524</v>
       </c>
       <c r="C129">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>548</v>
       </c>
       <c r="E129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F129">
@@ -4825,10 +4925,13 @@
         <v>24</v>
       </c>
       <c r="H129">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J129">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20125</v>
       </c>
@@ -4836,14 +4939,15 @@
         <v>550</v>
       </c>
       <c r="C130">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>574</v>
       </c>
       <c r="E130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F130">
@@ -4853,10 +4957,13 @@
         <v>24</v>
       </c>
       <c r="H130">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J130">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20126</v>
       </c>
@@ -4864,14 +4971,15 @@
         <v>576</v>
       </c>
       <c r="C131">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="E131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F131">
@@ -4881,10 +4989,13 @@
         <v>24</v>
       </c>
       <c r="H131">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J131">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20127</v>
       </c>
@@ -4892,14 +5003,15 @@
         <v>602</v>
       </c>
       <c r="C132">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>626</v>
       </c>
       <c r="E132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F132">
@@ -4909,10 +5021,13 @@
         <v>24</v>
       </c>
       <c r="H132">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J132">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>20128</v>
       </c>
@@ -4920,14 +5035,15 @@
         <v>628</v>
       </c>
       <c r="C133">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>652</v>
       </c>
       <c r="E133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F133">
@@ -4937,10 +5053,13 @@
         <v>24</v>
       </c>
       <c r="H133">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J133">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20129</v>
       </c>
@@ -4948,14 +5067,15 @@
         <v>654</v>
       </c>
       <c r="C134">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>678</v>
       </c>
       <c r="E134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F134">
@@ -4965,10 +5085,13 @@
         <v>24</v>
       </c>
       <c r="H134">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J134">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20130</v>
       </c>
@@ -4976,14 +5099,15 @@
         <v>680</v>
       </c>
       <c r="C135">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>704</v>
       </c>
       <c r="E135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F135">
@@ -4993,10 +5117,13 @@
         <v>24</v>
       </c>
       <c r="H135">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J135">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20131</v>
       </c>
@@ -5004,14 +5131,15 @@
         <v>706</v>
       </c>
       <c r="C136">
-        <v>294</v>
+        <f t="shared" si="10"/>
+        <v>298</v>
       </c>
       <c r="D136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>730</v>
       </c>
       <c r="E136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326</v>
       </c>
       <c r="F136">
@@ -5021,10 +5149,13 @@
         <v>24</v>
       </c>
       <c r="H136">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J136">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20132</v>
       </c>
@@ -5032,27 +5163,31 @@
         <v>732</v>
       </c>
       <c r="C137">
+        <f t="shared" si="10"/>
+        <v>298</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="8"/>
+        <v>748</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="9"/>
+        <v>326</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
+        <v>16</v>
+      </c>
+      <c r="H137">
+        <v>28</v>
+      </c>
+      <c r="J137">
         <v>294</v>
       </c>
-      <c r="D137">
-        <f t="shared" si="7"/>
-        <v>748</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="8"/>
-        <v>326</v>
-      </c>
-      <c r="F137">
-        <v>10</v>
-      </c>
-      <c r="G137">
-        <v>16</v>
-      </c>
-      <c r="H137">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20133</v>
       </c>
@@ -5060,32 +5195,36 @@
         <v>750</v>
       </c>
       <c r="C138">
+        <f t="shared" si="10"/>
+        <v>298</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="8"/>
+        <v>766</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="9"/>
+        <v>326</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138">
+        <v>16</v>
+      </c>
+      <c r="H138">
+        <v>28</v>
+      </c>
+      <c r="J138">
         <v>294</v>
       </c>
-      <c r="D138">
-        <f t="shared" si="7"/>
-        <v>766</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="8"/>
-        <v>326</v>
-      </c>
-      <c r="F138">
-        <v>10</v>
-      </c>
-      <c r="G138">
-        <v>16</v>
-      </c>
-      <c r="H138">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20134</v>
       </c>
@@ -5093,27 +5232,34 @@
         <v>505</v>
       </c>
       <c r="C140">
+        <v>264</v>
+      </c>
+      <c r="D140">
+        <f t="shared" ref="D140:D205" si="11">B140+G140</f>
+        <v>521</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ref="E140:E205" si="12">C140+H140</f>
+        <v>292</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <v>16</v>
+      </c>
+      <c r="H140">
+        <v>28</v>
+      </c>
+      <c r="J140">
         <v>260</v>
       </c>
-      <c r="D140">
-        <f t="shared" ref="D140:D205" si="9">B140+G140</f>
-        <v>521</v>
-      </c>
-      <c r="E140">
-        <f t="shared" ref="E140:E205" si="10">C140+H140</f>
-        <v>292</v>
-      </c>
-      <c r="F140">
-        <v>10</v>
-      </c>
-      <c r="G140">
-        <v>16</v>
-      </c>
-      <c r="H140">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <f>J140+4</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20135</v>
       </c>
@@ -5121,27 +5267,34 @@
         <v>487</v>
       </c>
       <c r="C141">
+        <v>264</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="11"/>
+        <v>503</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>16</v>
+      </c>
+      <c r="H141">
+        <v>28</v>
+      </c>
+      <c r="J141">
         <v>260</v>
       </c>
-      <c r="D141">
-        <f t="shared" si="9"/>
-        <v>503</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F141">
-        <v>10</v>
-      </c>
-      <c r="G141">
-        <v>16</v>
-      </c>
-      <c r="H141">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <f t="shared" ref="K141:K171" si="13">J141+4</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20136</v>
       </c>
@@ -5149,27 +5302,34 @@
         <v>469</v>
       </c>
       <c r="C142">
+        <v>264</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="11"/>
+        <v>485</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>16</v>
+      </c>
+      <c r="H142">
+        <v>28</v>
+      </c>
+      <c r="J142">
         <v>260</v>
       </c>
-      <c r="D142">
-        <f t="shared" si="9"/>
-        <v>485</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F142">
-        <v>10</v>
-      </c>
-      <c r="G142">
-        <v>16</v>
-      </c>
-      <c r="H142">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20137</v>
       </c>
@@ -5177,15 +5337,15 @@
         <v>451</v>
       </c>
       <c r="C143">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>467</v>
       </c>
       <c r="E143">
-        <f t="shared" si="10"/>
-        <v>284</v>
+        <f t="shared" si="12"/>
+        <v>292</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -5196,8 +5356,15 @@
       <c r="H143">
         <v>24</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>260</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>20138</v>
       </c>
@@ -5205,27 +5372,34 @@
         <v>433</v>
       </c>
       <c r="C144">
+        <v>264</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="11"/>
+        <v>449</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144">
+        <v>16</v>
+      </c>
+      <c r="H144">
+        <v>28</v>
+      </c>
+      <c r="J144">
         <v>260</v>
       </c>
-      <c r="D144">
-        <f t="shared" si="9"/>
-        <v>449</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F144">
-        <v>10</v>
-      </c>
-      <c r="G144">
-        <v>16</v>
-      </c>
-      <c r="H144">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20139</v>
       </c>
@@ -5233,14 +5407,14 @@
         <v>407</v>
       </c>
       <c r="C145">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>431</v>
       </c>
       <c r="E145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F145">
@@ -5250,10 +5424,17 @@
         <v>24</v>
       </c>
       <c r="H145">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J145">
+        <v>260</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20140</v>
       </c>
@@ -5261,14 +5442,14 @@
         <v>381</v>
       </c>
       <c r="C146">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>405</v>
       </c>
       <c r="E146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F146">
@@ -5278,10 +5459,17 @@
         <v>24</v>
       </c>
       <c r="H146">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J146">
+        <v>260</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20141</v>
       </c>
@@ -5289,14 +5477,14 @@
         <v>355</v>
       </c>
       <c r="C147">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>379</v>
       </c>
       <c r="E147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F147">
@@ -5306,10 +5494,17 @@
         <v>24</v>
       </c>
       <c r="H147">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J147">
+        <v>260</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20142</v>
       </c>
@@ -5317,14 +5512,14 @@
         <v>329</v>
       </c>
       <c r="C148">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>353</v>
       </c>
       <c r="E148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F148">
@@ -5334,10 +5529,17 @@
         <v>24</v>
       </c>
       <c r="H148">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J148">
+        <v>260</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20143</v>
       </c>
@@ -5345,27 +5547,34 @@
         <v>311</v>
       </c>
       <c r="C149">
+        <v>264</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="11"/>
+        <v>327</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
+        <v>16</v>
+      </c>
+      <c r="H149">
+        <v>28</v>
+      </c>
+      <c r="J149">
         <v>260</v>
       </c>
-      <c r="D149">
-        <f t="shared" si="9"/>
-        <v>327</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F149">
-        <v>10</v>
-      </c>
-      <c r="G149">
-        <v>16</v>
-      </c>
-      <c r="H149">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20144</v>
       </c>
@@ -5373,27 +5582,34 @@
         <v>293</v>
       </c>
       <c r="C150">
+        <v>264</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="11"/>
+        <v>309</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <v>16</v>
+      </c>
+      <c r="H150">
+        <v>28</v>
+      </c>
+      <c r="J150">
         <v>260</v>
       </c>
-      <c r="D150">
-        <f t="shared" si="9"/>
-        <v>309</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F150">
-        <v>10</v>
-      </c>
-      <c r="G150">
-        <v>16</v>
-      </c>
-      <c r="H150">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>20145</v>
       </c>
@@ -5401,27 +5617,34 @@
         <v>275</v>
       </c>
       <c r="C151">
+        <v>264</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="11"/>
+        <v>291</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
+        <v>16</v>
+      </c>
+      <c r="H151">
+        <v>28</v>
+      </c>
+      <c r="J151">
         <v>260</v>
       </c>
-      <c r="D151">
-        <f t="shared" si="9"/>
-        <v>291</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F151">
-        <v>10</v>
-      </c>
-      <c r="G151">
-        <v>16</v>
-      </c>
-      <c r="H151">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>20146</v>
       </c>
@@ -5429,27 +5652,34 @@
         <v>257</v>
       </c>
       <c r="C152">
+        <v>264</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>16</v>
+      </c>
+      <c r="H152">
+        <v>28</v>
+      </c>
+      <c r="J152">
         <v>260</v>
       </c>
-      <c r="D152">
-        <f t="shared" si="9"/>
-        <v>273</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F152">
-        <v>10</v>
-      </c>
-      <c r="G152">
-        <v>16</v>
-      </c>
-      <c r="H152">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20147</v>
       </c>
@@ -5457,27 +5687,34 @@
         <v>239</v>
       </c>
       <c r="C153">
+        <v>264</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="11"/>
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>16</v>
+      </c>
+      <c r="H153">
+        <v>28</v>
+      </c>
+      <c r="J153">
         <v>260</v>
       </c>
-      <c r="D153">
-        <f t="shared" si="9"/>
-        <v>255</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F153">
-        <v>10</v>
-      </c>
-      <c r="G153">
-        <v>16</v>
-      </c>
-      <c r="H153">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>20148</v>
       </c>
@@ -5485,27 +5722,34 @@
         <v>221</v>
       </c>
       <c r="C154">
+        <v>264</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="11"/>
+        <v>237</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>16</v>
+      </c>
+      <c r="H154">
+        <v>28</v>
+      </c>
+      <c r="J154">
         <v>260</v>
       </c>
-      <c r="D154">
-        <f t="shared" si="9"/>
-        <v>237</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F154">
-        <v>10</v>
-      </c>
-      <c r="G154">
-        <v>16</v>
-      </c>
-      <c r="H154">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>20149</v>
       </c>
@@ -5513,14 +5757,14 @@
         <v>195</v>
       </c>
       <c r="C155">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>219</v>
       </c>
       <c r="E155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F155">
@@ -5530,10 +5774,17 @@
         <v>24</v>
       </c>
       <c r="H155">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J155">
+        <v>260</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>20150</v>
       </c>
@@ -5541,27 +5792,34 @@
         <v>177</v>
       </c>
       <c r="C156">
+        <v>264</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="11"/>
+        <v>193</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>16</v>
+      </c>
+      <c r="H156">
+        <v>28</v>
+      </c>
+      <c r="J156">
         <v>260</v>
       </c>
-      <c r="D156">
-        <f t="shared" si="9"/>
-        <v>193</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F156">
-        <v>10</v>
-      </c>
-      <c r="G156">
-        <v>16</v>
-      </c>
-      <c r="H156">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>20151</v>
       </c>
@@ -5569,14 +5827,14 @@
         <v>151</v>
       </c>
       <c r="C157">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>175</v>
       </c>
       <c r="E157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F157">
@@ -5586,10 +5844,17 @@
         <v>24</v>
       </c>
       <c r="H157">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J157">
+        <v>260</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>20152</v>
       </c>
@@ -5597,14 +5862,14 @@
         <v>125</v>
       </c>
       <c r="C158">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="E158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F158">
@@ -5614,10 +5879,17 @@
         <v>24</v>
       </c>
       <c r="H158">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J158">
+        <v>260</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>20153</v>
       </c>
@@ -5625,14 +5897,14 @@
         <v>99</v>
       </c>
       <c r="C159">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
       <c r="E159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F159">
@@ -5642,10 +5914,17 @@
         <v>24</v>
       </c>
       <c r="H159">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J159">
+        <v>260</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20154</v>
       </c>
@@ -5653,14 +5932,14 @@
         <v>73</v>
       </c>
       <c r="C160">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="E160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="F160">
@@ -5670,10 +5949,17 @@
         <v>24</v>
       </c>
       <c r="H160">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J160">
+        <v>260</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>20155</v>
       </c>
@@ -5681,27 +5967,34 @@
         <v>55</v>
       </c>
       <c r="C161">
+        <v>264</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="12"/>
+        <v>292</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
+        <v>16</v>
+      </c>
+      <c r="H161">
+        <v>28</v>
+      </c>
+      <c r="J161">
         <v>260</v>
       </c>
-      <c r="D161">
-        <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="10"/>
-        <v>292</v>
-      </c>
-      <c r="F161">
-        <v>10</v>
-      </c>
-      <c r="G161">
-        <v>16</v>
-      </c>
-      <c r="H161">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>20156</v>
       </c>
@@ -5709,14 +6002,14 @@
         <v>497</v>
       </c>
       <c r="C162">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>521</v>
       </c>
       <c r="E162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F162">
@@ -5726,10 +6019,17 @@
         <v>24</v>
       </c>
       <c r="H162">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J162">
+        <v>294</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>20157</v>
       </c>
@@ -5737,14 +6037,14 @@
         <v>471</v>
       </c>
       <c r="C163">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>495</v>
       </c>
       <c r="E163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F163">
@@ -5754,10 +6054,17 @@
         <v>24</v>
       </c>
       <c r="H163">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J163">
+        <v>294</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>20158</v>
       </c>
@@ -5765,14 +6072,14 @@
         <v>445</v>
       </c>
       <c r="C164">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>469</v>
       </c>
       <c r="E164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F164">
@@ -5782,10 +6089,17 @@
         <v>24</v>
       </c>
       <c r="H164">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J164">
+        <v>294</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>20159</v>
       </c>
@@ -5793,14 +6107,14 @@
         <v>419</v>
       </c>
       <c r="C165">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>443</v>
       </c>
       <c r="E165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F165">
@@ -5810,10 +6124,17 @@
         <v>24</v>
       </c>
       <c r="H165">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J165">
+        <v>294</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20160</v>
       </c>
@@ -5821,14 +6142,14 @@
         <v>393</v>
       </c>
       <c r="C166">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>417</v>
       </c>
       <c r="E166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F166">
@@ -5838,10 +6159,17 @@
         <v>24</v>
       </c>
       <c r="H166">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J166">
+        <v>294</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>20161</v>
       </c>
@@ -5849,14 +6177,14 @@
         <v>367</v>
       </c>
       <c r="C167">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>391</v>
       </c>
       <c r="E167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F167">
@@ -5866,10 +6194,17 @@
         <v>24</v>
       </c>
       <c r="H167">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J167">
+        <v>294</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>20162</v>
       </c>
@@ -5877,14 +6212,14 @@
         <v>341</v>
       </c>
       <c r="C168">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>365</v>
       </c>
       <c r="E168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F168">
@@ -5894,10 +6229,17 @@
         <v>24</v>
       </c>
       <c r="H168">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J168">
+        <v>294</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>20163</v>
       </c>
@@ -5905,14 +6247,14 @@
         <v>315</v>
       </c>
       <c r="C169">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="E169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326</v>
       </c>
       <c r="F169">
@@ -5922,10 +6264,17 @@
         <v>24</v>
       </c>
       <c r="H169">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J169">
+        <v>294</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>20164</v>
       </c>
@@ -5933,27 +6282,34 @@
         <v>297</v>
       </c>
       <c r="C170">
+        <v>298</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="11"/>
+        <v>313</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="12"/>
+        <v>326</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <v>16</v>
+      </c>
+      <c r="H170">
+        <v>28</v>
+      </c>
+      <c r="J170">
         <v>294</v>
       </c>
-      <c r="D170">
-        <f t="shared" si="9"/>
-        <v>313</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="10"/>
-        <v>326</v>
-      </c>
-      <c r="F170">
-        <v>10</v>
-      </c>
-      <c r="G170">
-        <v>16</v>
-      </c>
-      <c r="H170">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>20165</v>
       </c>
@@ -5961,37 +6317,44 @@
         <v>279</v>
       </c>
       <c r="C171">
+        <v>298</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="12"/>
+        <v>326</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+      <c r="G171">
+        <v>16</v>
+      </c>
+      <c r="H171">
+        <v>28</v>
+      </c>
+      <c r="J171">
         <v>294</v>
       </c>
-      <c r="D171">
-        <f t="shared" si="9"/>
-        <v>295</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="10"/>
-        <v>326</v>
-      </c>
-      <c r="F171">
-        <v>10</v>
-      </c>
-      <c r="G171">
-        <v>16</v>
-      </c>
-      <c r="H171">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <f t="shared" si="13"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20166</v>
       </c>
@@ -5999,14 +6362,14 @@
         <v>524</v>
       </c>
       <c r="C174">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>548</v>
       </c>
       <c r="E174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F174">
@@ -6016,10 +6379,17 @@
         <v>24</v>
       </c>
       <c r="H174">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J174">
+        <v>346</v>
+      </c>
+      <c r="K174">
+        <f>J174+4</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>20167</v>
       </c>
@@ -6027,14 +6397,14 @@
         <v>550</v>
       </c>
       <c r="C175">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>574</v>
       </c>
       <c r="E175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F175">
@@ -6044,10 +6414,17 @@
         <v>24</v>
       </c>
       <c r="H175">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J175">
+        <v>346</v>
+      </c>
+      <c r="K175">
+        <f t="shared" ref="K175:K238" si="14">J175+4</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>20168</v>
       </c>
@@ -6055,14 +6432,14 @@
         <v>576</v>
       </c>
       <c r="C176">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>600</v>
       </c>
       <c r="E176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F176">
@@ -6072,10 +6449,16 @@
         <v>24</v>
       </c>
       <c r="H176">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J176">
+        <v>346</v>
+      </c>
+      <c r="K176">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>20169</v>
       </c>
@@ -6083,15 +6466,15 @@
         <v>602</v>
       </c>
       <c r="C177">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>626</v>
       </c>
       <c r="E177">
-        <f t="shared" si="10"/>
-        <v>370</v>
+        <f t="shared" si="12"/>
+        <v>374</v>
       </c>
       <c r="F177">
         <v>10</v>
@@ -6102,8 +6485,15 @@
       <c r="H177">
         <v>24</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <v>346</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>20170</v>
       </c>
@@ -6111,14 +6501,14 @@
         <v>628</v>
       </c>
       <c r="C178">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>652</v>
       </c>
       <c r="E178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F178">
@@ -6128,10 +6518,17 @@
         <v>24</v>
       </c>
       <c r="H178">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J178">
+        <v>346</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>20171</v>
       </c>
@@ -6139,14 +6536,14 @@
         <v>654</v>
       </c>
       <c r="C179">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>678</v>
       </c>
       <c r="E179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F179">
@@ -6156,10 +6553,17 @@
         <v>24</v>
       </c>
       <c r="H179">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J179">
+        <v>346</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>20172</v>
       </c>
@@ -6167,14 +6571,14 @@
         <v>680</v>
       </c>
       <c r="C180">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>704</v>
       </c>
       <c r="E180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F180">
@@ -6184,10 +6588,17 @@
         <v>24</v>
       </c>
       <c r="H180">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J180">
+        <v>346</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>20173</v>
       </c>
@@ -6195,14 +6606,14 @@
         <v>706</v>
       </c>
       <c r="C181">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>730</v>
       </c>
       <c r="E181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F181">
@@ -6212,10 +6623,17 @@
         <v>24</v>
       </c>
       <c r="H181">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J181">
+        <v>346</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>20174</v>
       </c>
@@ -6223,14 +6641,14 @@
         <v>732</v>
       </c>
       <c r="C182">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>756</v>
       </c>
       <c r="E182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F182">
@@ -6240,10 +6658,17 @@
         <v>24</v>
       </c>
       <c r="H182">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J182">
+        <v>346</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>20175</v>
       </c>
@@ -6251,14 +6676,14 @@
         <v>758</v>
       </c>
       <c r="C183">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>782</v>
       </c>
       <c r="E183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F183">
@@ -6268,10 +6693,17 @@
         <v>24</v>
       </c>
       <c r="H183">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J183">
+        <v>346</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>20176</v>
       </c>
@@ -6279,14 +6711,14 @@
         <v>784</v>
       </c>
       <c r="C184">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>808</v>
       </c>
       <c r="E184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F184">
@@ -6296,10 +6728,17 @@
         <v>24</v>
       </c>
       <c r="H184">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J184">
+        <v>346</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>20177</v>
       </c>
@@ -6307,14 +6746,14 @@
         <v>810</v>
       </c>
       <c r="C185">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>834</v>
       </c>
       <c r="E185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F185">
@@ -6324,10 +6763,17 @@
         <v>24</v>
       </c>
       <c r="H185">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J185">
+        <v>346</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20178</v>
       </c>
@@ -6335,14 +6781,14 @@
         <v>836</v>
       </c>
       <c r="C186">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>860</v>
       </c>
       <c r="E186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F186">
@@ -6352,10 +6798,17 @@
         <v>24</v>
       </c>
       <c r="H186">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J186">
+        <v>346</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>20179</v>
       </c>
@@ -6363,27 +6816,34 @@
         <v>862</v>
       </c>
       <c r="C187">
+        <v>350</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="11"/>
+        <v>878</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="12"/>
+        <v>378</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187">
+        <v>16</v>
+      </c>
+      <c r="H187">
+        <v>28</v>
+      </c>
+      <c r="J187">
         <v>346</v>
       </c>
-      <c r="D187">
-        <f t="shared" si="9"/>
-        <v>878</v>
-      </c>
-      <c r="E187">
-        <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="F187">
-        <v>10</v>
-      </c>
-      <c r="G187">
-        <v>16</v>
-      </c>
-      <c r="H187">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20180</v>
       </c>
@@ -6391,27 +6851,34 @@
         <v>880</v>
       </c>
       <c r="C188">
+        <v>350</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="11"/>
+        <v>896</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="12"/>
+        <v>378</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188">
+        <v>16</v>
+      </c>
+      <c r="H188">
+        <v>28</v>
+      </c>
+      <c r="J188">
         <v>346</v>
       </c>
-      <c r="D188">
-        <f t="shared" si="9"/>
-        <v>896</v>
-      </c>
-      <c r="E188">
-        <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="F188">
-        <v>10</v>
-      </c>
-      <c r="G188">
-        <v>16</v>
-      </c>
-      <c r="H188">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>20181</v>
       </c>
@@ -6419,14 +6886,14 @@
         <v>898</v>
       </c>
       <c r="C189">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>922</v>
       </c>
       <c r="E189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="F189">
@@ -6436,10 +6903,17 @@
         <v>24</v>
       </c>
       <c r="H189">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J189">
+        <v>346</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20182</v>
       </c>
@@ -6447,27 +6921,34 @@
         <v>924</v>
       </c>
       <c r="C190">
+        <v>350</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="11"/>
+        <v>940</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="12"/>
+        <v>378</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190">
+        <v>16</v>
+      </c>
+      <c r="H190">
+        <v>28</v>
+      </c>
+      <c r="J190">
         <v>346</v>
       </c>
-      <c r="D190">
-        <f t="shared" si="9"/>
-        <v>940</v>
-      </c>
-      <c r="E190">
-        <f t="shared" si="10"/>
-        <v>378</v>
-      </c>
-      <c r="F190">
-        <v>10</v>
-      </c>
-      <c r="G190">
-        <v>16</v>
-      </c>
-      <c r="H190">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>20183</v>
       </c>
@@ -6475,14 +6956,14 @@
         <v>524</v>
       </c>
       <c r="C191">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>548</v>
       </c>
       <c r="E191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F191">
@@ -6492,10 +6973,17 @@
         <v>24</v>
       </c>
       <c r="H191">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J191">
+        <v>380</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20184</v>
       </c>
@@ -6503,14 +6991,14 @@
         <v>550</v>
       </c>
       <c r="C192">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>574</v>
       </c>
       <c r="E192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F192">
@@ -6520,10 +7008,17 @@
         <v>24</v>
       </c>
       <c r="H192">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J192">
+        <v>380</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>20185</v>
       </c>
@@ -6531,14 +7026,14 @@
         <v>576</v>
       </c>
       <c r="C193">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>600</v>
       </c>
       <c r="E193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F193">
@@ -6548,10 +7043,17 @@
         <v>24</v>
       </c>
       <c r="H193">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J193">
+        <v>380</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20186</v>
       </c>
@@ -6559,14 +7061,14 @@
         <v>602</v>
       </c>
       <c r="C194">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>626</v>
       </c>
       <c r="E194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F194">
@@ -6576,10 +7078,17 @@
         <v>24</v>
       </c>
       <c r="H194">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J194">
+        <v>380</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>20187</v>
       </c>
@@ -6587,27 +7096,34 @@
         <v>628</v>
       </c>
       <c r="C195">
+        <v>384</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="11"/>
+        <v>644</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="12"/>
+        <v>412</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>16</v>
+      </c>
+      <c r="H195">
+        <v>28</v>
+      </c>
+      <c r="J195">
         <v>380</v>
       </c>
-      <c r="D195">
-        <f t="shared" si="9"/>
-        <v>644</v>
-      </c>
-      <c r="E195">
-        <f t="shared" si="10"/>
-        <v>412</v>
-      </c>
-      <c r="F195">
-        <v>10</v>
-      </c>
-      <c r="G195">
-        <v>16</v>
-      </c>
-      <c r="H195">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>20188</v>
       </c>
@@ -6615,14 +7131,14 @@
         <v>646</v>
       </c>
       <c r="C196">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>670</v>
       </c>
       <c r="E196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F196">
@@ -6632,10 +7148,17 @@
         <v>24</v>
       </c>
       <c r="H196">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J196">
+        <v>380</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20189</v>
       </c>
@@ -6643,14 +7166,14 @@
         <v>672</v>
       </c>
       <c r="C197">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>696</v>
       </c>
       <c r="E197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F197">
@@ -6660,10 +7183,17 @@
         <v>24</v>
       </c>
       <c r="H197">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J197">
+        <v>380</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20190</v>
       </c>
@@ -6671,14 +7201,14 @@
         <v>698</v>
       </c>
       <c r="C198">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>722</v>
       </c>
       <c r="E198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F198">
@@ -6688,10 +7218,17 @@
         <v>24</v>
       </c>
       <c r="H198">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J198">
+        <v>380</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>20191</v>
       </c>
@@ -6699,14 +7236,14 @@
         <v>724</v>
       </c>
       <c r="C199">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>748</v>
       </c>
       <c r="E199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F199">
@@ -6716,10 +7253,17 @@
         <v>24</v>
       </c>
       <c r="H199">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J199">
+        <v>380</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>20192</v>
       </c>
@@ -6727,27 +7271,34 @@
         <v>750</v>
       </c>
       <c r="C200">
+        <v>384</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="11"/>
+        <v>766</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="12"/>
+        <v>412</v>
+      </c>
+      <c r="F200">
+        <v>10</v>
+      </c>
+      <c r="G200">
+        <v>16</v>
+      </c>
+      <c r="H200">
+        <v>28</v>
+      </c>
+      <c r="J200">
         <v>380</v>
       </c>
-      <c r="D200">
-        <f t="shared" si="9"/>
-        <v>766</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="10"/>
-        <v>412</v>
-      </c>
-      <c r="F200">
-        <v>10</v>
-      </c>
-      <c r="G200">
-        <v>16</v>
-      </c>
-      <c r="H200">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>20193</v>
       </c>
@@ -6755,14 +7306,14 @@
         <v>768</v>
       </c>
       <c r="C201">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>792</v>
       </c>
       <c r="E201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F201">
@@ -6772,10 +7323,17 @@
         <v>24</v>
       </c>
       <c r="H201">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J201">
+        <v>380</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>20194</v>
       </c>
@@ -6783,14 +7341,14 @@
         <v>794</v>
       </c>
       <c r="C202">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>818</v>
       </c>
       <c r="E202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F202">
@@ -6800,10 +7358,17 @@
         <v>24</v>
       </c>
       <c r="H202">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J202">
+        <v>380</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>20195</v>
       </c>
@@ -6811,14 +7376,14 @@
         <v>820</v>
       </c>
       <c r="C203">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>844</v>
       </c>
       <c r="E203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F203">
@@ -6828,10 +7393,17 @@
         <v>24</v>
       </c>
       <c r="H203">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J203">
+        <v>380</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20196</v>
       </c>
@@ -6839,14 +7411,14 @@
         <v>846</v>
       </c>
       <c r="C204">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>870</v>
       </c>
       <c r="E204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F204">
@@ -6856,10 +7428,17 @@
         <v>24</v>
       </c>
       <c r="H204">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J204">
+        <v>380</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20197</v>
       </c>
@@ -6867,14 +7446,14 @@
         <v>872</v>
       </c>
       <c r="C205">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>896</v>
       </c>
       <c r="E205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>412</v>
       </c>
       <c r="F205">
@@ -6884,10 +7463,17 @@
         <v>24</v>
       </c>
       <c r="H205">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J205">
+        <v>380</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>20198</v>
       </c>
@@ -6895,14 +7481,14 @@
         <v>898</v>
       </c>
       <c r="C206">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D206">
-        <f t="shared" ref="D206:E271" si="11">B206+G206</f>
+        <f t="shared" ref="D206:E272" si="15">B206+G206</f>
         <v>922</v>
       </c>
       <c r="E206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F206">
@@ -6912,10 +7498,17 @@
         <v>24</v>
       </c>
       <c r="H206">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J206">
+        <v>380</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>20199</v>
       </c>
@@ -6923,14 +7516,14 @@
         <v>924</v>
       </c>
       <c r="C207">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>948</v>
       </c>
       <c r="E207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F207">
@@ -6940,10 +7533,17 @@
         <v>24</v>
       </c>
       <c r="H207">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J207">
+        <v>380</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>20200</v>
       </c>
@@ -6951,14 +7551,14 @@
         <v>950</v>
       </c>
       <c r="C208">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>974</v>
       </c>
       <c r="E208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F208">
@@ -6968,15 +7568,29 @@
         <v>24</v>
       </c>
       <c r="H208">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J208">
+        <v>380</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>20201</v>
       </c>
@@ -6984,14 +7598,14 @@
         <v>497</v>
       </c>
       <c r="C210">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>521</v>
       </c>
       <c r="E210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F210">
@@ -7001,10 +7615,17 @@
         <v>24</v>
       </c>
       <c r="H210">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J210">
+        <v>346</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>20202</v>
       </c>
@@ -7012,14 +7633,14 @@
         <v>471</v>
       </c>
       <c r="C211">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>495</v>
       </c>
       <c r="E211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F211">
@@ -7029,10 +7650,17 @@
         <v>24</v>
       </c>
       <c r="H211">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J211">
+        <v>346</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20203</v>
       </c>
@@ -7040,14 +7668,14 @@
         <v>445</v>
       </c>
       <c r="C212">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>469</v>
       </c>
       <c r="E212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F212">
@@ -7057,10 +7685,17 @@
         <v>24</v>
       </c>
       <c r="H212">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J212">
+        <v>346</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20204</v>
       </c>
@@ -7071,11 +7706,11 @@
         <v>346</v>
       </c>
       <c r="D213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>443</v>
       </c>
       <c r="E213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>370</v>
       </c>
       <c r="F213">
@@ -7087,8 +7722,14 @@
       <c r="H213">
         <v>24</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <v>346</v>
+      </c>
+      <c r="K213">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>20205</v>
       </c>
@@ -7096,14 +7737,14 @@
         <v>393</v>
       </c>
       <c r="C214">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>417</v>
       </c>
       <c r="E214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F214">
@@ -7113,10 +7754,17 @@
         <v>24</v>
       </c>
       <c r="H214">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J214">
+        <v>346</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>20206</v>
       </c>
@@ -7124,14 +7772,14 @@
         <v>367</v>
       </c>
       <c r="C215">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>391</v>
       </c>
       <c r="E215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F215">
@@ -7141,10 +7789,17 @@
         <v>24</v>
       </c>
       <c r="H215">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J215">
+        <v>346</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>20207</v>
       </c>
@@ -7152,14 +7807,14 @@
         <v>341</v>
       </c>
       <c r="C216">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>365</v>
       </c>
       <c r="E216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F216">
@@ -7169,10 +7824,17 @@
         <v>24</v>
       </c>
       <c r="H216">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J216">
+        <v>346</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>20208</v>
       </c>
@@ -7180,14 +7842,14 @@
         <v>315</v>
       </c>
       <c r="C217">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>339</v>
       </c>
       <c r="E217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F217">
@@ -7197,25 +7859,32 @@
         <v>24</v>
       </c>
       <c r="H217">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J217">
+        <v>346</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>20209</v>
       </c>
       <c r="B218">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C218">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D218">
-        <f t="shared" si="11"/>
-        <v>322</v>
+        <f t="shared" si="15"/>
+        <v>313</v>
       </c>
       <c r="E218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F218">
@@ -7225,10 +7894,17 @@
         <v>24</v>
       </c>
       <c r="H218">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J218">
+        <v>346</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20210</v>
       </c>
@@ -7236,14 +7912,14 @@
         <v>263</v>
       </c>
       <c r="C219">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>287</v>
       </c>
       <c r="E219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F219">
@@ -7253,10 +7929,17 @@
         <v>24</v>
       </c>
       <c r="H219">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J219">
+        <v>346</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20211</v>
       </c>
@@ -7264,14 +7947,14 @@
         <v>237</v>
       </c>
       <c r="C220">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>261</v>
       </c>
       <c r="E220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F220">
@@ -7281,10 +7964,17 @@
         <v>24</v>
       </c>
       <c r="H220">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J220">
+        <v>346</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>20212</v>
       </c>
@@ -7292,14 +7982,14 @@
         <v>211</v>
       </c>
       <c r="C221">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>235</v>
       </c>
       <c r="E221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F221">
@@ -7309,10 +7999,17 @@
         <v>24</v>
       </c>
       <c r="H221">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J221">
+        <v>346</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20213</v>
       </c>
@@ -7320,14 +8017,14 @@
         <v>185</v>
       </c>
       <c r="C222">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>209</v>
       </c>
       <c r="E222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F222">
@@ -7337,10 +8034,17 @@
         <v>24</v>
       </c>
       <c r="H222">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J222">
+        <v>346</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>20214</v>
       </c>
@@ -7348,70 +8052,85 @@
         <v>167</v>
       </c>
       <c r="C223">
+        <v>350</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="15"/>
+        <v>183</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="15"/>
+        <v>378</v>
+      </c>
+      <c r="F223">
+        <v>10</v>
+      </c>
+      <c r="G223">
+        <v>16</v>
+      </c>
+      <c r="H223">
+        <v>28</v>
+      </c>
+      <c r="J223">
         <v>346</v>
       </c>
-      <c r="D223">
-        <f t="shared" si="11"/>
-        <v>183</v>
-      </c>
-      <c r="E223">
-        <f t="shared" si="11"/>
-        <v>378</v>
-      </c>
-      <c r="F223">
-        <v>10</v>
-      </c>
-      <c r="G223">
-        <v>16</v>
-      </c>
-      <c r="H223">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>20215</v>
       </c>
       <c r="B224">
-        <v>149</v>
+        <f>149-8</f>
+        <v>141</v>
       </c>
       <c r="C224">
+        <v>350</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="15"/>
+        <v>378</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+      <c r="G224">
+        <v>24</v>
+      </c>
+      <c r="H224">
+        <v>28</v>
+      </c>
+      <c r="J224">
         <v>346</v>
       </c>
-      <c r="D224">
-        <f t="shared" si="11"/>
-        <v>165</v>
-      </c>
-      <c r="E224">
-        <f t="shared" si="11"/>
-        <v>378</v>
-      </c>
-      <c r="F224">
-        <v>10</v>
-      </c>
-      <c r="G224">
-        <v>16</v>
-      </c>
-      <c r="H224">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>20216</v>
       </c>
       <c r="B225">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C225">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D225">
-        <f t="shared" si="11"/>
-        <v>147</v>
+        <f t="shared" si="15"/>
+        <v>131</v>
       </c>
       <c r="E225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="F225">
@@ -7421,38 +8140,53 @@
         <v>24</v>
       </c>
       <c r="H225">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J225">
+        <v>346</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>20217</v>
       </c>
       <c r="B226">
-        <v>105</v>
+        <f>79-8</f>
+        <v>71</v>
       </c>
       <c r="C226">
+        <v>350</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="15"/>
+        <v>378</v>
+      </c>
+      <c r="F226">
+        <v>10</v>
+      </c>
+      <c r="G226">
+        <v>24</v>
+      </c>
+      <c r="H226">
+        <v>28</v>
+      </c>
+      <c r="J226">
         <v>346</v>
       </c>
-      <c r="D226">
-        <f t="shared" si="11"/>
-        <v>121</v>
-      </c>
-      <c r="E226">
-        <f t="shared" si="11"/>
-        <v>378</v>
-      </c>
-      <c r="F226">
-        <v>10</v>
-      </c>
-      <c r="G226">
-        <v>16</v>
-      </c>
-      <c r="H226">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>20218</v>
       </c>
@@ -7460,14 +8194,14 @@
         <v>497</v>
       </c>
       <c r="C227">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>521</v>
       </c>
       <c r="E227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F227">
@@ -7477,10 +8211,17 @@
         <v>24</v>
       </c>
       <c r="H227">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J227">
+        <v>380</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>20219</v>
       </c>
@@ -7488,14 +8229,14 @@
         <v>471</v>
       </c>
       <c r="C228">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>495</v>
       </c>
       <c r="E228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F228">
@@ -7505,10 +8246,17 @@
         <v>24</v>
       </c>
       <c r="H228">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J228">
+        <v>380</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>20220</v>
       </c>
@@ -7516,14 +8264,14 @@
         <v>445</v>
       </c>
       <c r="C229">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>469</v>
       </c>
       <c r="E229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F229">
@@ -7533,10 +8281,17 @@
         <v>24</v>
       </c>
       <c r="H229">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J229">
+        <v>380</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>20221</v>
       </c>
@@ -7544,14 +8299,14 @@
         <v>419</v>
       </c>
       <c r="C230">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>443</v>
       </c>
       <c r="E230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F230">
@@ -7561,10 +8316,17 @@
         <v>24</v>
       </c>
       <c r="H230">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J230">
+        <v>380</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20222</v>
       </c>
@@ -7572,27 +8334,34 @@
         <v>401</v>
       </c>
       <c r="C231">
+        <v>384</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="15"/>
+        <v>417</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="15"/>
+        <v>412</v>
+      </c>
+      <c r="F231">
+        <v>10</v>
+      </c>
+      <c r="G231">
+        <v>16</v>
+      </c>
+      <c r="H231">
+        <v>28</v>
+      </c>
+      <c r="J231">
         <v>380</v>
       </c>
-      <c r="D231">
-        <f t="shared" si="11"/>
-        <v>417</v>
-      </c>
-      <c r="E231">
-        <f t="shared" si="11"/>
-        <v>412</v>
-      </c>
-      <c r="F231">
-        <v>10</v>
-      </c>
-      <c r="G231">
-        <v>16</v>
-      </c>
-      <c r="H231">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>20223</v>
       </c>
@@ -7600,14 +8369,14 @@
         <v>375</v>
       </c>
       <c r="C232">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>399</v>
       </c>
       <c r="E232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F232">
@@ -7617,10 +8386,17 @@
         <v>24</v>
       </c>
       <c r="H232">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J232">
+        <v>380</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20224</v>
       </c>
@@ -7628,14 +8404,14 @@
         <v>349</v>
       </c>
       <c r="C233">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>373</v>
       </c>
       <c r="E233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F233">
@@ -7645,10 +8421,17 @@
         <v>24</v>
       </c>
       <c r="H233">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J233">
+        <v>380</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20225</v>
       </c>
@@ -7656,14 +8439,14 @@
         <v>323</v>
       </c>
       <c r="C234">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>347</v>
       </c>
       <c r="E234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F234">
@@ -7673,10 +8456,17 @@
         <v>24</v>
       </c>
       <c r="H234">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J234">
+        <v>380</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20226</v>
       </c>
@@ -7684,14 +8474,14 @@
         <v>297</v>
       </c>
       <c r="C235">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>321</v>
       </c>
       <c r="E235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F235">
@@ -7701,10 +8491,17 @@
         <v>24</v>
       </c>
       <c r="H235">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J235">
+        <v>380</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>20227</v>
       </c>
@@ -7712,27 +8509,34 @@
         <v>279</v>
       </c>
       <c r="C236">
+        <v>384</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="15"/>
+        <v>295</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="15"/>
+        <v>412</v>
+      </c>
+      <c r="F236">
+        <v>10</v>
+      </c>
+      <c r="G236">
+        <v>16</v>
+      </c>
+      <c r="H236">
+        <v>28</v>
+      </c>
+      <c r="J236">
         <v>380</v>
       </c>
-      <c r="D236">
-        <f t="shared" si="11"/>
-        <v>295</v>
-      </c>
-      <c r="E236">
-        <f t="shared" si="11"/>
-        <v>412</v>
-      </c>
-      <c r="F236">
-        <v>10</v>
-      </c>
-      <c r="G236">
-        <v>16</v>
-      </c>
-      <c r="H236">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>20228</v>
       </c>
@@ -7740,14 +8544,14 @@
         <v>253</v>
       </c>
       <c r="C237">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>277</v>
       </c>
       <c r="E237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F237">
@@ -7757,10 +8561,17 @@
         <v>24</v>
       </c>
       <c r="H237">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J237">
+        <v>380</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>20229</v>
       </c>
@@ -7768,14 +8579,14 @@
         <v>227</v>
       </c>
       <c r="C238">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>251</v>
       </c>
       <c r="E238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F238">
@@ -7785,10 +8596,17 @@
         <v>24</v>
       </c>
       <c r="H238">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J238">
+        <v>380</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20230</v>
       </c>
@@ -7796,14 +8614,14 @@
         <v>201</v>
       </c>
       <c r="C239">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>225</v>
       </c>
       <c r="E239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F239">
@@ -7813,10 +8631,17 @@
         <v>24</v>
       </c>
       <c r="H239">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J239">
+        <v>380</v>
+      </c>
+      <c r="K239">
+        <f t="shared" ref="K239:K244" si="16">J239+4</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>20231</v>
       </c>
@@ -7824,14 +8649,14 @@
         <v>175</v>
       </c>
       <c r="C240">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>199</v>
       </c>
       <c r="E240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F240">
@@ -7841,10 +8666,17 @@
         <v>24</v>
       </c>
       <c r="H240">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J240">
+        <v>380</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="16"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>20232</v>
       </c>
@@ -7852,14 +8684,14 @@
         <v>149</v>
       </c>
       <c r="C241">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>173</v>
       </c>
       <c r="E241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F241">
@@ -7869,10 +8701,17 @@
         <v>24</v>
       </c>
       <c r="H241">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J241">
+        <v>380</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="16"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>20233</v>
       </c>
@@ -7880,14 +8719,14 @@
         <v>123</v>
       </c>
       <c r="C242">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>147</v>
       </c>
       <c r="E242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F242">
@@ -7897,10 +8736,17 @@
         <v>24</v>
       </c>
       <c r="H242">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J242">
+        <v>380</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="16"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>20234</v>
       </c>
@@ -7908,14 +8754,14 @@
         <v>97</v>
       </c>
       <c r="C243">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>121</v>
       </c>
       <c r="E243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F243">
@@ -7925,10 +8771,17 @@
         <v>24</v>
       </c>
       <c r="H243">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J243">
+        <v>380</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="16"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>20235</v>
       </c>
@@ -7936,14 +8789,14 @@
         <v>71</v>
       </c>
       <c r="C244">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>95</v>
       </c>
       <c r="E244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>412</v>
       </c>
       <c r="F244">
@@ -7953,19 +8806,26 @@
         <v>24</v>
       </c>
       <c r="H244">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="J244">
+        <v>380</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="16"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>20236</v>
       </c>
       <c r="D246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F246">
@@ -7978,16 +8838,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>20237</v>
       </c>
       <c r="D247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F247">
@@ -8000,16 +8860,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>20238</v>
       </c>
       <c r="D248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F248">
@@ -8022,16 +8882,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>20239</v>
       </c>
       <c r="D249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F249">
@@ -8044,16 +8904,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20240</v>
       </c>
       <c r="D250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F250">
@@ -8066,16 +8926,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>20241</v>
       </c>
       <c r="D251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F251">
@@ -8088,16 +8948,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>20242</v>
       </c>
       <c r="D252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F252">
@@ -8110,16 +8970,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>20243</v>
       </c>
       <c r="D253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F253">
@@ -8132,16 +8992,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>20244</v>
       </c>
       <c r="D254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F254">
@@ -8154,16 +9014,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>20245</v>
       </c>
       <c r="D255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F255">
@@ -8176,16 +9036,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>20246</v>
       </c>
       <c r="D256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F256">
@@ -8203,11 +9063,11 @@
         <v>20247</v>
       </c>
       <c r="D257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F257">
@@ -8225,11 +9085,11 @@
         <v>20248</v>
       </c>
       <c r="D258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F258">
@@ -8247,11 +9107,11 @@
         <v>20249</v>
       </c>
       <c r="D259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="E259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="F259">
@@ -8265,851 +9125,1068 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>20250</v>
-      </c>
-      <c r="D260">
-        <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-      <c r="E260">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="F260">
-        <v>10</v>
-      </c>
-      <c r="G260">
-        <v>16</v>
-      </c>
-      <c r="H260">
-        <v>32</v>
+      <c r="A260" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>20251</v>
+        <v>20250</v>
+      </c>
+      <c r="B261">
+        <v>768</v>
+      </c>
+      <c r="C261">
+        <v>302</v>
       </c>
       <c r="D261">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>776</v>
       </c>
       <c r="E261">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F261">
         <v>10</v>
       </c>
       <c r="G261">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H261">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>20252</v>
+        <v>20251</v>
+      </c>
+      <c r="B262">
+        <v>778</v>
+      </c>
+      <c r="C262">
+        <v>302</v>
       </c>
       <c r="D262">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>786</v>
       </c>
       <c r="E262">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F262">
         <v>10</v>
       </c>
       <c r="G262">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H262">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>20253</v>
+        <v>20252</v>
+      </c>
+      <c r="B263">
+        <v>788</v>
+      </c>
+      <c r="C263">
+        <v>302</v>
       </c>
       <c r="D263">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>796</v>
       </c>
       <c r="E263">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F263">
         <v>10</v>
       </c>
       <c r="G263">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H263">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>20254</v>
+        <v>20253</v>
+      </c>
+      <c r="B264">
+        <v>798</v>
+      </c>
+      <c r="C264">
+        <v>302</v>
       </c>
       <c r="D264">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>806</v>
       </c>
       <c r="E264">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F264">
         <v>10</v>
       </c>
       <c r="G264">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H264">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>20255</v>
+        <v>20254</v>
+      </c>
+      <c r="B265">
+        <v>808</v>
+      </c>
+      <c r="C265">
+        <v>302</v>
       </c>
       <c r="D265">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>816</v>
       </c>
       <c r="E265">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F265">
         <v>10</v>
       </c>
       <c r="G265">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H265">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>20256</v>
+        <v>20255</v>
+      </c>
+      <c r="B266">
+        <v>818</v>
+      </c>
+      <c r="C266">
+        <v>302</v>
       </c>
       <c r="D266">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>826</v>
       </c>
       <c r="E266">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F266">
         <v>10</v>
       </c>
       <c r="G266">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H266">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>20257</v>
+        <v>20256</v>
+      </c>
+      <c r="B267">
+        <v>828</v>
+      </c>
+      <c r="C267">
+        <v>302</v>
       </c>
       <c r="D267">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>836</v>
       </c>
       <c r="E267">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F267">
         <v>10</v>
       </c>
       <c r="G267">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H267">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>20258</v>
+        <v>20257</v>
+      </c>
+      <c r="B268">
+        <v>838</v>
+      </c>
+      <c r="C268">
+        <v>302</v>
       </c>
       <c r="D268">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>846</v>
       </c>
       <c r="E268">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F268">
         <v>10</v>
       </c>
       <c r="G268">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H268">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>20259</v>
+        <v>20258</v>
+      </c>
+      <c r="B269">
+        <v>848</v>
+      </c>
+      <c r="C269">
+        <v>302</v>
       </c>
       <c r="D269">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>856</v>
       </c>
       <c r="E269">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F269">
         <v>10</v>
       </c>
       <c r="G269">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H269">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>20260</v>
+        <v>20259</v>
+      </c>
+      <c r="B270">
+        <v>858</v>
+      </c>
+      <c r="C270">
+        <v>302</v>
       </c>
       <c r="D270">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>866</v>
       </c>
       <c r="E270">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F270">
         <v>10</v>
       </c>
       <c r="G270">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H270">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>20261</v>
+        <v>20260</v>
+      </c>
+      <c r="B271">
+        <v>868</v>
+      </c>
+      <c r="C271">
+        <v>302</v>
       </c>
       <c r="D271">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>876</v>
       </c>
       <c r="E271">
-        <f t="shared" si="11"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F271">
         <v>10</v>
       </c>
       <c r="G271">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H271">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>20262</v>
+        <v>20261</v>
+      </c>
+      <c r="B272">
+        <v>878</v>
+      </c>
+      <c r="C272">
+        <v>302</v>
       </c>
       <c r="D272">
-        <f t="shared" ref="D272:E291" si="12">B272+G272</f>
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>886</v>
       </c>
       <c r="E272">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="F272">
         <v>10</v>
       </c>
       <c r="G272">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H272">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>20263</v>
+        <v>20262</v>
+      </c>
+      <c r="B273">
+        <v>269</v>
+      </c>
+      <c r="C273">
+        <v>302</v>
       </c>
       <c r="D273">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" ref="D273:E294" si="17">B273+G273</f>
+        <v>277</v>
       </c>
       <c r="E273">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F273">
         <v>10</v>
       </c>
       <c r="G273">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H273">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>20264</v>
+        <v>20263</v>
+      </c>
+      <c r="B274">
+        <v>259</v>
+      </c>
+      <c r="C274">
+        <v>302</v>
       </c>
       <c r="D274">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>267</v>
       </c>
       <c r="E274">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F274">
         <v>10</v>
       </c>
       <c r="G274">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H274">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>20265</v>
+        <v>20264</v>
+      </c>
+      <c r="B275">
+        <v>249</v>
+      </c>
+      <c r="C275">
+        <v>302</v>
       </c>
       <c r="D275">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>257</v>
       </c>
       <c r="E275">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F275">
         <v>10</v>
       </c>
       <c r="G275">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H275">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>20266</v>
+        <v>20265</v>
+      </c>
+      <c r="B276">
+        <v>239</v>
+      </c>
+      <c r="C276">
+        <v>302</v>
       </c>
       <c r="D276">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>247</v>
       </c>
       <c r="E276">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F276">
         <v>10</v>
       </c>
       <c r="G276">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H276">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>20267</v>
+        <v>20266</v>
+      </c>
+      <c r="B277">
+        <v>229</v>
+      </c>
+      <c r="C277">
+        <v>302</v>
       </c>
       <c r="D277">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>237</v>
       </c>
       <c r="E277">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F277">
         <v>10</v>
       </c>
       <c r="G277">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H277">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>20268</v>
+        <v>20267</v>
+      </c>
+      <c r="B278">
+        <v>219</v>
+      </c>
+      <c r="C278">
+        <v>302</v>
       </c>
       <c r="D278">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>227</v>
       </c>
       <c r="E278">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F278">
         <v>10</v>
       </c>
       <c r="G278">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H278">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>20269</v>
+        <v>20268</v>
+      </c>
+      <c r="B279">
+        <v>209</v>
+      </c>
+      <c r="C279">
+        <v>302</v>
       </c>
       <c r="D279">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>217</v>
       </c>
       <c r="E279">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F279">
         <v>10</v>
       </c>
       <c r="G279">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H279">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>20270</v>
+        <v>20269</v>
+      </c>
+      <c r="B280">
+        <v>199</v>
+      </c>
+      <c r="C280">
+        <v>302</v>
       </c>
       <c r="D280">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>207</v>
       </c>
       <c r="E280">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F280">
         <v>10</v>
       </c>
       <c r="G280">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H280">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>20271</v>
+        <v>20270</v>
+      </c>
+      <c r="B281">
+        <v>189</v>
+      </c>
+      <c r="C281">
+        <v>302</v>
       </c>
       <c r="D281">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>197</v>
       </c>
       <c r="E281">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F281">
         <v>10</v>
       </c>
       <c r="G281">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H281">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>20272</v>
+        <v>20271</v>
+      </c>
+      <c r="B282">
+        <v>179</v>
+      </c>
+      <c r="C282">
+        <v>302</v>
       </c>
       <c r="D282">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>187</v>
       </c>
       <c r="E282">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F282">
         <v>10</v>
       </c>
       <c r="G282">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H282">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>20273</v>
+        <v>20272</v>
+      </c>
+      <c r="B283">
+        <v>169</v>
+      </c>
+      <c r="C283">
+        <v>302</v>
       </c>
       <c r="D283">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>177</v>
       </c>
       <c r="E283">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F283">
         <v>10</v>
       </c>
       <c r="G283">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H283">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>20274</v>
+        <v>20273</v>
+      </c>
+      <c r="B284">
+        <v>159</v>
+      </c>
+      <c r="C284">
+        <v>302</v>
       </c>
       <c r="D284">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>167</v>
       </c>
       <c r="E284">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>318</v>
       </c>
       <c r="F284">
         <v>10</v>
       </c>
       <c r="G284">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H284">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>20275</v>
-      </c>
-      <c r="D285">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="E285">
-        <f t="shared" si="12"/>
-        <v>32</v>
-      </c>
-      <c r="F285">
-        <v>10</v>
-      </c>
-      <c r="G285">
-        <v>16</v>
-      </c>
-      <c r="H285">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>20276</v>
+        <v>20274</v>
       </c>
       <c r="D286">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="E286">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F286">
         <v>10</v>
       </c>
       <c r="G286">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H286">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>20277</v>
+        <v>20275</v>
       </c>
       <c r="D287">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="E287">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F287">
         <v>10</v>
       </c>
       <c r="G287">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H287">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>20278</v>
+        <v>20276</v>
       </c>
       <c r="D288">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="E288">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F288">
         <v>10</v>
       </c>
       <c r="G288">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H288">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>20279</v>
+        <v>20277</v>
       </c>
       <c r="D289">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="E289">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F289">
         <v>10</v>
       </c>
       <c r="G289">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H289">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>20280</v>
+        <v>20278</v>
       </c>
       <c r="D290">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="E290">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F290">
         <v>10</v>
       </c>
       <c r="G290">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H290">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>20281</v>
+        <v>20279</v>
       </c>
       <c r="D291">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>8</v>
       </c>
       <c r="E291">
-        <f t="shared" si="12"/>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="F291">
         <v>10</v>
       </c>
       <c r="G291">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H291">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>20282</v>
+        <v>20280</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="F292">
+        <v>10</v>
+      </c>
+      <c r="G292">
+        <v>8</v>
+      </c>
+      <c r="H292">
+        <v>16</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>20283</v>
+        <v>20281</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="F293">
+        <v>10</v>
+      </c>
+      <c r="G293">
+        <v>8</v>
+      </c>
+      <c r="H293">
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>20284</v>
+        <v>20282</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="F294">
+        <v>10</v>
+      </c>
+      <c r="G294">
+        <v>8</v>
+      </c>
+      <c r="H294">
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>20285</v>
+        <v>20283</v>
+      </c>
+      <c r="D295">
+        <f t="shared" ref="D295:D297" si="18">B295+G295</f>
+        <v>8</v>
+      </c>
+      <c r="E295">
+        <f t="shared" ref="E295:E297" si="19">C295+H295</f>
+        <v>16</v>
+      </c>
+      <c r="F295">
+        <v>10</v>
+      </c>
+      <c r="G295">
+        <v>8</v>
+      </c>
+      <c r="H295">
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>20286</v>
+        <v>20284</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="F296">
+        <v>10</v>
+      </c>
+      <c r="G296">
+        <v>8</v>
+      </c>
+      <c r="H296">
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>20287</v>
+        <v>20285</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="F297">
+        <v>10</v>
+      </c>
+      <c r="G297">
+        <v>8</v>
+      </c>
+      <c r="H297">
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>20288</v>
+        <v>20286</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>20289</v>
+        <v>20287</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>20290</v>
+        <v>20288</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>20291</v>
+        <v>20289</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>20292</v>
+        <v>20290</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>20293</v>
+        <v>20291</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>20294</v>
+        <v>20292</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>20295</v>
+        <v>20293</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>20296</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>20297</v>
+        <v>20295</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>20298</v>
+        <v>20296</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>20299</v>
+        <v>20297</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>20300</v>
+        <v>20298</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>20301</v>
+        <v>20299</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>20302</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>20303</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>20304</v>
+        <v>20302</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>20305</v>
+        <v>20303</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>20306</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>20307</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>20308</v>
+        <v>20306</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>20309</v>
+        <v>20307</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
+        <v>20308</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>20309</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>20310</v>
       </c>
     </row>
@@ -9120,10 +10197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CDDCB-37A8-48C2-AB4F-C5BB0FC86B86}">
-  <dimension ref="A1:Q284"/>
+  <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:Q276"/>
+    <sheetView topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12058,13 +13135,722 @@
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>10140</v>
+      <c r="A283" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284">
+        <v>10140</v>
+      </c>
+      <c r="B284">
+        <v>20180</v>
+      </c>
+      <c r="C284">
+        <v>100</v>
+      </c>
+      <c r="D284">
+        <v>20181</v>
+      </c>
+      <c r="E284">
+        <v>100</v>
+      </c>
+      <c r="F284">
+        <v>20182</v>
+      </c>
+      <c r="G284">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>10141</v>
+      </c>
+      <c r="B286">
+        <v>20215</v>
+      </c>
+      <c r="C286">
+        <v>100</v>
+      </c>
+      <c r="D286">
+        <v>20216</v>
+      </c>
+      <c r="E286">
+        <v>100</v>
+      </c>
+      <c r="F286">
+        <v>20217</v>
+      </c>
+      <c r="G286">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>10142</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>10143</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>10144</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>10145</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>10147</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>10148</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>10149</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>10150</v>
+      </c>
+      <c r="B296">
+        <v>20250</v>
+      </c>
+      <c r="C296">
+        <v>100</v>
+      </c>
+      <c r="D296">
+        <v>20251</v>
+      </c>
+      <c r="E296">
+        <v>100</v>
+      </c>
+      <c r="F296">
+        <v>20252</v>
+      </c>
+      <c r="G296">
+        <v>100</v>
+      </c>
+      <c r="H296">
+        <v>20253</v>
+      </c>
+      <c r="I296">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>10151</v>
+      </c>
+      <c r="B297">
+        <v>20262</v>
+      </c>
+      <c r="C297">
+        <v>100</v>
+      </c>
+      <c r="D297">
+        <v>20263</v>
+      </c>
+      <c r="E297">
+        <v>100</v>
+      </c>
+      <c r="F297">
+        <v>20264</v>
+      </c>
+      <c r="G297">
+        <v>100</v>
+      </c>
+      <c r="H297">
+        <v>20265</v>
+      </c>
+      <c r="I297">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>10152</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>10153</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>10154</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>10156</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>10157</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>10158</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>10162</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>10163</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>10164</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>10165</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>10166</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>10168</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>10169</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>10170</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>10171</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>10172</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>10173</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>10174</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>10175</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>10176</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>10178</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>10179</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>10180</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>10181</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>10182</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>10184</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>10185</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>10186</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>10188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>10189</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>10191</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>10193</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>10194</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>10195</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>10196</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>10197</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>10198</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>10199</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>10202</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>10204</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>10207</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>10209</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>10211</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>10212</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>10213</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>10214</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>10215</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>10216</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>10217</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>10219</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>10220</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>10221</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>10222</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>10223</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>10224</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>10225</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>10226</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>10227</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>10228</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>10229</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>10231</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>10232</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>10233</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>10235</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>10236</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>10237</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>10238</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>10239</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>10241</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>10242</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>10243</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>10244</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>10246</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>10247</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>10248</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>10249</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>10250</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>10251</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>10252</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>10253</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>10254</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>10255</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>10256</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>10257</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>10258</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>10261</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>10263</v>
       </c>
     </row>
   </sheetData>
@@ -12075,10 +13861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F515-6D2A-4B63-9568-E36E7173119D}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13476,7 +15262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>30042</v>
       </c>
@@ -13504,7 +15290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>30043</v>
       </c>
@@ -13532,7 +15318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>30044</v>
       </c>
@@ -13560,7 +15346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>30045</v>
       </c>
@@ -13588,7 +15374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>30046</v>
       </c>
@@ -13607,7 +15393,7 @@
         <v>317</v>
       </c>
       <c r="F53">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G53">
         <v>24</v>
@@ -13616,7 +15402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>30047</v>
       </c>
@@ -13628,14 +15414,14 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="F54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G54">
         <v>24</v>
@@ -13644,7 +15430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>30048</v>
       </c>
@@ -13656,14 +15442,14 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="E55">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="F55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G55">
         <v>24</v>
@@ -13672,9 +15458,877 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>274</v>
+      </c>
+      <c r="K57" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30100</v>
+      </c>
+      <c r="B58">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>303</v>
+      </c>
+      <c r="D58">
+        <f>G58+B58</f>
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <f>H58+C58</f>
+        <v>318</v>
+      </c>
+      <c r="F58">
+        <v>23</v>
+      </c>
+      <c r="G58">
+        <v>16</v>
+      </c>
+      <c r="H58">
+        <v>15</v>
+      </c>
+      <c r="K58">
+        <v>30012</v>
+      </c>
+      <c r="L58">
+        <v>30100</v>
+      </c>
+      <c r="M58">
+        <v>100</v>
+      </c>
+      <c r="N58">
+        <v>30101</v>
+      </c>
+      <c r="O58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30101</v>
+      </c>
+      <c r="B59">
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <v>303</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:D66" si="3">G59+B59</f>
+        <v>50</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:E66" si="4">H59+C59</f>
+        <v>318</v>
+      </c>
+      <c r="F59">
+        <v>23</v>
+      </c>
+      <c r="G59">
+        <v>16</v>
+      </c>
+      <c r="H59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30102</v>
+      </c>
+      <c r="B60">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30103</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30104</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30105</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30106</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30107</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30108</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30109</v>
+      </c>
+      <c r="F67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>30112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>30113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>30114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>30115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>30116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>30117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>30121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>30122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>30126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>30127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>30128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>30129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>30130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>30131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>30132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>30136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>30137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>30138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>30139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>30140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>30141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>30142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>30143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>30144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>30145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>30146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>30147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>30148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>30149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>30150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>30151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>30152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>30153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>30154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>30155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>30156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>30157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>30158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>30159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>30160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>30161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>30162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>30163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>30164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>30165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>30166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>30167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>30168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>30169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>30171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>30172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>30173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>30174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>30175</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>30176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>30177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>30178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>30179</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>30180</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>30181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>30182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>30183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>30184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>30185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>30186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>30187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>30188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>30189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>30190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>30191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>30192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>30194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>30195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>30196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>30197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>30198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>30199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>30202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>30203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>30204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>30205</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>30206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>30207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>30208</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>30209</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>30210</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>30211</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>30212</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>30213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>30214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>30215</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>30216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>30217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>30218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>30219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>30220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>30221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>30222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>30223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>30224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>30225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>30226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>30227</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>30228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>30229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>30230</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>30231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>30232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>30233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>30234</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>30235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>30236</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>30237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>30238</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>30239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>30241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>30242</v>
       </c>
     </row>
   </sheetData>
@@ -13684,10 +16338,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587876D1-DCD4-44E5-9ABC-9F4A74AB23E7}">
-  <dimension ref="A1:EE41"/>
+  <dimension ref="A1:EG41"/>
   <sheetViews>
-    <sheetView topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CW10" sqref="CW10"/>
+    <sheetView topLeftCell="DV1" workbookViewId="0">
+      <selection activeCell="EG2" sqref="EG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13695,7 +16349,7 @@
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -13913,7 +16567,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14319,8 +16973,14 @@
       <c r="EE2">
         <v>10134</v>
       </c>
-    </row>
-    <row r="3" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="EF2">
+        <v>10140</v>
+      </c>
+      <c r="EG2">
+        <v>10141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -14723,13 +17383,418 @@
       <c r="EE3">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="EF3">
+        <v>134</v>
+      </c>
+      <c r="EG3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
+        <v>10001</v>
+      </c>
+      <c r="C4">
+        <v>10015</v>
+      </c>
+      <c r="D4">
+        <v>10002</v>
+      </c>
+      <c r="E4">
+        <v>10016</v>
+      </c>
+      <c r="F4">
+        <v>10003</v>
+      </c>
+      <c r="G4">
+        <v>10017</v>
+      </c>
+      <c r="H4">
+        <v>10004</v>
+      </c>
+      <c r="I4">
+        <v>10018</v>
+      </c>
+      <c r="J4">
+        <v>10005</v>
+      </c>
+      <c r="K4">
+        <v>10019</v>
+      </c>
+      <c r="L4">
+        <v>10006</v>
+      </c>
+      <c r="M4">
+        <v>10020</v>
+      </c>
+      <c r="N4">
+        <v>10007</v>
+      </c>
+      <c r="O4">
+        <v>10021</v>
+      </c>
+      <c r="P4">
+        <v>10008</v>
+      </c>
+      <c r="Q4">
+        <v>10022</v>
+      </c>
+      <c r="R4">
+        <v>10009</v>
+      </c>
+      <c r="S4">
+        <v>10023</v>
+      </c>
+      <c r="T4">
+        <v>10010</v>
+      </c>
+      <c r="U4">
+        <v>10024</v>
+      </c>
+      <c r="V4">
+        <v>10011</v>
+      </c>
+      <c r="W4">
+        <v>10025</v>
+      </c>
+      <c r="X4">
+        <v>10012</v>
+      </c>
+      <c r="Y4">
+        <v>10026</v>
+      </c>
+      <c r="Z4">
+        <v>10013</v>
+      </c>
+      <c r="AA4">
+        <v>10014</v>
+      </c>
+      <c r="AB4">
+        <v>10027</v>
+      </c>
+      <c r="AC4">
+        <v>10045</v>
+      </c>
+      <c r="AD4">
+        <v>10028</v>
+      </c>
+      <c r="AE4">
+        <v>10046</v>
+      </c>
+      <c r="AF4">
+        <v>10029</v>
+      </c>
+      <c r="AG4">
+        <v>10047</v>
+      </c>
+      <c r="AH4">
+        <v>10030</v>
+      </c>
+      <c r="AI4">
+        <v>10048</v>
+      </c>
+      <c r="AJ4">
+        <v>10031</v>
+      </c>
+      <c r="AK4">
+        <v>10049</v>
+      </c>
+      <c r="AL4">
+        <v>10032</v>
+      </c>
+      <c r="AM4">
+        <v>10050</v>
+      </c>
+      <c r="AN4">
+        <v>10033</v>
+      </c>
+      <c r="AO4">
+        <v>10051</v>
+      </c>
+      <c r="AP4">
+        <v>10034</v>
+      </c>
+      <c r="AQ4">
+        <v>10052</v>
+      </c>
+      <c r="AR4">
+        <v>10035</v>
+      </c>
+      <c r="AS4">
+        <v>10053</v>
+      </c>
+      <c r="AT4">
+        <v>10036</v>
+      </c>
+      <c r="AU4">
+        <v>10054</v>
+      </c>
+      <c r="AV4">
+        <v>10037</v>
+      </c>
+      <c r="AW4">
+        <v>10055</v>
+      </c>
+      <c r="AX4">
+        <v>10038</v>
+      </c>
+      <c r="AY4">
+        <v>10056</v>
+      </c>
+      <c r="AZ4">
+        <v>10039</v>
+      </c>
+      <c r="BA4">
+        <v>10057</v>
+      </c>
+      <c r="BB4">
+        <v>10040</v>
+      </c>
+      <c r="BC4">
+        <v>10058</v>
+      </c>
+      <c r="BD4">
+        <v>10062</v>
+      </c>
+      <c r="BE4">
+        <v>10041</v>
+      </c>
+      <c r="BF4">
+        <v>10042</v>
+      </c>
+      <c r="BG4">
+        <v>10059</v>
+      </c>
+      <c r="BH4">
+        <v>10043</v>
+      </c>
+      <c r="BI4">
+        <v>10060</v>
+      </c>
+      <c r="BJ4">
+        <v>10044</v>
+      </c>
+      <c r="BK4">
+        <v>10061</v>
+      </c>
+      <c r="BL4">
+        <v>10063</v>
+      </c>
+      <c r="BM4">
+        <v>10064</v>
+      </c>
+      <c r="BN4">
+        <v>10065</v>
+      </c>
+      <c r="BO4">
+        <v>10066</v>
+      </c>
+      <c r="BP4">
+        <v>10067</v>
+      </c>
+      <c r="BQ4">
+        <v>10084</v>
+      </c>
+      <c r="BR4">
+        <v>10068</v>
+      </c>
+      <c r="BS4">
+        <v>10085</v>
+      </c>
+      <c r="BT4">
+        <v>10069</v>
+      </c>
+      <c r="BU4">
+        <v>10086</v>
+      </c>
+      <c r="BV4">
+        <v>10070</v>
+      </c>
+      <c r="BW4">
+        <v>10087</v>
+      </c>
+      <c r="BX4">
+        <v>10071</v>
+      </c>
+      <c r="BY4">
+        <v>10088</v>
+      </c>
+      <c r="BZ4">
+        <v>10072</v>
+      </c>
+      <c r="CA4">
+        <v>10089</v>
+      </c>
+      <c r="CB4">
+        <v>10073</v>
+      </c>
+      <c r="CC4">
+        <v>10090</v>
+      </c>
+      <c r="CD4">
+        <v>10074</v>
+      </c>
+      <c r="CE4">
+        <v>10091</v>
+      </c>
+      <c r="CF4">
+        <v>10075</v>
+      </c>
+      <c r="CG4">
+        <v>10092</v>
+      </c>
+      <c r="CH4">
+        <v>10076</v>
+      </c>
+      <c r="CI4">
+        <v>10093</v>
+      </c>
+      <c r="CJ4">
+        <v>10077</v>
+      </c>
+      <c r="CK4">
+        <v>10094</v>
+      </c>
+      <c r="CL4">
+        <v>10078</v>
+      </c>
+      <c r="CM4">
+        <v>10095</v>
+      </c>
+      <c r="CN4">
+        <v>10079</v>
+      </c>
+      <c r="CO4">
+        <v>10096</v>
+      </c>
+      <c r="CP4">
+        <v>10080</v>
+      </c>
+      <c r="CQ4">
+        <v>10097</v>
+      </c>
+      <c r="CR4">
+        <v>10081</v>
+      </c>
+      <c r="CS4">
+        <v>10082</v>
+      </c>
+      <c r="CT4">
+        <v>10083</v>
+      </c>
+      <c r="CU4">
+        <v>10098</v>
+      </c>
+      <c r="CV4">
+        <v>10099</v>
+      </c>
+      <c r="CW4">
+        <v>10118</v>
+      </c>
+      <c r="CX4">
+        <v>10100</v>
+      </c>
+      <c r="CY4">
+        <v>10119</v>
+      </c>
+      <c r="CZ4">
+        <v>10101</v>
+      </c>
+      <c r="DA4">
+        <v>10120</v>
+      </c>
+      <c r="DB4">
+        <v>10102</v>
+      </c>
+      <c r="DC4">
+        <v>10121</v>
+      </c>
+      <c r="DD4">
+        <v>10103</v>
+      </c>
+      <c r="DE4">
+        <v>10122</v>
+      </c>
+      <c r="DF4">
+        <v>10104</v>
+      </c>
+      <c r="DG4">
+        <v>10123</v>
+      </c>
+      <c r="DH4">
+        <v>10105</v>
+      </c>
+      <c r="DI4">
+        <v>10124</v>
+      </c>
+      <c r="DJ4">
+        <v>10106</v>
+      </c>
+      <c r="DK4">
+        <v>10125</v>
+      </c>
+      <c r="DL4">
+        <v>10107</v>
+      </c>
+      <c r="DM4">
+        <v>10126</v>
+      </c>
+      <c r="DN4">
+        <v>10108</v>
+      </c>
+      <c r="DO4">
+        <v>10127</v>
+      </c>
+      <c r="DP4">
+        <v>10109</v>
+      </c>
+      <c r="DQ4">
+        <v>10128</v>
+      </c>
+      <c r="DR4">
+        <v>10110</v>
+      </c>
+      <c r="DS4">
+        <v>10129</v>
+      </c>
+      <c r="DT4">
+        <v>10111</v>
+      </c>
+      <c r="DU4">
+        <v>10130</v>
+      </c>
+      <c r="DV4">
+        <v>10112</v>
+      </c>
+      <c r="DW4">
+        <v>10131</v>
+      </c>
+      <c r="DX4">
+        <v>10113</v>
+      </c>
+      <c r="DY4">
+        <v>10132</v>
+      </c>
+      <c r="DZ4">
+        <v>10114</v>
+      </c>
+      <c r="EA4">
+        <v>10133</v>
+      </c>
+      <c r="EB4">
+        <v>10115</v>
+      </c>
+      <c r="EC4">
+        <v>10116</v>
+      </c>
+      <c r="ED4">
+        <v>10117</v>
+      </c>
+      <c r="EE4">
+        <v>10134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:137" x14ac:dyDescent="0.25">
       <c r="AB5" t="s">
         <v>141</v>
       </c>
@@ -14743,7 +17808,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -14775,7 +17840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -14807,7 +17872,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -14839,7 +17904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -14871,7 +17936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -14903,7 +17968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -14935,7 +18000,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -14967,7 +18032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -14999,7 +18064,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -15031,7 +18096,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -15063,7 +18128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCD616-D6F3-4725-B59A-0C338212E9B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF577B-4F14-482B-9D58-3B0E28C24150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="1" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
@@ -10199,7 +10199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CDDCB-37A8-48C2-AB4F-C5BB0FC86B86}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A269" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
@@ -13861,10 +13861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F515-6D2A-4B63-9568-E36E7173119D}">
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15262,7 +15262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>30042</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>30043</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>30044</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>30045</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>30046</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>30047</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>30048</v>
       </c>
@@ -15458,12 +15458,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30049</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>30100</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>30101</v>
       </c>
@@ -15525,11 +15525,11 @@
         <v>303</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D66" si="3">G59+B59</f>
+        <f t="shared" ref="D59:D70" si="3">G59+B59</f>
         <v>50</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E66" si="4">H59+C59</f>
+        <f t="shared" ref="E59:E70" si="4">H59+C59</f>
         <v>318</v>
       </c>
       <c r="F59">
@@ -15542,7 +15542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>30102</v>
       </c>
@@ -15562,772 +15562,993 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>30103</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>30104</v>
+      <c r="B62">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>399</v>
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="F62">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>19</v>
+      </c>
+      <c r="K62">
+        <v>30014</v>
+      </c>
+      <c r="L62">
+        <v>30103</v>
+      </c>
+      <c r="M62">
+        <v>100</v>
+      </c>
+      <c r="N62">
+        <v>30104</v>
+      </c>
+      <c r="O62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>30105</v>
+        <v>30104</v>
+      </c>
+      <c r="B63">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>399</v>
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="F63">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>19</v>
+      </c>
+      <c r="K63">
+        <v>30015</v>
+      </c>
+      <c r="L63">
+        <v>30105</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="N63">
+        <v>30106</v>
+      </c>
+      <c r="O63">
+        <v>100</v>
+      </c>
+      <c r="P63">
+        <v>30107</v>
+      </c>
+      <c r="Q63">
+        <v>100</v>
+      </c>
+      <c r="R63">
+        <v>30108</v>
+      </c>
+      <c r="S63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>30106</v>
+        <v>30105</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>420</v>
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F64">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>24</v>
+      </c>
+      <c r="K64">
+        <v>30016</v>
+      </c>
+      <c r="L64">
+        <v>30109</v>
+      </c>
+      <c r="M64">
+        <v>100</v>
+      </c>
+      <c r="N64">
+        <v>30110</v>
+      </c>
+      <c r="O64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>30107</v>
+        <v>30106</v>
+      </c>
+      <c r="B65">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <v>420</v>
       </c>
       <c r="D65">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F65">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>24</v>
+      </c>
+      <c r="K65">
+        <v>30017</v>
+      </c>
+      <c r="L65">
+        <v>30111</v>
+      </c>
+      <c r="M65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30108</v>
+        <v>30107</v>
+      </c>
+      <c r="B66">
+        <v>59</v>
+      </c>
+      <c r="C66">
+        <v>420</v>
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E66">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F66">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>20</v>
+      </c>
+      <c r="H66">
+        <v>24</v>
+      </c>
+      <c r="K66">
+        <v>30018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>30109</v>
+        <v>30108</v>
+      </c>
+      <c r="B67">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>420</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="4"/>
+        <v>444</v>
       </c>
       <c r="F67">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>24</v>
+      </c>
+      <c r="K67">
+        <v>30019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>30109</v>
+      </c>
+      <c r="B68">
+        <v>88</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>16</v>
+      </c>
+      <c r="H68">
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>30110</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B69">
+        <f>88+16</f>
+        <v>104</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <v>16</v>
+      </c>
+      <c r="K69">
+        <v>30021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>30111</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B70">
+        <f>104+16</f>
+        <v>120</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <v>16</v>
+      </c>
+      <c r="K70">
+        <v>30022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>30112</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>30113</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>30114</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>30115</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>30116</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>30117</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>30118</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>30119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>30120</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>30121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>30122</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>30123</v>
+        <v>30122</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>30124</v>
+        <v>30123</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>30125</v>
+        <v>30124</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>30126</v>
+        <v>30125</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>30127</v>
+        <v>30126</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>30128</v>
+        <v>30127</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>30129</v>
+        <v>30128</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>30130</v>
+        <v>30129</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>30131</v>
+        <v>30130</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>30132</v>
+        <v>30131</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>30133</v>
+        <v>30132</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>30134</v>
+        <v>30133</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>30135</v>
+        <v>30134</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>30136</v>
+        <v>30135</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>30137</v>
+        <v>30136</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>30138</v>
+        <v>30137</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>30139</v>
+        <v>30138</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>30140</v>
+        <v>30139</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>30141</v>
+        <v>30140</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>30142</v>
+        <v>30141</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>30143</v>
+        <v>30142</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>30144</v>
+        <v>30143</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>30145</v>
+        <v>30144</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>30146</v>
+        <v>30145</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>30147</v>
+        <v>30146</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>30148</v>
+        <v>30147</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>30149</v>
+        <v>30148</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>30150</v>
+        <v>30149</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>30151</v>
+        <v>30150</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>30152</v>
+        <v>30151</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>30153</v>
+        <v>30152</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>30154</v>
+        <v>30153</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>30155</v>
+        <v>30154</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>30156</v>
+        <v>30155</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>30157</v>
+        <v>30156</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>30158</v>
+        <v>30157</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>30159</v>
+        <v>30158</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>30160</v>
+        <v>30159</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>30161</v>
+        <v>30160</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>30162</v>
+        <v>30161</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>30163</v>
+        <v>30162</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>30164</v>
+        <v>30163</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>30165</v>
+        <v>30164</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>30166</v>
+        <v>30165</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>30167</v>
+        <v>30166</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>30168</v>
+        <v>30167</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>30169</v>
+        <v>30168</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>30170</v>
+        <v>30169</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>30171</v>
+        <v>30170</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>30172</v>
+        <v>30171</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>30173</v>
+        <v>30172</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>30174</v>
+        <v>30173</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>30175</v>
+        <v>30174</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>30176</v>
+        <v>30175</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>30177</v>
+        <v>30176</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>30178</v>
+        <v>30177</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>30179</v>
+        <v>30178</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>30180</v>
+        <v>30179</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>30181</v>
+        <v>30180</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>30182</v>
+        <v>30181</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>30183</v>
+        <v>30182</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>30184</v>
+        <v>30183</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>30185</v>
+        <v>30184</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>30186</v>
+        <v>30185</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>30187</v>
+        <v>30186</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>30188</v>
+        <v>30187</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>30189</v>
+        <v>30188</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>30190</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>30191</v>
+        <v>30190</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>30192</v>
+        <v>30191</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>30193</v>
+        <v>30192</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>30194</v>
+        <v>30193</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>30195</v>
+        <v>30194</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>30196</v>
+        <v>30195</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>30197</v>
+        <v>30196</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>30198</v>
+        <v>30197</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>30199</v>
+        <v>30198</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>30200</v>
+        <v>30199</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>30201</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>30202</v>
+        <v>30201</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>30203</v>
+        <v>30202</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>30204</v>
+        <v>30203</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>30205</v>
+        <v>30204</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>30206</v>
+        <v>30205</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>30207</v>
+        <v>30206</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>30208</v>
+        <v>30207</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>30209</v>
+        <v>30208</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>30210</v>
+        <v>30209</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>30211</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>30212</v>
+        <v>30211</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>30213</v>
+        <v>30212</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>30214</v>
+        <v>30213</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>30215</v>
+        <v>30214</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>30216</v>
+        <v>30215</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>30217</v>
+        <v>30216</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>30218</v>
+        <v>30217</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>30219</v>
+        <v>30218</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>30220</v>
+        <v>30219</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>30221</v>
+        <v>30220</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>30222</v>
+        <v>30221</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>30223</v>
+        <v>30222</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>30224</v>
+        <v>30223</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>30225</v>
+        <v>30224</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>30226</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>30227</v>
+        <v>30226</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>30228</v>
+        <v>30227</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>30229</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>30230</v>
+        <v>30229</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>30231</v>
+        <v>30230</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>30232</v>
+        <v>30231</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>30233</v>
+        <v>30232</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>30234</v>
+        <v>30233</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>30235</v>
+        <v>30234</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>30236</v>
+        <v>30235</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>30237</v>
+        <v>30236</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>30238</v>
+        <v>30237</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>30239</v>
+        <v>30238</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>30240</v>
+        <v>30239</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>30241</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>30241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>30242</v>
       </c>
     </row>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF577B-4F14-482B-9D58-3B0E28C24150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E45634-8E6E-4346-9CD2-D4DE7AFBF11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -871,6 +871,21 @@
   </si>
   <si>
     <t>#ball</t>
+  </si>
+  <si>
+    <t>#koopass green</t>
+  </si>
+  <si>
+    <t>#Right</t>
+  </si>
+  <si>
+    <t>#koopas green</t>
+  </si>
+  <si>
+    <t>#plants left</t>
+  </si>
+  <si>
+    <t>#waterpipe</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
   <dimension ref="A1:K322"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A318" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
@@ -13861,10 +13876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F515-6D2A-4B63-9568-E36E7173119D}">
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:X205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="E136" workbookViewId="0">
+      <selection activeCell="X146" sqref="X146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14640,6 +14655,9 @@
       <c r="H25">
         <v>16</v>
       </c>
+      <c r="K25" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -14668,6 +14686,9 @@
       <c r="H26">
         <v>16</v>
       </c>
+      <c r="K26" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -14696,6 +14717,32 @@
       <c r="H27">
         <v>16</v>
       </c>
+      <c r="K27">
+        <v>30050</v>
+      </c>
+      <c r="L27">
+        <v>402</v>
+      </c>
+      <c r="M27">
+        <v>346</v>
+      </c>
+      <c r="N27">
+        <f>L27+Q27</f>
+        <v>418</v>
+      </c>
+      <c r="O27">
+        <f>M27+R27</f>
+        <v>373</v>
+      </c>
+      <c r="P27">
+        <v>23</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -14724,6 +14771,32 @@
       <c r="H28">
         <v>16</v>
       </c>
+      <c r="K28">
+        <v>30051</v>
+      </c>
+      <c r="L28">
+        <v>419</v>
+      </c>
+      <c r="M28">
+        <v>346</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N55" si="2">L28+Q28</f>
+        <v>435</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O55" si="3">M28+R28</f>
+        <v>373</v>
+      </c>
+      <c r="P28">
+        <v>23</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+      <c r="R28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -14752,6 +14825,32 @@
       <c r="H29">
         <v>28</v>
       </c>
+      <c r="K29">
+        <v>30052</v>
+      </c>
+      <c r="L29">
+        <v>402</v>
+      </c>
+      <c r="M29">
+        <v>374</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="P29">
+        <v>23</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -14780,6 +14879,32 @@
       <c r="H30">
         <v>28</v>
       </c>
+      <c r="K30">
+        <v>30053</v>
+      </c>
+      <c r="L30">
+        <v>419</v>
+      </c>
+      <c r="M30">
+        <v>374</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="P30">
+        <v>23</v>
+      </c>
+      <c r="Q30">
+        <v>16</v>
+      </c>
+      <c r="R30">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -14808,6 +14933,32 @@
       <c r="H31">
         <v>28</v>
       </c>
+      <c r="K31">
+        <v>30054</v>
+      </c>
+      <c r="L31">
+        <v>436</v>
+      </c>
+      <c r="M31">
+        <v>374</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="P31">
+        <v>23</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+      <c r="R31">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -14836,8 +14987,34 @@
       <c r="H32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>30055</v>
+      </c>
+      <c r="L32">
+        <v>453</v>
+      </c>
+      <c r="M32">
+        <v>374</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+      <c r="P32">
+        <v>23</v>
+      </c>
+      <c r="Q32">
+        <v>16</v>
+      </c>
+      <c r="R32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30027</v>
       </c>
@@ -14864,8 +15041,34 @@
       <c r="H33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>30056</v>
+      </c>
+      <c r="L33">
+        <v>402</v>
+      </c>
+      <c r="M33">
+        <v>391</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="P33">
+        <v>23</v>
+      </c>
+      <c r="Q33">
+        <v>16</v>
+      </c>
+      <c r="R33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30028</v>
       </c>
@@ -14892,8 +15095,34 @@
       <c r="H34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>30057</v>
+      </c>
+      <c r="L34">
+        <v>419</v>
+      </c>
+      <c r="M34">
+        <v>391</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="P34">
+        <v>23</v>
+      </c>
+      <c r="Q34">
+        <v>16</v>
+      </c>
+      <c r="R34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30029</v>
       </c>
@@ -14920,8 +15149,34 @@
       <c r="H35">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>30058</v>
+      </c>
+      <c r="L35">
+        <v>436</v>
+      </c>
+      <c r="M35">
+        <v>391</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="P35">
+        <v>23</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+      <c r="R35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30030</v>
       </c>
@@ -14948,13 +15203,65 @@
       <c r="H36">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>30059</v>
+      </c>
+      <c r="L36">
+        <v>453</v>
+      </c>
+      <c r="M36">
+        <v>391</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>407</v>
+      </c>
+      <c r="P36">
+        <v>23</v>
+      </c>
+      <c r="Q36">
+        <v>16</v>
+      </c>
+      <c r="R36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>30060</v>
+      </c>
+      <c r="L37">
+        <v>402</v>
+      </c>
+      <c r="M37">
+        <v>408</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+      <c r="Q37">
+        <v>16</v>
+      </c>
+      <c r="R37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30031</v>
       </c>
@@ -14981,8 +15288,34 @@
       <c r="H38">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>30061</v>
+      </c>
+      <c r="L38">
+        <v>419</v>
+      </c>
+      <c r="M38">
+        <v>408</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+      <c r="R38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>30032</v>
       </c>
@@ -15009,8 +15342,34 @@
       <c r="H39">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>30062</v>
+      </c>
+      <c r="L39">
+        <v>436</v>
+      </c>
+      <c r="M39">
+        <v>408</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="P39">
+        <v>23</v>
+      </c>
+      <c r="Q39">
+        <v>16</v>
+      </c>
+      <c r="R39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30033</v>
       </c>
@@ -15037,8 +15396,34 @@
       <c r="H40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>30063</v>
+      </c>
+      <c r="L40">
+        <v>453</v>
+      </c>
+      <c r="M40">
+        <v>408</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>436</v>
+      </c>
+      <c r="P40">
+        <v>23</v>
+      </c>
+      <c r="Q40">
+        <v>16</v>
+      </c>
+      <c r="R40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>30034</v>
       </c>
@@ -15049,7 +15434,7 @@
         <v>222</v>
       </c>
       <c r="D41">
-        <f t="shared" ref="D41:D55" si="2">B41+G45</f>
+        <f t="shared" ref="D41:D52" si="4">B41+G45</f>
         <v>636</v>
       </c>
       <c r="E41">
@@ -15065,8 +15450,11 @@
       <c r="H41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>30035</v>
       </c>
@@ -15077,7 +15465,7 @@
         <v>222</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>653</v>
       </c>
       <c r="E42">
@@ -15093,8 +15481,34 @@
       <c r="H42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>30064</v>
+      </c>
+      <c r="L42">
+        <v>334</v>
+      </c>
+      <c r="M42">
+        <v>345</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>372</v>
+      </c>
+      <c r="P42">
+        <v>23</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>30036</v>
       </c>
@@ -15105,7 +15519,7 @@
         <v>222</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="E43">
@@ -15121,8 +15535,34 @@
       <c r="H43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>30065</v>
+      </c>
+      <c r="L43">
+        <v>317</v>
+      </c>
+      <c r="M43">
+        <v>345</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>372</v>
+      </c>
+      <c r="P43">
+        <v>23</v>
+      </c>
+      <c r="Q43">
+        <v>16</v>
+      </c>
+      <c r="R43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>30037</v>
       </c>
@@ -15133,7 +15573,7 @@
         <v>239</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>619</v>
       </c>
       <c r="E44">
@@ -15149,8 +15589,34 @@
       <c r="H44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>30066</v>
+      </c>
+      <c r="L44">
+        <v>368</v>
+      </c>
+      <c r="M44">
+        <v>373</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="P44">
+        <v>23</v>
+      </c>
+      <c r="Q44">
+        <v>16</v>
+      </c>
+      <c r="R44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>30038</v>
       </c>
@@ -15161,7 +15627,7 @@
         <v>239</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>636</v>
       </c>
       <c r="E45">
@@ -15177,8 +15643,34 @@
       <c r="H45">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>30067</v>
+      </c>
+      <c r="L45">
+        <v>351</v>
+      </c>
+      <c r="M45">
+        <v>373</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="P45">
+        <v>23</v>
+      </c>
+      <c r="Q45">
+        <v>16</v>
+      </c>
+      <c r="R45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>30039</v>
       </c>
@@ -15189,7 +15681,7 @@
         <v>239</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>653</v>
       </c>
       <c r="E46">
@@ -15205,8 +15697,34 @@
       <c r="H46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>30068</v>
+      </c>
+      <c r="L46">
+        <v>334</v>
+      </c>
+      <c r="M46">
+        <v>373</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="P46">
+        <v>23</v>
+      </c>
+      <c r="Q46">
+        <v>16</v>
+      </c>
+      <c r="R46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>30040</v>
       </c>
@@ -15217,7 +15735,7 @@
         <v>239</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="E47">
@@ -15233,8 +15751,34 @@
       <c r="H47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>30069</v>
+      </c>
+      <c r="L47">
+        <v>317</v>
+      </c>
+      <c r="M47">
+        <v>373</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="P47">
+        <v>23</v>
+      </c>
+      <c r="Q47">
+        <v>16</v>
+      </c>
+      <c r="R47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>30041</v>
       </c>
@@ -15245,7 +15789,7 @@
         <v>256</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>627</v>
       </c>
       <c r="E48">
@@ -15261,6 +15805,32 @@
       <c r="H48">
         <v>28</v>
       </c>
+      <c r="K48">
+        <v>30070</v>
+      </c>
+      <c r="L48">
+        <v>368</v>
+      </c>
+      <c r="M48">
+        <v>390</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="P48">
+        <v>23</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -15273,7 +15843,7 @@
         <v>256</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>644</v>
       </c>
       <c r="E49">
@@ -15289,6 +15859,32 @@
       <c r="H49">
         <v>28</v>
       </c>
+      <c r="K49">
+        <v>30071</v>
+      </c>
+      <c r="L49">
+        <v>351</v>
+      </c>
+      <c r="M49">
+        <v>390</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="P49">
+        <v>23</v>
+      </c>
+      <c r="Q49">
+        <v>16</v>
+      </c>
+      <c r="R49">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -15301,7 +15897,7 @@
         <v>256</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>661</v>
       </c>
       <c r="E50">
@@ -15317,6 +15913,32 @@
       <c r="H50">
         <v>28</v>
       </c>
+      <c r="K50">
+        <v>30072</v>
+      </c>
+      <c r="L50">
+        <v>334</v>
+      </c>
+      <c r="M50">
+        <v>390</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="P50">
+        <v>23</v>
+      </c>
+      <c r="Q50">
+        <v>16</v>
+      </c>
+      <c r="R50">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -15329,7 +15951,7 @@
         <v>256</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>678</v>
       </c>
       <c r="E51">
@@ -15345,6 +15967,32 @@
       <c r="H51">
         <v>28</v>
       </c>
+      <c r="K51">
+        <v>30073</v>
+      </c>
+      <c r="L51">
+        <v>317</v>
+      </c>
+      <c r="M51">
+        <v>390</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="P51">
+        <v>23</v>
+      </c>
+      <c r="Q51">
+        <v>16</v>
+      </c>
+      <c r="R51">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -15357,7 +16005,7 @@
         <v>285</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>603</v>
       </c>
       <c r="E52">
@@ -15373,6 +16021,32 @@
       <c r="H52">
         <v>32</v>
       </c>
+      <c r="K52">
+        <v>30074</v>
+      </c>
+      <c r="L52">
+        <v>368</v>
+      </c>
+      <c r="M52">
+        <v>407</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="P52">
+        <v>23</v>
+      </c>
+      <c r="Q52">
+        <v>16</v>
+      </c>
+      <c r="R52">
+        <v>28</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -15385,7 +16059,7 @@
         <v>285</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f>B53+G58</f>
         <v>628</v>
       </c>
       <c r="E53">
@@ -15401,6 +16075,32 @@
       <c r="H53">
         <v>32</v>
       </c>
+      <c r="K53">
+        <v>30075</v>
+      </c>
+      <c r="L53">
+        <v>351</v>
+      </c>
+      <c r="M53">
+        <v>407</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="P53">
+        <v>23</v>
+      </c>
+      <c r="Q53">
+        <v>16</v>
+      </c>
+      <c r="R53">
+        <v>28</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -15413,7 +16113,7 @@
         <v>138</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f>B54+G59</f>
         <v>619</v>
       </c>
       <c r="E54">
@@ -15429,6 +16129,32 @@
       <c r="H54">
         <v>32</v>
       </c>
+      <c r="K54">
+        <v>30076</v>
+      </c>
+      <c r="L54">
+        <v>334</v>
+      </c>
+      <c r="M54">
+        <v>407</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="P54">
+        <v>23</v>
+      </c>
+      <c r="Q54">
+        <v>16</v>
+      </c>
+      <c r="R54">
+        <v>28</v>
+      </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -15441,7 +16167,7 @@
         <v>138</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f>B55+G60</f>
         <v>644</v>
       </c>
       <c r="E55">
@@ -15457,79 +16183,54 @@
       <c r="H55">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>30049</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="K55">
+        <v>30077</v>
+      </c>
+      <c r="L55">
+        <v>317</v>
+      </c>
+      <c r="M55">
+        <v>407</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>435</v>
+      </c>
+      <c r="P55">
+        <v>23</v>
+      </c>
+      <c r="Q55">
+        <v>16</v>
+      </c>
+      <c r="R55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>274</v>
-      </c>
-      <c r="K57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>30100</v>
-      </c>
-      <c r="B58">
-        <v>17</v>
-      </c>
-      <c r="C58">
-        <v>303</v>
-      </c>
-      <c r="D58">
-        <f>G58+B58</f>
-        <v>33</v>
-      </c>
-      <c r="E58">
-        <f>H58+C58</f>
-        <v>318</v>
-      </c>
-      <c r="F58">
-        <v>23</v>
-      </c>
-      <c r="G58">
-        <v>16</v>
-      </c>
-      <c r="H58">
-        <v>15</v>
-      </c>
-      <c r="K58">
-        <v>30012</v>
-      </c>
-      <c r="L58">
-        <v>30100</v>
-      </c>
-      <c r="M58">
-        <v>100</v>
-      </c>
-      <c r="N58">
-        <v>30101</v>
-      </c>
-      <c r="O58">
-        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>30101</v>
+        <v>30100</v>
       </c>
       <c r="B59">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C59">
         <v>303</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D70" si="3">G59+B59</f>
-        <v>50</v>
+        <f>G59+B59</f>
+        <v>33</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E70" si="4">H59+C59</f>
+        <f>H59+C59</f>
         <v>318</v>
       </c>
       <c r="F59">
@@ -15541,86 +16242,89 @@
       <c r="H59">
         <v>15</v>
       </c>
+      <c r="K59" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>30101</v>
+      </c>
+      <c r="B60">
+        <v>34</v>
+      </c>
+      <c r="C60">
+        <v>303</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:D71" si="5">G60+B60</f>
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E71" si="6">H60+C60</f>
+        <v>318</v>
+      </c>
+      <c r="F60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>16</v>
+      </c>
+      <c r="H60">
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>30012</v>
+      </c>
+      <c r="L60">
+        <v>30100</v>
+      </c>
+      <c r="M60">
+        <v>100</v>
+      </c>
+      <c r="N60">
+        <v>30101</v>
+      </c>
+      <c r="O60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>30102</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>32</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>7</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>48</v>
       </c>
-      <c r="E60">
-        <v>16</v>
-      </c>
-      <c r="F60">
+      <c r="E61">
+        <v>16</v>
+      </c>
+      <c r="F61">
         <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>30103</v>
-      </c>
-      <c r="B62">
-        <v>17</v>
-      </c>
-      <c r="C62">
-        <v>399</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="4"/>
-        <v>418</v>
-      </c>
-      <c r="F62">
-        <v>23</v>
-      </c>
-      <c r="G62">
-        <v>20</v>
-      </c>
-      <c r="H62">
-        <v>19</v>
-      </c>
-      <c r="K62">
-        <v>30014</v>
-      </c>
-      <c r="L62">
-        <v>30103</v>
-      </c>
-      <c r="M62">
-        <v>100</v>
-      </c>
-      <c r="N62">
-        <v>30104</v>
-      </c>
-      <c r="O62">
-        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>30104</v>
+        <v>30103</v>
       </c>
       <c r="B63">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C63">
         <v>399</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
       <c r="F63">
@@ -15632,51 +16336,24 @@
       <c r="H63">
         <v>19</v>
       </c>
-      <c r="K63">
-        <v>30015</v>
-      </c>
-      <c r="L63">
-        <v>30105</v>
-      </c>
-      <c r="M63">
-        <v>100</v>
-      </c>
-      <c r="N63">
-        <v>30106</v>
-      </c>
-      <c r="O63">
-        <v>100</v>
-      </c>
-      <c r="P63">
-        <v>30107</v>
-      </c>
-      <c r="Q63">
-        <v>100</v>
-      </c>
-      <c r="R63">
-        <v>30108</v>
-      </c>
-      <c r="S63">
-        <v>100</v>
-      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>30105</v>
+        <v>30104</v>
       </c>
       <c r="B64">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C64">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
       <c r="E64">
-        <f t="shared" si="4"/>
-        <v>444</v>
+        <f t="shared" si="6"/>
+        <v>418</v>
       </c>
       <c r="F64">
         <v>23</v>
@@ -15685,40 +16362,43 @@
         <v>20</v>
       </c>
       <c r="H64">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K64">
-        <v>30016</v>
+        <v>30014</v>
       </c>
       <c r="L64">
-        <v>30109</v>
+        <v>30103</v>
       </c>
       <c r="M64">
         <v>100</v>
       </c>
       <c r="N64">
-        <v>30110</v>
+        <v>30104</v>
       </c>
       <c r="O64">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>30106</v>
+        <v>30105</v>
       </c>
       <c r="B65">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C65">
         <v>420</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="E65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="F65">
@@ -15731,31 +16411,46 @@
         <v>24</v>
       </c>
       <c r="K65">
-        <v>30017</v>
+        <v>30015</v>
       </c>
       <c r="L65">
-        <v>30111</v>
+        <v>30105</v>
       </c>
       <c r="M65">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>30106</v>
+      </c>
+      <c r="O65">
+        <v>100</v>
+      </c>
+      <c r="P65">
+        <v>30107</v>
+      </c>
+      <c r="Q65">
+        <v>100</v>
+      </c>
+      <c r="R65">
+        <v>30108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>30107</v>
+        <v>30106</v>
       </c>
       <c r="B66">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C66">
         <v>420</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
-        <v>79</v>
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
       <c r="E66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="F66">
@@ -15768,25 +16463,37 @@
         <v>24</v>
       </c>
       <c r="K66">
-        <v>30018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30016</v>
+      </c>
+      <c r="L66">
+        <v>30109</v>
+      </c>
+      <c r="M66">
+        <v>100</v>
+      </c>
+      <c r="N66">
+        <v>30110</v>
+      </c>
+      <c r="O66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>30108</v>
+        <v>30107</v>
       </c>
       <c r="B67">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C67">
         <v>420</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>79</v>
       </c>
       <c r="E67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="F67">
@@ -15799,756 +16506,2626 @@
         <v>24</v>
       </c>
       <c r="K67">
-        <v>30019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30017</v>
+      </c>
+      <c r="L67">
+        <v>30111</v>
+      </c>
+      <c r="M67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>30108</v>
+      </c>
+      <c r="B68">
+        <v>80</v>
+      </c>
+      <c r="C68">
+        <v>420</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>444</v>
+      </c>
+      <c r="F68">
+        <v>23</v>
+      </c>
+      <c r="G68">
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>30109</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>88</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>0</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="3"/>
+      <c r="D69">
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="F68">
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F69">
         <v>24</v>
       </c>
-      <c r="G68">
-        <v>16</v>
-      </c>
-      <c r="H68">
-        <v>16</v>
-      </c>
-      <c r="K68">
-        <v>30020</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="G69">
+        <v>16</v>
+      </c>
+      <c r="H69">
+        <v>16</v>
+      </c>
+      <c r="K69">
+        <v>30018</v>
+      </c>
+      <c r="L69">
+        <v>30050</v>
+      </c>
+      <c r="M69">
+        <v>100</v>
+      </c>
+      <c r="N69">
+        <v>30051</v>
+      </c>
+      <c r="O69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>30110</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <f>88+16</f>
         <v>104</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>0</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="3"/>
+      <c r="D70">
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="F69">
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F70">
         <v>24</v>
       </c>
-      <c r="G69">
-        <v>16</v>
-      </c>
-      <c r="H69">
-        <v>16</v>
-      </c>
-      <c r="K69">
-        <v>30021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <v>16</v>
+      </c>
+      <c r="K70">
+        <v>30019</v>
+      </c>
+      <c r="L70">
+        <v>30064</v>
+      </c>
+      <c r="M70">
+        <v>100</v>
+      </c>
+      <c r="N70">
+        <v>30065</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>30111</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <f>104+16</f>
         <v>120</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>0</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="3"/>
+      <c r="D71">
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="F70">
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="F71">
         <v>24</v>
       </c>
-      <c r="G70">
-        <v>16</v>
-      </c>
-      <c r="H70">
-        <v>16</v>
-      </c>
-      <c r="K70">
+      <c r="G71">
+        <v>16</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="K71">
+        <v>30020</v>
+      </c>
+      <c r="L71">
+        <v>30052</v>
+      </c>
+      <c r="M71">
+        <v>100</v>
+      </c>
+      <c r="N71">
+        <v>30053</v>
+      </c>
+      <c r="O71">
+        <v>100</v>
+      </c>
+      <c r="P71">
+        <v>30054</v>
+      </c>
+      <c r="Q71">
+        <v>100</v>
+      </c>
+      <c r="R71">
+        <v>30055</v>
+      </c>
+      <c r="S71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>30112</v>
+      </c>
+      <c r="K72">
+        <v>30021</v>
+      </c>
+      <c r="L72">
+        <v>30066</v>
+      </c>
+      <c r="M72">
+        <v>100</v>
+      </c>
+      <c r="N72">
+        <v>30067</v>
+      </c>
+      <c r="O72">
+        <v>100</v>
+      </c>
+      <c r="P72">
+        <v>30068</v>
+      </c>
+      <c r="Q72">
+        <v>100</v>
+      </c>
+      <c r="R72">
+        <v>30069</v>
+      </c>
+      <c r="S72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>30113</v>
+      </c>
+      <c r="K73">
         <v>30022</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>30112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>30113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="L73">
+        <v>30056</v>
+      </c>
+      <c r="M73">
+        <v>100</v>
+      </c>
+      <c r="N73">
+        <v>30057</v>
+      </c>
+      <c r="O73">
+        <v>100</v>
+      </c>
+      <c r="P73">
+        <v>30058</v>
+      </c>
+      <c r="Q73">
+        <v>100</v>
+      </c>
+      <c r="R73">
+        <v>30059</v>
+      </c>
+      <c r="S73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>30114</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="K74">
+        <v>30023</v>
+      </c>
+      <c r="L74">
+        <v>30070</v>
+      </c>
+      <c r="M74">
+        <v>100</v>
+      </c>
+      <c r="N74">
+        <v>30071</v>
+      </c>
+      <c r="O74">
+        <v>100</v>
+      </c>
+      <c r="P74">
+        <v>30072</v>
+      </c>
+      <c r="Q74">
+        <v>100</v>
+      </c>
+      <c r="R74">
+        <v>30073</v>
+      </c>
+      <c r="S74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>30115</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="K75">
+        <v>30024</v>
+      </c>
+      <c r="L75">
+        <v>30060</v>
+      </c>
+      <c r="M75">
+        <v>100</v>
+      </c>
+      <c r="N75">
+        <v>30061</v>
+      </c>
+      <c r="O75">
+        <v>100</v>
+      </c>
+      <c r="P75">
+        <v>30062</v>
+      </c>
+      <c r="Q75">
+        <v>100</v>
+      </c>
+      <c r="R75">
+        <v>30063</v>
+      </c>
+      <c r="S75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>30116</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="K76">
+        <v>30025</v>
+      </c>
+      <c r="L76">
+        <v>30074</v>
+      </c>
+      <c r="M76">
+        <v>100</v>
+      </c>
+      <c r="N76">
+        <v>30075</v>
+      </c>
+      <c r="O76">
+        <v>100</v>
+      </c>
+      <c r="P76">
+        <v>30076</v>
+      </c>
+      <c r="Q76">
+        <v>100</v>
+      </c>
+      <c r="R76">
+        <v>30077</v>
+      </c>
+      <c r="S76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>30117</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="K77">
+        <v>30026</v>
+      </c>
+      <c r="L77">
+        <v>30052</v>
+      </c>
+      <c r="M77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>30118</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>30119</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="K79">
+        <v>30018</v>
+      </c>
+      <c r="L79">
+        <v>30019</v>
+      </c>
+      <c r="M79">
+        <v>30020</v>
+      </c>
+      <c r="N79">
+        <v>30021</v>
+      </c>
+      <c r="O79">
+        <v>30022</v>
+      </c>
+      <c r="P79">
+        <v>30023</v>
+      </c>
+      <c r="Q79">
+        <v>30024</v>
+      </c>
+      <c r="R79">
+        <v>30025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>30120</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>144</v>
+      </c>
+      <c r="D82">
+        <f>B82+G82</f>
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <f>C82+H82</f>
+        <v>176</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82">
+        <v>16</v>
+      </c>
+      <c r="H82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>30121</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>144</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:D87" si="7">B83+G83</f>
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E87" si="8">C83+H83</f>
+        <v>176</v>
+      </c>
+      <c r="F83">
+        <v>24</v>
+      </c>
+      <c r="G83">
+        <v>16</v>
+      </c>
+      <c r="H83">
+        <v>32</v>
+      </c>
+      <c r="K83">
+        <v>30006</v>
+      </c>
+      <c r="L83">
+        <v>30007</v>
+      </c>
+      <c r="M83">
+        <v>30008</v>
+      </c>
+      <c r="N83">
+        <v>30009</v>
+      </c>
+      <c r="O83">
+        <v>30010</v>
+      </c>
+      <c r="P83">
+        <v>30018</v>
+      </c>
+      <c r="Q83">
+        <v>30019</v>
+      </c>
+      <c r="R83">
+        <v>30020</v>
+      </c>
+      <c r="S83">
+        <v>30021</v>
+      </c>
+      <c r="T83">
+        <v>30022</v>
+      </c>
+      <c r="U83">
+        <v>30023</v>
+      </c>
+      <c r="V83">
+        <v>30024</v>
+      </c>
+      <c r="W83">
+        <v>30025</v>
+      </c>
+      <c r="X83">
+        <v>30026</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>30122</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B84">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>144</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="G84">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <v>32</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="Q84">
+        <v>6</v>
+      </c>
+      <c r="R84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>8</v>
+      </c>
+      <c r="T84">
+        <v>9</v>
+      </c>
+      <c r="U84">
+        <v>10</v>
+      </c>
+      <c r="V84">
+        <v>11</v>
+      </c>
+      <c r="W84">
+        <v>12</v>
+      </c>
+      <c r="X84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>30123</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B85">
+        <v>48</v>
+      </c>
+      <c r="C85">
+        <v>144</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="F85">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>30124</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="B86">
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>144</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="F86">
+        <v>24</v>
+      </c>
+      <c r="G86">
+        <v>16</v>
+      </c>
+      <c r="H86">
+        <v>32</v>
+      </c>
+      <c r="K86">
+        <v>30030</v>
+      </c>
+      <c r="L86">
+        <v>30120</v>
+      </c>
+      <c r="M86">
+        <v>200</v>
+      </c>
+      <c r="N86">
+        <v>30121</v>
+      </c>
+      <c r="O86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>30125</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="B87">
+        <v>80</v>
+      </c>
+      <c r="C87">
+        <v>144</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="F87">
+        <v>24</v>
+      </c>
+      <c r="G87">
+        <v>16</v>
+      </c>
+      <c r="H87">
+        <v>32</v>
+      </c>
+      <c r="K87">
+        <v>30031</v>
+      </c>
+      <c r="L87">
+        <v>30122</v>
+      </c>
+      <c r="M87">
+        <v>200</v>
+      </c>
+      <c r="N87">
+        <v>30123</v>
+      </c>
+      <c r="O87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>30126</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="B88">
+        <v>96</v>
+      </c>
+      <c r="C88">
+        <v>144</v>
+      </c>
+      <c r="D88">
+        <f>B88+G88</f>
+        <v>112</v>
+      </c>
+      <c r="E88">
+        <f>C88+H88</f>
+        <v>176</v>
+      </c>
+      <c r="F88">
+        <v>24</v>
+      </c>
+      <c r="G88">
+        <v>16</v>
+      </c>
+      <c r="H88">
+        <v>32</v>
+      </c>
+      <c r="K88">
+        <v>30032</v>
+      </c>
+      <c r="L88">
+        <v>30124</v>
+      </c>
+      <c r="M88">
+        <v>200</v>
+      </c>
+      <c r="N88">
+        <v>30125</v>
+      </c>
+      <c r="O88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>30127</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B89">
+        <v>112</v>
+      </c>
+      <c r="C89">
+        <v>144</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ref="D89:D106" si="9">B89+G89</f>
+        <v>128</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ref="E89:E106" si="10">C89+H89</f>
+        <v>176</v>
+      </c>
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>16</v>
+      </c>
+      <c r="H89">
+        <v>32</v>
+      </c>
+      <c r="K89">
+        <v>30033</v>
+      </c>
+      <c r="L89">
+        <v>30126</v>
+      </c>
+      <c r="M89">
+        <v>200</v>
+      </c>
+      <c r="N89">
+        <v>30127</v>
+      </c>
+      <c r="O89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>30128</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B90">
+        <v>128</v>
+      </c>
+      <c r="C90">
+        <v>144</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F90">
+        <v>24</v>
+      </c>
+      <c r="G90">
+        <v>16</v>
+      </c>
+      <c r="H90">
+        <v>32</v>
+      </c>
+      <c r="K90">
+        <v>30034</v>
+      </c>
+      <c r="L90">
+        <v>30128</v>
+      </c>
+      <c r="M90">
+        <v>200</v>
+      </c>
+      <c r="N90">
         <v>30129</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="O90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30129</v>
+      </c>
+      <c r="B91">
+        <v>144</v>
+      </c>
+      <c r="C91">
+        <v>144</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F91">
+        <v>24</v>
+      </c>
+      <c r="G91">
+        <v>16</v>
+      </c>
+      <c r="H91">
+        <v>32</v>
+      </c>
+      <c r="K91">
+        <v>30035</v>
+      </c>
+      <c r="L91">
         <v>30130</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="M91">
+        <v>200</v>
+      </c>
+      <c r="N91">
         <v>30131</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="O91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30130</v>
+      </c>
+      <c r="B92">
+        <v>160</v>
+      </c>
+      <c r="C92">
+        <v>144</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F92">
+        <v>24</v>
+      </c>
+      <c r="G92">
+        <v>16</v>
+      </c>
+      <c r="H92">
+        <v>32</v>
+      </c>
+      <c r="K92">
+        <v>30036</v>
+      </c>
+      <c r="L92">
+        <v>30134</v>
+      </c>
+      <c r="M92">
+        <v>200</v>
+      </c>
+      <c r="N92">
+        <v>30135</v>
+      </c>
+      <c r="O92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30131</v>
+      </c>
+      <c r="B93">
+        <v>176</v>
+      </c>
+      <c r="C93">
+        <v>144</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F93">
+        <v>24</v>
+      </c>
+      <c r="G93">
+        <v>16</v>
+      </c>
+      <c r="H93">
+        <v>32</v>
+      </c>
+      <c r="K93">
+        <v>30037</v>
+      </c>
+      <c r="L93">
+        <v>30136</v>
+      </c>
+      <c r="M93">
+        <v>200</v>
+      </c>
+      <c r="N93">
+        <v>30137</v>
+      </c>
+      <c r="O93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>279</v>
+      </c>
+      <c r="K94">
+        <v>30038</v>
+      </c>
+      <c r="L94">
+        <v>30140</v>
+      </c>
+      <c r="M94">
+        <v>200</v>
+      </c>
+      <c r="N94">
+        <v>30141</v>
+      </c>
+      <c r="O94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>30132</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="B95">
+        <v>1362</v>
+      </c>
+      <c r="C95">
+        <v>144</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="9"/>
+        <v>1378</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F95">
+        <v>24</v>
+      </c>
+      <c r="G95">
+        <v>16</v>
+      </c>
+      <c r="H95">
+        <v>32</v>
+      </c>
+      <c r="K95">
+        <v>30039</v>
+      </c>
+      <c r="L95">
+        <v>30142</v>
+      </c>
+      <c r="M95">
+        <v>200</v>
+      </c>
+      <c r="N95">
+        <v>30143</v>
+      </c>
+      <c r="O95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>30133</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="B96">
+        <v>1346</v>
+      </c>
+      <c r="C96">
+        <v>144</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="9"/>
+        <v>1362</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F96">
+        <v>24</v>
+      </c>
+      <c r="G96">
+        <v>16</v>
+      </c>
+      <c r="H96">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>30134</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B97">
+        <v>1330</v>
+      </c>
+      <c r="C97">
+        <v>144</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="9"/>
+        <v>1346</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F97">
+        <v>24</v>
+      </c>
+      <c r="G97">
+        <v>16</v>
+      </c>
+      <c r="H97">
+        <v>32</v>
+      </c>
+      <c r="K97">
+        <v>30030</v>
+      </c>
+      <c r="L97">
+        <v>30031</v>
+      </c>
+      <c r="M97">
+        <v>30032</v>
+      </c>
+      <c r="N97">
+        <v>30033</v>
+      </c>
+      <c r="O97">
+        <v>30034</v>
+      </c>
+      <c r="P97">
+        <v>30035</v>
+      </c>
+      <c r="Q97">
+        <v>30036</v>
+      </c>
+      <c r="R97">
+        <v>30037</v>
+      </c>
+      <c r="S97">
+        <v>30038</v>
+      </c>
+      <c r="T97">
+        <v>30039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>30135</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B98">
+        <v>1314</v>
+      </c>
+      <c r="C98">
+        <v>144</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="9"/>
+        <v>1330</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F98">
+        <v>24</v>
+      </c>
+      <c r="G98">
+        <v>16</v>
+      </c>
+      <c r="H98">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>30136</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B99">
+        <v>1298</v>
+      </c>
+      <c r="C99">
+        <v>144</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="9"/>
+        <v>1314</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F99">
+        <v>24</v>
+      </c>
+      <c r="G99">
+        <v>16</v>
+      </c>
+      <c r="H99">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>30137</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B100">
+        <v>1282</v>
+      </c>
+      <c r="C100">
+        <v>144</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="9"/>
+        <v>1298</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F100">
+        <v>24</v>
+      </c>
+      <c r="G100">
+        <v>16</v>
+      </c>
+      <c r="H100">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>30138</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="B101">
+        <v>1266</v>
+      </c>
+      <c r="C101">
+        <v>144</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="9"/>
+        <v>1282</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F101">
+        <v>24</v>
+      </c>
+      <c r="G101">
+        <v>16</v>
+      </c>
+      <c r="H101">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>30139</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="B102">
+        <v>1250</v>
+      </c>
+      <c r="C102">
+        <v>144</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="9"/>
+        <v>1266</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>16</v>
+      </c>
+      <c r="H102">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>30140</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="B103">
+        <v>1234</v>
+      </c>
+      <c r="C103">
+        <v>144</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="9"/>
+        <v>1250</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F103">
+        <v>24</v>
+      </c>
+      <c r="G103">
+        <v>16</v>
+      </c>
+      <c r="H103">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>30141</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B104">
+        <v>1218</v>
+      </c>
+      <c r="C104">
+        <v>144</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="9"/>
+        <v>1234</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F104">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>30142</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="B105">
+        <v>1202</v>
+      </c>
+      <c r="C105">
+        <v>144</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="9"/>
+        <v>1218</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F105">
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <v>16</v>
+      </c>
+      <c r="H105">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>30143</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B106">
+        <v>1186</v>
+      </c>
+      <c r="C106">
+        <v>144</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="9"/>
+        <v>1202</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="F106">
+        <v>24</v>
+      </c>
+      <c r="G106">
+        <v>16</v>
+      </c>
+      <c r="H106">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>30144</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>30145</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="K108">
+        <v>30204</v>
+      </c>
+      <c r="L108">
+        <v>274</v>
+      </c>
+      <c r="M108">
+        <v>188</v>
+      </c>
+      <c r="N108">
+        <v>290</v>
+      </c>
+      <c r="O108">
+        <v>205</v>
+      </c>
+      <c r="P108">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>30146</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="K109">
+        <v>30205</v>
+      </c>
+      <c r="L109">
+        <v>293</v>
+      </c>
+      <c r="M109">
+        <v>188</v>
+      </c>
+      <c r="N109">
+        <v>309</v>
+      </c>
+      <c r="O109">
+        <v>205</v>
+      </c>
+      <c r="P109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>30147</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="K110">
+        <v>30206</v>
+      </c>
+      <c r="L110">
+        <v>312</v>
+      </c>
+      <c r="M110">
+        <v>188</v>
+      </c>
+      <c r="N110">
+        <v>328</v>
+      </c>
+      <c r="O110">
+        <v>205</v>
+      </c>
+      <c r="P110">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>30148</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="K111">
+        <v>30207</v>
+      </c>
+      <c r="L111">
+        <v>331</v>
+      </c>
+      <c r="M111">
+        <v>188</v>
+      </c>
+      <c r="N111">
+        <v>347</v>
+      </c>
+      <c r="O111">
+        <v>205</v>
+      </c>
+      <c r="P111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>30149</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>30150</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>30151</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="K114">
+        <v>30204</v>
+      </c>
+      <c r="L114">
+        <v>30205</v>
+      </c>
+      <c r="M114">
+        <v>30206</v>
+      </c>
+      <c r="N114">
+        <v>30207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>30152</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>30153</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="K116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>30154</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="K117">
+        <v>30208</v>
+      </c>
+      <c r="L117">
+        <v>69</v>
+      </c>
+      <c r="M117">
+        <v>35</v>
+      </c>
+      <c r="N117">
+        <f>L117+Q117</f>
+        <v>85</v>
+      </c>
+      <c r="O117">
+        <f>M117+R117</f>
+        <v>51</v>
+      </c>
+      <c r="P117">
+        <v>21</v>
+      </c>
+      <c r="Q117">
+        <v>16</v>
+      </c>
+      <c r="R117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>30155</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="K118">
+        <v>30209</v>
+      </c>
+      <c r="L118">
+        <v>86</v>
+      </c>
+      <c r="M118">
+        <v>35</v>
+      </c>
+      <c r="N118">
+        <f>L118+Q118</f>
+        <v>102</v>
+      </c>
+      <c r="O118">
+        <f>M118+R118</f>
+        <v>51</v>
+      </c>
+      <c r="P118">
+        <v>21</v>
+      </c>
+      <c r="Q118">
+        <v>16</v>
+      </c>
+      <c r="R118">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>30156</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="K119">
+        <v>30210</v>
+      </c>
+      <c r="L119">
+        <v>69</v>
+      </c>
+      <c r="M119">
+        <v>52</v>
+      </c>
+      <c r="N119">
+        <f t="shared" ref="N119:N124" si="11">L119+Q119</f>
+        <v>85</v>
+      </c>
+      <c r="O119">
+        <f t="shared" ref="O119:O124" si="12">M119+R119</f>
+        <v>68</v>
+      </c>
+      <c r="P119">
+        <v>21</v>
+      </c>
+      <c r="Q119">
+        <v>16</v>
+      </c>
+      <c r="R119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>30157</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="K120">
+        <v>30211</v>
+      </c>
+      <c r="L120">
+        <v>86</v>
+      </c>
+      <c r="M120">
+        <v>52</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="11"/>
+        <v>102</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="P120">
+        <v>21</v>
+      </c>
+      <c r="Q120">
+        <v>16</v>
+      </c>
+      <c r="R120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>30158</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="K121">
+        <v>30212</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>69</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="P121">
+        <v>21</v>
+      </c>
+      <c r="Q121">
+        <v>16</v>
+      </c>
+      <c r="R121">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>30159</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="K122">
+        <v>30213</v>
+      </c>
+      <c r="L122">
+        <v>18</v>
+      </c>
+      <c r="M122">
+        <v>69</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="P122">
+        <v>21</v>
+      </c>
+      <c r="Q122">
+        <v>16</v>
+      </c>
+      <c r="R122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>30160</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="K123">
+        <v>30214</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>86</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="P123">
+        <v>21</v>
+      </c>
+      <c r="Q123">
+        <v>16</v>
+      </c>
+      <c r="R123">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>30161</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="K124">
+        <v>30215</v>
+      </c>
+      <c r="L124">
+        <v>18</v>
+      </c>
+      <c r="M124">
+        <v>86</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="12"/>
+        <v>102</v>
+      </c>
+      <c r="P124">
+        <v>21</v>
+      </c>
+      <c r="Q124">
+        <v>16</v>
+      </c>
+      <c r="R124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>30162</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>30163</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="K126">
+        <v>30038</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>2256</v>
+      </c>
+      <c r="U126">
+        <v>112</v>
+      </c>
+      <c r="V126">
+        <v>7</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>30164</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="K127">
+        <v>30039</v>
+      </c>
+      <c r="S127">
+        <v>7</v>
+      </c>
+      <c r="T127">
+        <f>T126+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U127">
+        <v>112</v>
+      </c>
+      <c r="V127">
+        <v>7</v>
+      </c>
+      <c r="W127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>30165</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="K128">
+        <v>30040</v>
+      </c>
+      <c r="L128">
+        <v>30208</v>
+      </c>
+      <c r="M128">
+        <v>100</v>
+      </c>
+      <c r="S128">
+        <v>7</v>
+      </c>
+      <c r="T128">
+        <v>2256</v>
+      </c>
+      <c r="U128">
+        <f>U127+16</f>
+        <v>128</v>
+      </c>
+      <c r="V128">
+        <v>7</v>
+      </c>
+      <c r="W128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>30166</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="K129">
+        <v>30041</v>
+      </c>
+      <c r="L129">
+        <v>30209</v>
+      </c>
+      <c r="M129">
+        <v>100</v>
+      </c>
+      <c r="S129">
+        <v>7</v>
+      </c>
+      <c r="T129">
+        <f>T128+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U129">
+        <f>U127+16</f>
+        <v>128</v>
+      </c>
+      <c r="V129">
+        <v>7</v>
+      </c>
+      <c r="W129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>30167</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="K130">
+        <v>30042</v>
+      </c>
+      <c r="L130">
+        <v>30210</v>
+      </c>
+      <c r="M130">
+        <v>100</v>
+      </c>
+      <c r="S130">
+        <v>7</v>
+      </c>
+      <c r="T130">
+        <v>2256</v>
+      </c>
+      <c r="U130">
+        <f>U129+16</f>
+        <v>144</v>
+      </c>
+      <c r="V130">
+        <v>7</v>
+      </c>
+      <c r="W130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>30168</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="K131">
+        <v>30043</v>
+      </c>
+      <c r="L131">
+        <v>30211</v>
+      </c>
+      <c r="M131">
+        <v>100</v>
+      </c>
+      <c r="S131">
+        <v>7</v>
+      </c>
+      <c r="T131">
+        <f>T130+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U131">
+        <f>U130</f>
+        <v>144</v>
+      </c>
+      <c r="V131">
+        <v>7</v>
+      </c>
+      <c r="W131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>30169</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="K132">
+        <v>30044</v>
+      </c>
+      <c r="L132">
+        <v>30212</v>
+      </c>
+      <c r="M132">
+        <v>100</v>
+      </c>
+      <c r="S132">
+        <v>7</v>
+      </c>
+      <c r="T132">
+        <v>2256</v>
+      </c>
+      <c r="U132">
+        <f>U131+16</f>
+        <v>160</v>
+      </c>
+      <c r="V132">
+        <v>7</v>
+      </c>
+      <c r="W132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>30170</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="K133">
+        <v>30045</v>
+      </c>
+      <c r="L133">
+        <v>30213</v>
+      </c>
+      <c r="M133">
+        <v>100</v>
+      </c>
+      <c r="S133">
+        <v>7</v>
+      </c>
+      <c r="T133">
+        <f>T132+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U133">
+        <f>U132</f>
+        <v>160</v>
+      </c>
+      <c r="V133">
+        <v>7</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>30171</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="K134">
+        <v>30046</v>
+      </c>
+      <c r="L134">
+        <v>30214</v>
+      </c>
+      <c r="M134">
+        <v>100</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>2256</v>
+      </c>
+      <c r="U134">
+        <f>U133+16</f>
+        <v>176</v>
+      </c>
+      <c r="V134">
+        <v>7</v>
+      </c>
+      <c r="W134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>30172</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="K135">
+        <v>30047</v>
+      </c>
+      <c r="L135">
+        <v>30215</v>
+      </c>
+      <c r="M135">
+        <v>100</v>
+      </c>
+      <c r="S135">
+        <v>7</v>
+      </c>
+      <c r="T135">
+        <f>T134+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U135">
+        <f t="shared" ref="U135:U139" si="13">U134</f>
+        <v>176</v>
+      </c>
+      <c r="V135">
+        <v>7</v>
+      </c>
+      <c r="W135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>30173</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136">
+        <v>2256</v>
+      </c>
+      <c r="U136">
+        <f>U135+16</f>
+        <v>192</v>
+      </c>
+      <c r="V136">
+        <v>7</v>
+      </c>
+      <c r="W136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>30174</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="K137">
+        <v>30040</v>
+      </c>
+      <c r="L137">
+        <v>30041</v>
+      </c>
+      <c r="M137">
+        <v>30042</v>
+      </c>
+      <c r="N137">
+        <v>30043</v>
+      </c>
+      <c r="O137">
+        <v>30044</v>
+      </c>
+      <c r="P137">
+        <v>30045</v>
+      </c>
+      <c r="Q137">
+        <v>30046</v>
+      </c>
+      <c r="R137">
+        <v>30047</v>
+      </c>
+      <c r="S137">
+        <v>7</v>
+      </c>
+      <c r="T137">
+        <f>T136+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U137">
+        <f t="shared" ref="U137:U139" si="14">U136</f>
+        <v>192</v>
+      </c>
+      <c r="V137">
+        <v>7</v>
+      </c>
+      <c r="W137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>30175</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="S138">
+        <v>7</v>
+      </c>
+      <c r="T138">
+        <v>2256</v>
+      </c>
+      <c r="U138">
+        <f>U137+16</f>
+        <v>208</v>
+      </c>
+      <c r="V138">
+        <v>7</v>
+      </c>
+      <c r="W138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>30176</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="S139">
+        <v>7</v>
+      </c>
+      <c r="T139">
+        <f>T138+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U139">
+        <f>U138</f>
+        <v>208</v>
+      </c>
+      <c r="V139">
+        <v>7</v>
+      </c>
+      <c r="W139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>30177</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="S140">
+        <v>7</v>
+      </c>
+      <c r="T140">
+        <v>2256</v>
+      </c>
+      <c r="U140">
+        <f>U139+16</f>
+        <v>224</v>
+      </c>
+      <c r="V140">
+        <v>7</v>
+      </c>
+      <c r="W140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>30178</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <f>T140+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U141">
+        <f>U140</f>
+        <v>224</v>
+      </c>
+      <c r="V141">
+        <v>7</v>
+      </c>
+      <c r="W141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>30179</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>2256</v>
+      </c>
+      <c r="U142">
+        <f>U141+16</f>
+        <v>240</v>
+      </c>
+      <c r="V142">
+        <v>7</v>
+      </c>
+      <c r="W142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>30180</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="S143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <f>T142+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U143">
+        <f>U142</f>
+        <v>240</v>
+      </c>
+      <c r="V143">
+        <v>7</v>
+      </c>
+      <c r="W143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>30181</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="S144">
+        <v>7</v>
+      </c>
+      <c r="T144">
+        <v>2256</v>
+      </c>
+      <c r="U144">
+        <f>U143+16</f>
+        <v>256</v>
+      </c>
+      <c r="V144">
+        <v>7</v>
+      </c>
+      <c r="W144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>30182</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="S145">
+        <v>7</v>
+      </c>
+      <c r="T145">
+        <f>T144+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U145">
+        <f>U144</f>
+        <v>256</v>
+      </c>
+      <c r="V145">
+        <v>7</v>
+      </c>
+      <c r="W145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>30183</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="S146">
+        <v>7</v>
+      </c>
+      <c r="T146">
+        <v>2256</v>
+      </c>
+      <c r="U146">
+        <f>U145+16</f>
+        <v>272</v>
+      </c>
+      <c r="V146">
+        <v>7</v>
+      </c>
+      <c r="W146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>30184</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="S147">
+        <v>7</v>
+      </c>
+      <c r="T147">
+        <f>T146+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U147">
+        <f>U146</f>
+        <v>272</v>
+      </c>
+      <c r="V147">
+        <v>7</v>
+      </c>
+      <c r="W147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>30185</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>2256</v>
+      </c>
+      <c r="U148">
+        <f>U147+16</f>
+        <v>288</v>
+      </c>
+      <c r="V148">
+        <v>7</v>
+      </c>
+      <c r="W148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>30186</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="S149">
+        <v>7</v>
+      </c>
+      <c r="T149">
+        <f>T148+16</f>
+        <v>2272</v>
+      </c>
+      <c r="U149">
+        <f>U148</f>
+        <v>288</v>
+      </c>
+      <c r="V149">
+        <v>7</v>
+      </c>
+      <c r="W149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>30187</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>30188</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>30189</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>30190</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>30191</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>30192</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>30193</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>30194</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>30195</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>30196</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>30197</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>30198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>30199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>30200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>30201</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>30202</v>
+        <v>30198</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>30203</v>
+        <v>30199</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>30204</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>30205</v>
+        <v>30201</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>30206</v>
+        <v>30202</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>30207</v>
+        <v>30203</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>30208</v>
+        <v>30204</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>30209</v>
+        <v>30205</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>30210</v>
+        <v>30206</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>30211</v>
+        <v>30207</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>30212</v>
+        <v>30208</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>30213</v>
+        <v>30209</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>30214</v>
+        <v>30210</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>30215</v>
+        <v>30211</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>30216</v>
+        <v>30212</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>30217</v>
+        <v>30213</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>30218</v>
+        <v>30214</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>30219</v>
+        <v>30215</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>30220</v>
+        <v>30216</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>30221</v>
+        <v>30217</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>30222</v>
+        <v>30218</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>30223</v>
+        <v>30219</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>30224</v>
+        <v>30220</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>30225</v>
+        <v>30221</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>30226</v>
+        <v>30222</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>30227</v>
+        <v>30223</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>30228</v>
+        <v>30224</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>30229</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>30230</v>
+        <v>30226</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>30231</v>
+        <v>30227</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>30232</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>30233</v>
+        <v>30229</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>30234</v>
+        <v>30230</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>30235</v>
+        <v>30231</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>30236</v>
+        <v>30232</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>30237</v>
+        <v>30233</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>30238</v>
+        <v>30234</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>30239</v>
+        <v>30235</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>30240</v>
+        <v>30236</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>30241</v>
+        <v>30237</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
+        <v>30238</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>30239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>30241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>30242</v>
       </c>
     </row>
@@ -19038,10 +21615,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A9162-F69A-40B9-84D4-8B5CB6F3D404}">
-  <dimension ref="C1:Q19"/>
+  <dimension ref="C1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19261,6 +21838,28 @@
       <c r="H9">
         <v>151</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>L10+16</f>
+        <v>1519</v>
+      </c>
+      <c r="M9">
+        <v>335</v>
+      </c>
+      <c r="N9">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>1503</v>
+      </c>
+      <c r="P9">
+        <v>335</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10">
@@ -19281,6 +21880,27 @@
       <c r="H10">
         <v>361</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1503</v>
+      </c>
+      <c r="M10">
+        <v>335</v>
+      </c>
+      <c r="N10">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>1503</v>
+      </c>
+      <c r="P10">
+        <v>335</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11">
@@ -19301,6 +21921,29 @@
       <c r="H11">
         <v>391</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1568</v>
+      </c>
+      <c r="M11">
+        <v>400</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <f>L11</f>
+        <v>1568</v>
+      </c>
+      <c r="P11">
+        <f>M11</f>
+        <v>400</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12">
@@ -19321,6 +21964,56 @@
       <c r="H12">
         <v>393</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>L11+16</f>
+        <v>1584</v>
+      </c>
+      <c r="M12">
+        <v>400</v>
+      </c>
+      <c r="N12">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:O21" si="0">L12</f>
+        <v>1584</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P21" si="1">M12</f>
+        <v>400</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>L12+16</f>
+        <v>1600</v>
+      </c>
+      <c r="M13">
+        <v>400</v>
+      </c>
+      <c r="N13">
+        <v>24</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14">
@@ -19341,6 +22034,29 @@
       <c r="H14">
         <v>416</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1584</v>
+      </c>
+      <c r="M14">
+        <v>384</v>
+      </c>
+      <c r="N14">
+        <v>24</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -19361,6 +22077,29 @@
       <c r="H15">
         <v>416</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1600</v>
+      </c>
+      <c r="M15">
+        <v>384</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16">
@@ -19381,8 +22120,32 @@
       <c r="H16">
         <v>416</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1600</v>
+      </c>
+      <c r="M16">
+        <f>M15-16</f>
+        <v>368</v>
+      </c>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>7</v>
       </c>
@@ -19401,8 +22164,31 @@
       <c r="H17">
         <v>304</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1664</v>
+      </c>
+      <c r="M17">
+        <v>400</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>1664</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>7</v>
       </c>
@@ -19421,8 +22207,32 @@
       <c r="H18">
         <v>416</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f>L17+16</f>
+        <v>1680</v>
+      </c>
+      <c r="M18">
+        <v>400</v>
+      </c>
+      <c r="N18">
+        <v>24</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>7</v>
       </c>
@@ -19440,6 +22250,704 @@
       </c>
       <c r="H19">
         <v>416</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>L18+16</f>
+        <v>1696</v>
+      </c>
+      <c r="M19">
+        <v>400</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1696</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1664</v>
+      </c>
+      <c r="M20">
+        <v>384</v>
+      </c>
+      <c r="N20">
+        <v>24</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1664</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1680</v>
+      </c>
+      <c r="M21">
+        <v>384</v>
+      </c>
+      <c r="N21">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1664</v>
+      </c>
+      <c r="M22">
+        <f>M21-16</f>
+        <v>368</v>
+      </c>
+      <c r="N22">
+        <v>24</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O43" si="2">L22</f>
+        <v>1664</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P43" si="3">M22</f>
+        <v>368</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2257</v>
+      </c>
+      <c r="M23">
+        <v>305</v>
+      </c>
+      <c r="N23">
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>2257</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>L23+16</f>
+        <v>2273</v>
+      </c>
+      <c r="M24">
+        <v>305</v>
+      </c>
+      <c r="N24">
+        <v>24</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>2273</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2257</v>
+      </c>
+      <c r="M25">
+        <v>369</v>
+      </c>
+      <c r="N25">
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>2257</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f>L25+16</f>
+        <v>2273</v>
+      </c>
+      <c r="M26">
+        <v>369</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>2273</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>369</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>24</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1952</v>
+      </c>
+      <c r="M28">
+        <v>400</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>1952</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1968</v>
+      </c>
+      <c r="M29">
+        <v>400</v>
+      </c>
+      <c r="N29">
+        <v>24</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>1968</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1984</v>
+      </c>
+      <c r="M30">
+        <v>400</v>
+      </c>
+      <c r="N30">
+        <v>24</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2000</v>
+      </c>
+      <c r="M31">
+        <v>400</v>
+      </c>
+      <c r="N31">
+        <v>24</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2016</v>
+      </c>
+      <c r="M32">
+        <v>400</v>
+      </c>
+      <c r="N32">
+        <v>24</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>2032</v>
+      </c>
+      <c r="M33">
+        <v>400</v>
+      </c>
+      <c r="N33">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2048</v>
+      </c>
+      <c r="M34">
+        <v>400</v>
+      </c>
+      <c r="N34">
+        <v>24</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>2048</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1968</v>
+      </c>
+      <c r="M35">
+        <v>384</v>
+      </c>
+      <c r="N35">
+        <v>24</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>1968</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1984</v>
+      </c>
+      <c r="M36">
+        <v>384</v>
+      </c>
+      <c r="N36">
+        <v>24</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2000</v>
+      </c>
+      <c r="M37">
+        <v>384</v>
+      </c>
+      <c r="N37">
+        <v>24</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2016</v>
+      </c>
+      <c r="M38">
+        <v>384</v>
+      </c>
+      <c r="N38">
+        <v>24</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2032</v>
+      </c>
+      <c r="M39">
+        <v>384</v>
+      </c>
+      <c r="N39">
+        <v>24</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1984</v>
+      </c>
+      <c r="M40">
+        <v>368</v>
+      </c>
+      <c r="N40">
+        <v>24</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2000</v>
+      </c>
+      <c r="M41">
+        <v>368</v>
+      </c>
+      <c r="N41">
+        <v>24</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2016</v>
+      </c>
+      <c r="M42">
+        <v>368</v>
+      </c>
+      <c r="N42">
+        <v>24</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>2032</v>
+      </c>
+      <c r="M43">
+        <v>368</v>
+      </c>
+      <c r="N43">
+        <v>24</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>2032</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>368</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>2097</v>
+      </c>
+      <c r="M45">
+        <v>400</v>
+      </c>
+      <c r="N45">
+        <v>24</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:O47" si="4">L45</f>
+        <v>2097</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45:P47" si="5">M45</f>
+        <v>400</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f>L45+16</f>
+        <v>2113</v>
+      </c>
+      <c r="M46">
+        <v>400</v>
+      </c>
+      <c r="N46">
+        <v>24</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="4"/>
+        <v>2113</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2097</v>
+      </c>
+      <c r="M47">
+        <f>M46-16</f>
+        <v>384</v>
+      </c>
+      <c r="N47">
+        <v>24</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="4"/>
+        <v>2097</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E45634-8E6E-4346-9CD2-D4DE7AFBF11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0540729-C1FE-4FC7-B640-9ECD44BEA2D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -887,6 +887,9 @@
   <si>
     <t>#waterpipe</t>
   </si>
+  <si>
+    <t>#font</t>
+  </si>
 </sst>
 </file>
 
@@ -1237,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
-  <dimension ref="A1:K322"/>
+  <dimension ref="A1:S387"/>
   <sheetViews>
-    <sheetView topLeftCell="A318" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E226" sqref="E226"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S339" sqref="S339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10195,14 +10198,2130 @@
         <v>20308</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>20309</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>20310</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>40001</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>3</v>
+      </c>
+      <c r="D326">
+        <f>B326+G326</f>
+        <v>155</v>
+      </c>
+      <c r="E326">
+        <f>C326+H326</f>
+        <v>31</v>
+      </c>
+      <c r="F326">
+        <v>25</v>
+      </c>
+      <c r="G326">
+        <v>152</v>
+      </c>
+      <c r="H326">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>40002</v>
+      </c>
+      <c r="B327">
+        <v>163</v>
+      </c>
+      <c r="C327">
+        <v>3</v>
+      </c>
+      <c r="D327">
+        <f t="shared" ref="D327:D387" si="20">B327+G327</f>
+        <v>235</v>
+      </c>
+      <c r="E327">
+        <f t="shared" ref="E327:E387" si="21">C327+H327</f>
+        <v>31</v>
+      </c>
+      <c r="F327">
+        <v>25</v>
+      </c>
+      <c r="G327">
+        <v>72</v>
+      </c>
+      <c r="H327">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>40003</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328">
+        <v>33</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="F328">
+        <v>25</v>
+      </c>
+      <c r="G328">
+        <v>8</v>
+      </c>
+      <c r="H328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>40004</v>
+      </c>
+      <c r="B329">
+        <v>12</v>
+      </c>
+      <c r="C329">
+        <v>33</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="F329">
+        <v>25</v>
+      </c>
+      <c r="G329">
+        <v>15</v>
+      </c>
+      <c r="H329">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>40005</v>
+      </c>
+      <c r="B330">
+        <v>8</v>
+      </c>
+      <c r="C330">
+        <v>43</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="F330">
+        <v>25</v>
+      </c>
+      <c r="G330">
+        <v>16</v>
+      </c>
+      <c r="H330">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>40006</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>51</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="F331">
+        <v>25</v>
+      </c>
+      <c r="G331">
+        <v>16</v>
+      </c>
+      <c r="H331">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>40007</v>
+      </c>
+      <c r="B332">
+        <v>33</v>
+      </c>
+      <c r="C332">
+        <v>32</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F332">
+        <v>25</v>
+      </c>
+      <c r="G332">
+        <v>8</v>
+      </c>
+      <c r="H332">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>40008</v>
+      </c>
+      <c r="B333">
+        <v>43</v>
+      </c>
+      <c r="C333">
+        <v>32</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F333">
+        <v>25</v>
+      </c>
+      <c r="G333">
+        <v>8</v>
+      </c>
+      <c r="H333">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>40009</v>
+      </c>
+      <c r="B334">
+        <v>53</v>
+      </c>
+      <c r="C334">
+        <v>32</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F334">
+        <v>25</v>
+      </c>
+      <c r="G334">
+        <v>8</v>
+      </c>
+      <c r="H334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>40010</v>
+      </c>
+      <c r="B335">
+        <v>63</v>
+      </c>
+      <c r="C335">
+        <v>32</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F335">
+        <v>25</v>
+      </c>
+      <c r="G335">
+        <v>8</v>
+      </c>
+      <c r="H335">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>40011</v>
+      </c>
+      <c r="B336">
+        <v>73</v>
+      </c>
+      <c r="C336">
+        <v>32</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F336">
+        <v>25</v>
+      </c>
+      <c r="G336">
+        <v>8</v>
+      </c>
+      <c r="H336">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>40012</v>
+      </c>
+      <c r="B337">
+        <v>83</v>
+      </c>
+      <c r="C337">
+        <v>32</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="20"/>
+        <v>91</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F337">
+        <v>25</v>
+      </c>
+      <c r="G337">
+        <v>8</v>
+      </c>
+      <c r="H337">
+        <v>7</v>
+      </c>
+      <c r="K337">
+        <v>11</v>
+      </c>
+      <c r="L337">
+        <v>24</v>
+      </c>
+      <c r="M337">
+        <v>54</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+      <c r="P337">
+        <v>1</v>
+      </c>
+      <c r="Q337">
+        <v>0</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>40013</v>
+      </c>
+      <c r="B338">
+        <v>93</v>
+      </c>
+      <c r="C338">
+        <v>32</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F338">
+        <v>25</v>
+      </c>
+      <c r="G338">
+        <v>8</v>
+      </c>
+      <c r="H338">
+        <v>7</v>
+      </c>
+      <c r="K338">
+        <v>11</v>
+      </c>
+      <c r="L338">
+        <v>58</v>
+      </c>
+      <c r="M338">
+        <v>54</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>1</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+      <c r="Q338">
+        <v>1</v>
+      </c>
+      <c r="R338">
+        <v>0</v>
+      </c>
+      <c r="S338">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>40014</v>
+      </c>
+      <c r="B339">
+        <v>103</v>
+      </c>
+      <c r="C339">
+        <v>32</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F339">
+        <v>25</v>
+      </c>
+      <c r="G339">
+        <v>8</v>
+      </c>
+      <c r="H339">
+        <v>7</v>
+      </c>
+      <c r="K339">
+        <v>11</v>
+      </c>
+      <c r="L339">
+        <v>58</v>
+      </c>
+      <c r="M339">
+        <v>22</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <v>1</v>
+      </c>
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>1</v>
+      </c>
+      <c r="S339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>40015</v>
+      </c>
+      <c r="B340">
+        <v>113</v>
+      </c>
+      <c r="C340">
+        <v>32</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="20"/>
+        <v>121</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F340">
+        <v>25</v>
+      </c>
+      <c r="G340">
+        <v>8</v>
+      </c>
+      <c r="H340">
+        <v>7</v>
+      </c>
+      <c r="K340">
+        <v>11</v>
+      </c>
+      <c r="L340">
+        <v>90</v>
+      </c>
+      <c r="M340">
+        <v>22</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+      <c r="O340">
+        <v>1</v>
+      </c>
+      <c r="P340">
+        <v>1</v>
+      </c>
+      <c r="Q340">
+        <v>0</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>40016</v>
+      </c>
+      <c r="B341">
+        <v>123</v>
+      </c>
+      <c r="C341">
+        <v>32</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="20"/>
+        <v>131</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F341">
+        <v>25</v>
+      </c>
+      <c r="G341">
+        <v>8</v>
+      </c>
+      <c r="H341">
+        <v>7</v>
+      </c>
+      <c r="K341">
+        <v>11</v>
+      </c>
+      <c r="L341">
+        <v>122</v>
+      </c>
+      <c r="M341">
+        <v>22</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+      <c r="O341">
+        <v>1</v>
+      </c>
+      <c r="P341">
+        <v>1</v>
+      </c>
+      <c r="Q341">
+        <v>0</v>
+      </c>
+      <c r="R341">
+        <v>1</v>
+      </c>
+      <c r="S341">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>40017</v>
+      </c>
+      <c r="B342">
+        <v>133</v>
+      </c>
+      <c r="C342">
+        <v>32</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="20"/>
+        <v>141</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F342">
+        <v>25</v>
+      </c>
+      <c r="G342">
+        <v>8</v>
+      </c>
+      <c r="H342">
+        <v>7</v>
+      </c>
+      <c r="K342">
+        <v>11</v>
+      </c>
+      <c r="L342">
+        <v>154</v>
+      </c>
+      <c r="M342">
+        <v>22</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342">
+        <v>1</v>
+      </c>
+      <c r="P342">
+        <v>1</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
+        <v>0</v>
+      </c>
+      <c r="S342">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>40018</v>
+      </c>
+      <c r="B343">
+        <v>143</v>
+      </c>
+      <c r="C343">
+        <v>32</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="F343">
+        <v>25</v>
+      </c>
+      <c r="G343">
+        <v>8</v>
+      </c>
+      <c r="H343">
+        <v>7</v>
+      </c>
+      <c r="K343">
+        <v>11</v>
+      </c>
+      <c r="L343">
+        <v>186</v>
+      </c>
+      <c r="M343">
+        <v>22</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+      <c r="O343">
+        <v>1</v>
+      </c>
+      <c r="P343">
+        <v>0</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
+        <v>1</v>
+      </c>
+      <c r="S343">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>40019</v>
+      </c>
+      <c r="B344">
+        <v>33</v>
+      </c>
+      <c r="C344">
+        <v>42</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F344">
+        <v>25</v>
+      </c>
+      <c r="G344">
+        <v>8</v>
+      </c>
+      <c r="H344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>40020</v>
+      </c>
+      <c r="B345">
+        <v>43</v>
+      </c>
+      <c r="C345">
+        <v>42</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F345">
+        <v>25</v>
+      </c>
+      <c r="G345">
+        <v>8</v>
+      </c>
+      <c r="H345">
+        <v>7</v>
+      </c>
+      <c r="K345">
+        <v>11</v>
+      </c>
+      <c r="L345">
+        <v>122</v>
+      </c>
+      <c r="M345">
+        <v>54</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+      <c r="P345">
+        <v>1</v>
+      </c>
+      <c r="Q345">
+        <v>1</v>
+      </c>
+      <c r="R345">
+        <v>1</v>
+      </c>
+      <c r="S345">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>40021</v>
+      </c>
+      <c r="B346">
+        <v>53</v>
+      </c>
+      <c r="C346">
+        <v>42</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F346">
+        <v>25</v>
+      </c>
+      <c r="G346">
+        <v>8</v>
+      </c>
+      <c r="H346">
+        <v>7</v>
+      </c>
+      <c r="K346">
+        <v>11</v>
+      </c>
+      <c r="L346">
+        <v>154</v>
+      </c>
+      <c r="M346">
+        <v>54</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+      <c r="O346">
+        <v>1</v>
+      </c>
+      <c r="P346">
+        <v>1</v>
+      </c>
+      <c r="Q346">
+        <v>0</v>
+      </c>
+      <c r="R346">
+        <v>0</v>
+      </c>
+      <c r="S346">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>40022</v>
+      </c>
+      <c r="B347">
+        <v>63</v>
+      </c>
+      <c r="C347">
+        <v>42</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F347">
+        <v>25</v>
+      </c>
+      <c r="G347">
+        <v>8</v>
+      </c>
+      <c r="H347">
+        <v>7</v>
+      </c>
+      <c r="K347">
+        <v>11</v>
+      </c>
+      <c r="L347">
+        <v>186</v>
+      </c>
+      <c r="M347">
+        <v>54</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+      <c r="O347">
+        <v>1</v>
+      </c>
+      <c r="P347">
+        <v>0</v>
+      </c>
+      <c r="Q347">
+        <v>1</v>
+      </c>
+      <c r="R347">
+        <v>0</v>
+      </c>
+      <c r="S347">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>40023</v>
+      </c>
+      <c r="B348">
+        <v>73</v>
+      </c>
+      <c r="C348">
+        <v>42</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F348">
+        <v>25</v>
+      </c>
+      <c r="G348">
+        <v>8</v>
+      </c>
+      <c r="H348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>40024</v>
+      </c>
+      <c r="B349">
+        <v>83</v>
+      </c>
+      <c r="C349">
+        <v>42</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="20"/>
+        <v>91</v>
+      </c>
+      <c r="E349">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F349">
+        <v>25</v>
+      </c>
+      <c r="G349">
+        <v>8</v>
+      </c>
+      <c r="H349">
+        <v>7</v>
+      </c>
+      <c r="K349">
+        <v>11</v>
+      </c>
+      <c r="L349">
+        <v>58</v>
+      </c>
+      <c r="M349">
+        <v>86</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+      <c r="P349">
+        <v>1</v>
+      </c>
+      <c r="Q349">
+        <v>1</v>
+      </c>
+      <c r="R349">
+        <v>1</v>
+      </c>
+      <c r="S349">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>40025</v>
+      </c>
+      <c r="B350">
+        <v>93</v>
+      </c>
+      <c r="C350">
+        <v>42</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F350">
+        <v>25</v>
+      </c>
+      <c r="G350">
+        <v>8</v>
+      </c>
+      <c r="H350">
+        <v>7</v>
+      </c>
+      <c r="K350">
+        <v>11</v>
+      </c>
+      <c r="L350">
+        <v>90</v>
+      </c>
+      <c r="M350">
+        <v>86</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <v>1</v>
+      </c>
+      <c r="P350">
+        <v>1</v>
+      </c>
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <v>0</v>
+      </c>
+      <c r="S350">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>40026</v>
+      </c>
+      <c r="B351">
+        <v>103</v>
+      </c>
+      <c r="C351">
+        <v>42</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F351">
+        <v>25</v>
+      </c>
+      <c r="G351">
+        <v>8</v>
+      </c>
+      <c r="H351">
+        <v>7</v>
+      </c>
+      <c r="K351">
+        <v>11</v>
+      </c>
+      <c r="L351">
+        <v>122</v>
+      </c>
+      <c r="M351">
+        <v>86</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+      <c r="O351">
+        <v>1</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+      <c r="Q351">
+        <v>1</v>
+      </c>
+      <c r="R351">
+        <v>0</v>
+      </c>
+      <c r="S351">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>40027</v>
+      </c>
+      <c r="B352">
+        <v>113</v>
+      </c>
+      <c r="C352">
+        <v>42</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="20"/>
+        <v>121</v>
+      </c>
+      <c r="E352">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F352">
+        <v>25</v>
+      </c>
+      <c r="G352">
+        <v>8</v>
+      </c>
+      <c r="H352">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>40028</v>
+      </c>
+      <c r="B353">
+        <v>123</v>
+      </c>
+      <c r="C353">
+        <v>42</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="20"/>
+        <v>131</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F353">
+        <v>25</v>
+      </c>
+      <c r="G353">
+        <v>8</v>
+      </c>
+      <c r="H353">
+        <v>7</v>
+      </c>
+      <c r="K353">
+        <v>11</v>
+      </c>
+      <c r="L353">
+        <v>58</v>
+      </c>
+      <c r="M353">
+        <v>118</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+      <c r="Q353">
+        <v>1</v>
+      </c>
+      <c r="R353">
+        <v>1</v>
+      </c>
+      <c r="S353">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>40029</v>
+      </c>
+      <c r="B354">
+        <v>133</v>
+      </c>
+      <c r="C354">
+        <v>42</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="20"/>
+        <v>141</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F354">
+        <v>25</v>
+      </c>
+      <c r="G354">
+        <v>8</v>
+      </c>
+      <c r="H354">
+        <v>7</v>
+      </c>
+      <c r="K354">
+        <v>11</v>
+      </c>
+      <c r="L354">
+        <v>90</v>
+      </c>
+      <c r="M354">
+        <v>118</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354">
+        <v>1</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>0</v>
+      </c>
+      <c r="S354">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>40030</v>
+      </c>
+      <c r="B355">
+        <v>143</v>
+      </c>
+      <c r="C355">
+        <v>42</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="F355">
+        <v>25</v>
+      </c>
+      <c r="G355">
+        <v>8</v>
+      </c>
+      <c r="H355">
+        <v>7</v>
+      </c>
+      <c r="K355">
+        <v>11</v>
+      </c>
+      <c r="L355">
+        <v>122</v>
+      </c>
+      <c r="M355">
+        <v>118</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <v>1</v>
+      </c>
+      <c r="P355">
+        <v>1</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <v>1</v>
+      </c>
+      <c r="S355">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>40031</v>
+      </c>
+      <c r="B356">
+        <v>33</v>
+      </c>
+      <c r="C356">
+        <v>52</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F356">
+        <v>25</v>
+      </c>
+      <c r="G356">
+        <v>8</v>
+      </c>
+      <c r="H356">
+        <v>7</v>
+      </c>
+      <c r="K356">
+        <v>11</v>
+      </c>
+      <c r="L356">
+        <v>154</v>
+      </c>
+      <c r="M356">
+        <v>118</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+      <c r="O356">
+        <v>1</v>
+      </c>
+      <c r="P356">
+        <v>1</v>
+      </c>
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>0</v>
+      </c>
+      <c r="S356">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>40032</v>
+      </c>
+      <c r="B357">
+        <v>43</v>
+      </c>
+      <c r="C357">
+        <v>52</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="20"/>
+        <v>51</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F357">
+        <v>25</v>
+      </c>
+      <c r="G357">
+        <v>8</v>
+      </c>
+      <c r="H357">
+        <v>7</v>
+      </c>
+      <c r="K357">
+        <v>11</v>
+      </c>
+      <c r="L357">
+        <v>186</v>
+      </c>
+      <c r="M357">
+        <v>118</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+      <c r="O357">
+        <v>1</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>40033</v>
+      </c>
+      <c r="B358">
+        <v>53</v>
+      </c>
+      <c r="C358">
+        <v>52</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="20"/>
+        <v>61</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F358">
+        <v>25</v>
+      </c>
+      <c r="G358">
+        <v>8</v>
+      </c>
+      <c r="H358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>40034</v>
+      </c>
+      <c r="B359">
+        <v>63</v>
+      </c>
+      <c r="C359">
+        <v>52</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="20"/>
+        <v>71</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F359">
+        <v>25</v>
+      </c>
+      <c r="G359">
+        <v>8</v>
+      </c>
+      <c r="H359">
+        <v>7</v>
+      </c>
+      <c r="K359">
+        <v>11</v>
+      </c>
+      <c r="L359">
+        <v>58</v>
+      </c>
+      <c r="M359">
+        <v>150</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359">
+        <v>0</v>
+      </c>
+      <c r="P359">
+        <v>1</v>
+      </c>
+      <c r="Q359">
+        <v>1</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>40035</v>
+      </c>
+      <c r="B360">
+        <v>73</v>
+      </c>
+      <c r="C360">
+        <v>52</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="20"/>
+        <v>81</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F360">
+        <v>25</v>
+      </c>
+      <c r="G360">
+        <v>8</v>
+      </c>
+      <c r="H360">
+        <v>7</v>
+      </c>
+      <c r="K360">
+        <v>11</v>
+      </c>
+      <c r="L360">
+        <v>90</v>
+      </c>
+      <c r="M360">
+        <v>150</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360">
+        <v>1</v>
+      </c>
+      <c r="P360">
+        <v>1</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>40036</v>
+      </c>
+      <c r="B361">
+        <v>83</v>
+      </c>
+      <c r="C361">
+        <v>52</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="20"/>
+        <v>91</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F361">
+        <v>25</v>
+      </c>
+      <c r="G361">
+        <v>8</v>
+      </c>
+      <c r="H361">
+        <v>7</v>
+      </c>
+      <c r="K361">
+        <v>11</v>
+      </c>
+      <c r="L361">
+        <v>122</v>
+      </c>
+      <c r="M361">
+        <v>150</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361">
+        <v>1</v>
+      </c>
+      <c r="P361">
+        <v>0</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>40037</v>
+      </c>
+      <c r="B362">
+        <v>93</v>
+      </c>
+      <c r="C362">
+        <v>52</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F362">
+        <v>25</v>
+      </c>
+      <c r="G362">
+        <v>8</v>
+      </c>
+      <c r="H362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>40038</v>
+      </c>
+      <c r="B363">
+        <v>103</v>
+      </c>
+      <c r="C363">
+        <v>52</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F363">
+        <v>25</v>
+      </c>
+      <c r="G363">
+        <v>8</v>
+      </c>
+      <c r="H363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>40039</v>
+      </c>
+      <c r="B364">
+        <v>113</v>
+      </c>
+      <c r="C364">
+        <v>52</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="20"/>
+        <v>121</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F364">
+        <v>25</v>
+      </c>
+      <c r="G364">
+        <v>8</v>
+      </c>
+      <c r="H364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>40040</v>
+      </c>
+      <c r="B365">
+        <v>123</v>
+      </c>
+      <c r="C365">
+        <v>52</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="20"/>
+        <v>131</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F365">
+        <v>25</v>
+      </c>
+      <c r="G365">
+        <v>8</v>
+      </c>
+      <c r="H365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>40041</v>
+      </c>
+      <c r="B366">
+        <v>133</v>
+      </c>
+      <c r="C366">
+        <v>52</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="20"/>
+        <v>141</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F366">
+        <v>25</v>
+      </c>
+      <c r="G366">
+        <v>8</v>
+      </c>
+      <c r="H366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>40042</v>
+      </c>
+      <c r="B367">
+        <v>143</v>
+      </c>
+      <c r="C367">
+        <v>52</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="F367">
+        <v>25</v>
+      </c>
+      <c r="G367">
+        <v>8</v>
+      </c>
+      <c r="H367">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>40043</v>
+      </c>
+      <c r="B368">
+        <v>163</v>
+      </c>
+      <c r="C368">
+        <v>33</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="20"/>
+        <v>195</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="F368">
+        <v>25</v>
+      </c>
+      <c r="G368">
+        <v>32</v>
+      </c>
+      <c r="H368">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>40044</v>
+      </c>
+      <c r="B369">
+        <v>196</v>
+      </c>
+      <c r="C369">
+        <v>33</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="20"/>
+        <v>228</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="F369">
+        <v>25</v>
+      </c>
+      <c r="G369">
+        <v>32</v>
+      </c>
+      <c r="H369">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>40045</v>
+      </c>
+      <c r="B370">
+        <v>228</v>
+      </c>
+      <c r="C370">
+        <v>33</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="20"/>
+        <v>260</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="F370">
+        <v>25</v>
+      </c>
+      <c r="G370">
+        <v>32</v>
+      </c>
+      <c r="H370">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>40046</v>
+      </c>
+      <c r="B371">
+        <v>260</v>
+      </c>
+      <c r="C371">
+        <v>33</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="20"/>
+        <v>292</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="F371">
+        <v>25</v>
+      </c>
+      <c r="G371">
+        <v>32</v>
+      </c>
+      <c r="H371">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>40047</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>40048</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>40049</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F374">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>40050</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>40051</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>40052</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>40053</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>40054</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>40055</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>40056</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>40057</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>40058</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>40059</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>40060</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>40061</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>40062</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -13878,7 +15997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F515-6D2A-4B63-9568-E36E7173119D}">
   <dimension ref="A1:X205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E136" workbookViewId="0">
+    <sheetView topLeftCell="E139" workbookViewId="0">
       <selection activeCell="X146" sqref="X146"/>
     </sheetView>
   </sheetViews>
@@ -18514,7 +20633,7 @@
         <v>2272</v>
       </c>
       <c r="U135">
-        <f t="shared" ref="U135:U139" si="13">U134</f>
+        <f t="shared" ref="U135" si="13">U134</f>
         <v>176</v>
       </c>
       <c r="V135">
@@ -18581,7 +20700,7 @@
         <v>2272</v>
       </c>
       <c r="U137">
-        <f t="shared" ref="U137:U139" si="14">U136</f>
+        <f t="shared" ref="U137" si="14">U136</f>
         <v>192</v>
       </c>
       <c r="V137">
@@ -21615,10 +23734,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A9162-F69A-40B9-84D4-8B5CB6F3D404}">
-  <dimension ref="C1:Q47"/>
+  <dimension ref="A1:R293"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69:M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22145,7 +24264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>7</v>
       </c>
@@ -22188,7 +24307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>7</v>
       </c>
@@ -22232,7 +24351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>7</v>
       </c>
@@ -22276,7 +24395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>1</v>
       </c>
@@ -22301,7 +24420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K21">
         <v>1</v>
       </c>
@@ -22326,7 +24445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K22">
         <v>1</v>
       </c>
@@ -22352,7 +24471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K23">
         <v>1</v>
       </c>
@@ -22377,7 +24496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K24">
         <v>1</v>
       </c>
@@ -22403,7 +24522,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
@@ -22428,7 +24571,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
@@ -22454,7 +24621,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
@@ -22473,7 +24664,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
@@ -22498,7 +24713,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
@@ -22523,7 +24762,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
@@ -22548,7 +24811,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
@@ -22573,7 +24860,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>112</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
@@ -22598,7 +24909,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>160</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
@@ -22623,7 +24958,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>176</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
@@ -22648,7 +25007,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>192</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
@@ -22673,7 +25056,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>208</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
@@ -22698,7 +25105,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>224</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
@@ -22723,7 +25154,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>240</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>24</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
@@ -22748,7 +25203,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>256</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
@@ -22773,7 +25252,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>272</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>24</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
@@ -22798,7 +25301,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>288</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
@@ -22823,7 +25350,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>304</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
@@ -22848,7 +25399,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>320</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
@@ -22873,7 +25448,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>336</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>384</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
@@ -22898,7 +25523,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>400</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
@@ -22924,7 +25573,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>416</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>24</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
@@ -22948,6 +25621,6633 @@
       </c>
       <c r="Q47">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>432</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>448</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>464</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>24</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>4</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>209</v>
+      </c>
+      <c r="M50">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>480</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>8</v>
+      </c>
+      <c r="L51">
+        <v>225</v>
+      </c>
+      <c r="M51">
+        <v>25</v>
+      </c>
+      <c r="N51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>496</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>245</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>24</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <v>257</v>
+      </c>
+      <c r="M53">
+        <v>40</v>
+      </c>
+      <c r="N53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>16</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>24</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>8</v>
+      </c>
+      <c r="L54">
+        <v>257</v>
+      </c>
+      <c r="M54">
+        <v>58</v>
+      </c>
+      <c r="N54">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>32</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>24</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>8</v>
+      </c>
+      <c r="L55">
+        <v>226</v>
+      </c>
+      <c r="M55">
+        <v>72</v>
+      </c>
+      <c r="N55">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>241</v>
+      </c>
+      <c r="M56">
+        <v>72</v>
+      </c>
+      <c r="N56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>64</v>
+      </c>
+      <c r="E57">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>24</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>257</v>
+      </c>
+      <c r="M57">
+        <v>89</v>
+      </c>
+      <c r="N57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>80</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>257</v>
+      </c>
+      <c r="M58">
+        <v>105</v>
+      </c>
+      <c r="N58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>96</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>24</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>8</v>
+      </c>
+      <c r="L59">
+        <v>209</v>
+      </c>
+      <c r="M59">
+        <v>105</v>
+      </c>
+      <c r="N59">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>112</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>24</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>8</v>
+      </c>
+      <c r="L60">
+        <v>226</v>
+      </c>
+      <c r="M60">
+        <v>120</v>
+      </c>
+      <c r="N60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>384</v>
+      </c>
+      <c r="E61">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>24</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>8</v>
+      </c>
+      <c r="L61">
+        <v>241</v>
+      </c>
+      <c r="M61">
+        <v>120</v>
+      </c>
+      <c r="N61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>400</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>416</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>432</v>
+      </c>
+      <c r="E64">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>24</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>448</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>24</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>30300</v>
+      </c>
+      <c r="L65">
+        <v>156</v>
+      </c>
+      <c r="M65">
+        <v>121</v>
+      </c>
+      <c r="N65">
+        <f>L65+Q65</f>
+        <v>172</v>
+      </c>
+      <c r="O65">
+        <f>M65+R65</f>
+        <v>137</v>
+      </c>
+      <c r="P65">
+        <v>22</v>
+      </c>
+      <c r="Q65">
+        <v>16</v>
+      </c>
+      <c r="R65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>464</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>30301</v>
+      </c>
+      <c r="L66">
+        <v>201</v>
+      </c>
+      <c r="M66">
+        <v>121</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:N67" si="6">L66+Q66</f>
+        <v>217</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66:O67" si="7">M66+R66</f>
+        <v>137</v>
+      </c>
+      <c r="P66">
+        <v>22</v>
+      </c>
+      <c r="Q66">
+        <v>16</v>
+      </c>
+      <c r="R66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>480</v>
+      </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>4</v>
+      </c>
+      <c r="K67">
+        <v>30302</v>
+      </c>
+      <c r="L67">
+        <v>309</v>
+      </c>
+      <c r="M67">
+        <v>121</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="6"/>
+        <v>325</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+      <c r="P67">
+        <v>22</v>
+      </c>
+      <c r="Q67">
+        <v>16</v>
+      </c>
+      <c r="R67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>496</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>24</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>32</v>
+      </c>
+      <c r="F69">
+        <v>24</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>30300</v>
+      </c>
+      <c r="L69">
+        <v>30301</v>
+      </c>
+      <c r="M69">
+        <v>30302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>32</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>32</v>
+      </c>
+      <c r="E71">
+        <v>32</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>32</v>
+      </c>
+      <c r="F72">
+        <v>24</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>64</v>
+      </c>
+      <c r="E73">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>24</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>80</v>
+      </c>
+      <c r="E74">
+        <v>32</v>
+      </c>
+      <c r="F74">
+        <v>24</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>96</v>
+      </c>
+      <c r="E75">
+        <v>32</v>
+      </c>
+      <c r="F75">
+        <v>24</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>112</v>
+      </c>
+      <c r="E76">
+        <v>32</v>
+      </c>
+      <c r="F76">
+        <v>24</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>384</v>
+      </c>
+      <c r="E77">
+        <v>32</v>
+      </c>
+      <c r="F77">
+        <v>24</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>400</v>
+      </c>
+      <c r="E78">
+        <v>32</v>
+      </c>
+      <c r="F78">
+        <v>24</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>416</v>
+      </c>
+      <c r="E79">
+        <v>32</v>
+      </c>
+      <c r="F79">
+        <v>24</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>432</v>
+      </c>
+      <c r="E80">
+        <v>32</v>
+      </c>
+      <c r="F80">
+        <v>24</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>448</v>
+      </c>
+      <c r="E81">
+        <v>32</v>
+      </c>
+      <c r="F81">
+        <v>24</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>464</v>
+      </c>
+      <c r="E82">
+        <v>32</v>
+      </c>
+      <c r="F82">
+        <v>24</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>480</v>
+      </c>
+      <c r="E83">
+        <v>32</v>
+      </c>
+      <c r="F83">
+        <v>24</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>496</v>
+      </c>
+      <c r="E84">
+        <v>32</v>
+      </c>
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+      <c r="F85">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
+      <c r="F86">
+        <v>24</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>32</v>
+      </c>
+      <c r="E87">
+        <v>48</v>
+      </c>
+      <c r="F87">
+        <v>24</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>48</v>
+      </c>
+      <c r="E88">
+        <v>48</v>
+      </c>
+      <c r="F88">
+        <v>24</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>64</v>
+      </c>
+      <c r="E89">
+        <v>48</v>
+      </c>
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>80</v>
+      </c>
+      <c r="E90">
+        <v>48</v>
+      </c>
+      <c r="F90">
+        <v>24</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>96</v>
+      </c>
+      <c r="E91">
+        <v>48</v>
+      </c>
+      <c r="F91">
+        <v>24</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>112</v>
+      </c>
+      <c r="E92">
+        <v>48</v>
+      </c>
+      <c r="F92">
+        <v>24</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>384</v>
+      </c>
+      <c r="E93">
+        <v>48</v>
+      </c>
+      <c r="F93">
+        <v>24</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>400</v>
+      </c>
+      <c r="E94">
+        <v>48</v>
+      </c>
+      <c r="F94">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>416</v>
+      </c>
+      <c r="E95">
+        <v>48</v>
+      </c>
+      <c r="F95">
+        <v>24</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>432</v>
+      </c>
+      <c r="E96">
+        <v>48</v>
+      </c>
+      <c r="F96">
+        <v>24</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>448</v>
+      </c>
+      <c r="E97">
+        <v>48</v>
+      </c>
+      <c r="F97">
+        <v>24</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>464</v>
+      </c>
+      <c r="E98">
+        <v>48</v>
+      </c>
+      <c r="F98">
+        <v>24</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>480</v>
+      </c>
+      <c r="E99">
+        <v>48</v>
+      </c>
+      <c r="F99">
+        <v>24</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>496</v>
+      </c>
+      <c r="E100">
+        <v>48</v>
+      </c>
+      <c r="F100">
+        <v>24</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>64</v>
+      </c>
+      <c r="F101">
+        <v>24</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>64</v>
+      </c>
+      <c r="F102">
+        <v>24</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>32</v>
+      </c>
+      <c r="E103">
+        <v>64</v>
+      </c>
+      <c r="F103">
+        <v>24</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>48</v>
+      </c>
+      <c r="E104">
+        <v>64</v>
+      </c>
+      <c r="F104">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>64</v>
+      </c>
+      <c r="E105">
+        <v>64</v>
+      </c>
+      <c r="F105">
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>80</v>
+      </c>
+      <c r="E106">
+        <v>64</v>
+      </c>
+      <c r="F106">
+        <v>24</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>96</v>
+      </c>
+      <c r="E107">
+        <v>64</v>
+      </c>
+      <c r="F107">
+        <v>24</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>112</v>
+      </c>
+      <c r="E108">
+        <v>64</v>
+      </c>
+      <c r="F108">
+        <v>24</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>336</v>
+      </c>
+      <c r="E109">
+        <v>64</v>
+      </c>
+      <c r="F109">
+        <v>24</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>352</v>
+      </c>
+      <c r="E110">
+        <v>64</v>
+      </c>
+      <c r="F110">
+        <v>24</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>368</v>
+      </c>
+      <c r="E111">
+        <v>64</v>
+      </c>
+      <c r="F111">
+        <v>24</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>384</v>
+      </c>
+      <c r="E112">
+        <v>64</v>
+      </c>
+      <c r="F112">
+        <v>24</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>400</v>
+      </c>
+      <c r="E113">
+        <v>64</v>
+      </c>
+      <c r="F113">
+        <v>24</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>416</v>
+      </c>
+      <c r="E114">
+        <v>64</v>
+      </c>
+      <c r="F114">
+        <v>24</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>432</v>
+      </c>
+      <c r="E115">
+        <v>64</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>448</v>
+      </c>
+      <c r="E116">
+        <v>64</v>
+      </c>
+      <c r="F116">
+        <v>24</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>464</v>
+      </c>
+      <c r="E117">
+        <v>64</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>480</v>
+      </c>
+      <c r="E118">
+        <v>64</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>496</v>
+      </c>
+      <c r="E119">
+        <v>64</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>80</v>
+      </c>
+      <c r="F120">
+        <v>24</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>80</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>32</v>
+      </c>
+      <c r="E122">
+        <v>80</v>
+      </c>
+      <c r="F122">
+        <v>24</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>48</v>
+      </c>
+      <c r="E123">
+        <v>80</v>
+      </c>
+      <c r="F123">
+        <v>24</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>64</v>
+      </c>
+      <c r="E124">
+        <v>80</v>
+      </c>
+      <c r="F124">
+        <v>24</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>80</v>
+      </c>
+      <c r="E125">
+        <v>80</v>
+      </c>
+      <c r="F125">
+        <v>24</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>96</v>
+      </c>
+      <c r="E126">
+        <v>80</v>
+      </c>
+      <c r="F126">
+        <v>24</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>112</v>
+      </c>
+      <c r="E127">
+        <v>80</v>
+      </c>
+      <c r="F127">
+        <v>24</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>320</v>
+      </c>
+      <c r="E128">
+        <v>80</v>
+      </c>
+      <c r="F128">
+        <v>24</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>336</v>
+      </c>
+      <c r="E129">
+        <v>80</v>
+      </c>
+      <c r="F129">
+        <v>24</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>352</v>
+      </c>
+      <c r="E130">
+        <v>80</v>
+      </c>
+      <c r="F130">
+        <v>24</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>368</v>
+      </c>
+      <c r="E131">
+        <v>80</v>
+      </c>
+      <c r="F131">
+        <v>24</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>384</v>
+      </c>
+      <c r="E132">
+        <v>80</v>
+      </c>
+      <c r="F132">
+        <v>24</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>400</v>
+      </c>
+      <c r="E133">
+        <v>80</v>
+      </c>
+      <c r="F133">
+        <v>24</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>416</v>
+      </c>
+      <c r="E134">
+        <v>80</v>
+      </c>
+      <c r="F134">
+        <v>24</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>432</v>
+      </c>
+      <c r="E135">
+        <v>80</v>
+      </c>
+      <c r="F135">
+        <v>24</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>448</v>
+      </c>
+      <c r="E136">
+        <v>80</v>
+      </c>
+      <c r="F136">
+        <v>24</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>464</v>
+      </c>
+      <c r="E137">
+        <v>80</v>
+      </c>
+      <c r="F137">
+        <v>24</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>480</v>
+      </c>
+      <c r="E138">
+        <v>80</v>
+      </c>
+      <c r="F138">
+        <v>24</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>496</v>
+      </c>
+      <c r="E139">
+        <v>80</v>
+      </c>
+      <c r="F139">
+        <v>24</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>96</v>
+      </c>
+      <c r="F140">
+        <v>24</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>96</v>
+      </c>
+      <c r="F141">
+        <v>24</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>32</v>
+      </c>
+      <c r="E142">
+        <v>96</v>
+      </c>
+      <c r="F142">
+        <v>24</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>48</v>
+      </c>
+      <c r="E143">
+        <v>96</v>
+      </c>
+      <c r="F143">
+        <v>24</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>64</v>
+      </c>
+      <c r="E144">
+        <v>96</v>
+      </c>
+      <c r="F144">
+        <v>24</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>80</v>
+      </c>
+      <c r="E145">
+        <v>96</v>
+      </c>
+      <c r="F145">
+        <v>24</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>96</v>
+      </c>
+      <c r="E146">
+        <v>96</v>
+      </c>
+      <c r="F146">
+        <v>24</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>112</v>
+      </c>
+      <c r="E147">
+        <v>96</v>
+      </c>
+      <c r="F147">
+        <v>24</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>304</v>
+      </c>
+      <c r="E148">
+        <v>96</v>
+      </c>
+      <c r="F148">
+        <v>24</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>320</v>
+      </c>
+      <c r="E149">
+        <v>96</v>
+      </c>
+      <c r="F149">
+        <v>24</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>336</v>
+      </c>
+      <c r="E150">
+        <v>96</v>
+      </c>
+      <c r="F150">
+        <v>24</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>352</v>
+      </c>
+      <c r="E151">
+        <v>96</v>
+      </c>
+      <c r="F151">
+        <v>24</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>368</v>
+      </c>
+      <c r="E152">
+        <v>96</v>
+      </c>
+      <c r="F152">
+        <v>24</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>384</v>
+      </c>
+      <c r="E153">
+        <v>96</v>
+      </c>
+      <c r="F153">
+        <v>24</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>400</v>
+      </c>
+      <c r="E154">
+        <v>96</v>
+      </c>
+      <c r="F154">
+        <v>24</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>416</v>
+      </c>
+      <c r="E155">
+        <v>96</v>
+      </c>
+      <c r="F155">
+        <v>24</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>432</v>
+      </c>
+      <c r="E156">
+        <v>96</v>
+      </c>
+      <c r="F156">
+        <v>24</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>448</v>
+      </c>
+      <c r="E157">
+        <v>96</v>
+      </c>
+      <c r="F157">
+        <v>24</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>464</v>
+      </c>
+      <c r="E158">
+        <v>96</v>
+      </c>
+      <c r="F158">
+        <v>24</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>480</v>
+      </c>
+      <c r="E159">
+        <v>96</v>
+      </c>
+      <c r="F159">
+        <v>24</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>496</v>
+      </c>
+      <c r="E160">
+        <v>96</v>
+      </c>
+      <c r="F160">
+        <v>24</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>112</v>
+      </c>
+      <c r="F161">
+        <v>24</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>112</v>
+      </c>
+      <c r="F162">
+        <v>24</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>32</v>
+      </c>
+      <c r="E163">
+        <v>112</v>
+      </c>
+      <c r="F163">
+        <v>24</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>48</v>
+      </c>
+      <c r="E164">
+        <v>112</v>
+      </c>
+      <c r="F164">
+        <v>24</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>64</v>
+      </c>
+      <c r="E165">
+        <v>112</v>
+      </c>
+      <c r="F165">
+        <v>24</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>80</v>
+      </c>
+      <c r="E166">
+        <v>112</v>
+      </c>
+      <c r="F166">
+        <v>24</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>96</v>
+      </c>
+      <c r="E167">
+        <v>112</v>
+      </c>
+      <c r="F167">
+        <v>24</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>112</v>
+      </c>
+      <c r="E168">
+        <v>112</v>
+      </c>
+      <c r="F168">
+        <v>24</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>288</v>
+      </c>
+      <c r="E169">
+        <v>112</v>
+      </c>
+      <c r="F169">
+        <v>24</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>304</v>
+      </c>
+      <c r="E170">
+        <v>112</v>
+      </c>
+      <c r="F170">
+        <v>24</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>320</v>
+      </c>
+      <c r="E171">
+        <v>112</v>
+      </c>
+      <c r="F171">
+        <v>24</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>336</v>
+      </c>
+      <c r="E172">
+        <v>112</v>
+      </c>
+      <c r="F172">
+        <v>24</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>352</v>
+      </c>
+      <c r="E173">
+        <v>112</v>
+      </c>
+      <c r="F173">
+        <v>24</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>368</v>
+      </c>
+      <c r="E174">
+        <v>112</v>
+      </c>
+      <c r="F174">
+        <v>24</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>384</v>
+      </c>
+      <c r="E175">
+        <v>112</v>
+      </c>
+      <c r="F175">
+        <v>24</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>400</v>
+      </c>
+      <c r="E176">
+        <v>112</v>
+      </c>
+      <c r="F176">
+        <v>24</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>416</v>
+      </c>
+      <c r="E177">
+        <v>112</v>
+      </c>
+      <c r="F177">
+        <v>24</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>432</v>
+      </c>
+      <c r="E178">
+        <v>112</v>
+      </c>
+      <c r="F178">
+        <v>24</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>448</v>
+      </c>
+      <c r="E179">
+        <v>112</v>
+      </c>
+      <c r="F179">
+        <v>24</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>464</v>
+      </c>
+      <c r="E180">
+        <v>112</v>
+      </c>
+      <c r="F180">
+        <v>24</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>480</v>
+      </c>
+      <c r="E181">
+        <v>112</v>
+      </c>
+      <c r="F181">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>496</v>
+      </c>
+      <c r="E182">
+        <v>112</v>
+      </c>
+      <c r="F182">
+        <v>24</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>128</v>
+      </c>
+      <c r="F183">
+        <v>24</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>128</v>
+      </c>
+      <c r="F184">
+        <v>24</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>32</v>
+      </c>
+      <c r="E185">
+        <v>128</v>
+      </c>
+      <c r="F185">
+        <v>24</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>48</v>
+      </c>
+      <c r="E186">
+        <v>128</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>64</v>
+      </c>
+      <c r="E187">
+        <v>128</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>80</v>
+      </c>
+      <c r="E188">
+        <v>128</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>96</v>
+      </c>
+      <c r="E189">
+        <v>128</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>112</v>
+      </c>
+      <c r="E190">
+        <v>128</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>272</v>
+      </c>
+      <c r="E191">
+        <v>128</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>288</v>
+      </c>
+      <c r="E192">
+        <v>128</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>304</v>
+      </c>
+      <c r="E193">
+        <v>128</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>320</v>
+      </c>
+      <c r="E194">
+        <v>128</v>
+      </c>
+      <c r="F194">
+        <v>24</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>336</v>
+      </c>
+      <c r="E195">
+        <v>128</v>
+      </c>
+      <c r="F195">
+        <v>24</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>352</v>
+      </c>
+      <c r="E196">
+        <v>128</v>
+      </c>
+      <c r="F196">
+        <v>24</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>368</v>
+      </c>
+      <c r="E197">
+        <v>128</v>
+      </c>
+      <c r="F197">
+        <v>24</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>384</v>
+      </c>
+      <c r="E198">
+        <v>128</v>
+      </c>
+      <c r="F198">
+        <v>24</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>400</v>
+      </c>
+      <c r="E199">
+        <v>128</v>
+      </c>
+      <c r="F199">
+        <v>24</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>416</v>
+      </c>
+      <c r="E200">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>24</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>432</v>
+      </c>
+      <c r="E201">
+        <v>128</v>
+      </c>
+      <c r="F201">
+        <v>24</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>448</v>
+      </c>
+      <c r="E202">
+        <v>128</v>
+      </c>
+      <c r="F202">
+        <v>24</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>464</v>
+      </c>
+      <c r="E203">
+        <v>128</v>
+      </c>
+      <c r="F203">
+        <v>24</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>480</v>
+      </c>
+      <c r="E204">
+        <v>128</v>
+      </c>
+      <c r="F204">
+        <v>24</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>496</v>
+      </c>
+      <c r="E205">
+        <v>128</v>
+      </c>
+      <c r="F205">
+        <v>24</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>144</v>
+      </c>
+      <c r="F206">
+        <v>24</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>144</v>
+      </c>
+      <c r="F207">
+        <v>24</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>32</v>
+      </c>
+      <c r="E208">
+        <v>144</v>
+      </c>
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>48</v>
+      </c>
+      <c r="E209">
+        <v>144</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>64</v>
+      </c>
+      <c r="E210">
+        <v>144</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>80</v>
+      </c>
+      <c r="E211">
+        <v>144</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>96</v>
+      </c>
+      <c r="E212">
+        <v>144</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>112</v>
+      </c>
+      <c r="E213">
+        <v>144</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>256</v>
+      </c>
+      <c r="E214">
+        <v>144</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>272</v>
+      </c>
+      <c r="E215">
+        <v>144</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>288</v>
+      </c>
+      <c r="E216">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>304</v>
+      </c>
+      <c r="E217">
+        <v>144</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>320</v>
+      </c>
+      <c r="E218">
+        <v>144</v>
+      </c>
+      <c r="F218">
+        <v>24</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>336</v>
+      </c>
+      <c r="E219">
+        <v>144</v>
+      </c>
+      <c r="F219">
+        <v>24</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>352</v>
+      </c>
+      <c r="E220">
+        <v>144</v>
+      </c>
+      <c r="F220">
+        <v>24</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>368</v>
+      </c>
+      <c r="E221">
+        <v>144</v>
+      </c>
+      <c r="F221">
+        <v>24</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>384</v>
+      </c>
+      <c r="E222">
+        <v>144</v>
+      </c>
+      <c r="F222">
+        <v>24</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>400</v>
+      </c>
+      <c r="E223">
+        <v>144</v>
+      </c>
+      <c r="F223">
+        <v>24</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>416</v>
+      </c>
+      <c r="E224">
+        <v>144</v>
+      </c>
+      <c r="F224">
+        <v>24</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>432</v>
+      </c>
+      <c r="E225">
+        <v>144</v>
+      </c>
+      <c r="F225">
+        <v>24</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>448</v>
+      </c>
+      <c r="E226">
+        <v>144</v>
+      </c>
+      <c r="F226">
+        <v>24</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>464</v>
+      </c>
+      <c r="E227">
+        <v>144</v>
+      </c>
+      <c r="F227">
+        <v>24</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>480</v>
+      </c>
+      <c r="E228">
+        <v>144</v>
+      </c>
+      <c r="F228">
+        <v>24</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>496</v>
+      </c>
+      <c r="E229">
+        <v>144</v>
+      </c>
+      <c r="F229">
+        <v>24</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>160</v>
+      </c>
+      <c r="F230">
+        <v>24</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>16</v>
+      </c>
+      <c r="E231">
+        <v>160</v>
+      </c>
+      <c r="F231">
+        <v>24</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>32</v>
+      </c>
+      <c r="E232">
+        <v>160</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>48</v>
+      </c>
+      <c r="E233">
+        <v>160</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>64</v>
+      </c>
+      <c r="E234">
+        <v>160</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>80</v>
+      </c>
+      <c r="E235">
+        <v>160</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>96</v>
+      </c>
+      <c r="E236">
+        <v>160</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>112</v>
+      </c>
+      <c r="E237">
+        <v>160</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>128</v>
+      </c>
+      <c r="E238">
+        <v>160</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>144</v>
+      </c>
+      <c r="E239">
+        <v>160</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>160</v>
+      </c>
+      <c r="E240">
+        <v>160</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>176</v>
+      </c>
+      <c r="E241">
+        <v>160</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>192</v>
+      </c>
+      <c r="E242">
+        <v>160</v>
+      </c>
+      <c r="F242">
+        <v>24</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>208</v>
+      </c>
+      <c r="E243">
+        <v>160</v>
+      </c>
+      <c r="F243">
+        <v>24</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>224</v>
+      </c>
+      <c r="E244">
+        <v>160</v>
+      </c>
+      <c r="F244">
+        <v>24</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>240</v>
+      </c>
+      <c r="E245">
+        <v>160</v>
+      </c>
+      <c r="F245">
+        <v>24</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>256</v>
+      </c>
+      <c r="E246">
+        <v>160</v>
+      </c>
+      <c r="F246">
+        <v>24</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>272</v>
+      </c>
+      <c r="E247">
+        <v>160</v>
+      </c>
+      <c r="F247">
+        <v>24</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>288</v>
+      </c>
+      <c r="E248">
+        <v>160</v>
+      </c>
+      <c r="F248">
+        <v>24</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>304</v>
+      </c>
+      <c r="E249">
+        <v>160</v>
+      </c>
+      <c r="F249">
+        <v>24</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>320</v>
+      </c>
+      <c r="E250">
+        <v>160</v>
+      </c>
+      <c r="F250">
+        <v>24</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>336</v>
+      </c>
+      <c r="E251">
+        <v>160</v>
+      </c>
+      <c r="F251">
+        <v>24</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>352</v>
+      </c>
+      <c r="E252">
+        <v>160</v>
+      </c>
+      <c r="F252">
+        <v>24</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>368</v>
+      </c>
+      <c r="E253">
+        <v>160</v>
+      </c>
+      <c r="F253">
+        <v>24</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>384</v>
+      </c>
+      <c r="E254">
+        <v>160</v>
+      </c>
+      <c r="F254">
+        <v>24</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>400</v>
+      </c>
+      <c r="E255">
+        <v>160</v>
+      </c>
+      <c r="F255">
+        <v>24</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>416</v>
+      </c>
+      <c r="E256">
+        <v>160</v>
+      </c>
+      <c r="F256">
+        <v>24</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>432</v>
+      </c>
+      <c r="E257">
+        <v>160</v>
+      </c>
+      <c r="F257">
+        <v>24</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>448</v>
+      </c>
+      <c r="E258">
+        <v>160</v>
+      </c>
+      <c r="F258">
+        <v>24</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>464</v>
+      </c>
+      <c r="E259">
+        <v>160</v>
+      </c>
+      <c r="F259">
+        <v>24</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>480</v>
+      </c>
+      <c r="E260">
+        <v>160</v>
+      </c>
+      <c r="F260">
+        <v>24</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>496</v>
+      </c>
+      <c r="E261">
+        <v>160</v>
+      </c>
+      <c r="F261">
+        <v>24</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>176</v>
+      </c>
+      <c r="F262">
+        <v>24</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>16</v>
+      </c>
+      <c r="E263">
+        <v>176</v>
+      </c>
+      <c r="F263">
+        <v>24</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>32</v>
+      </c>
+      <c r="E264">
+        <v>176</v>
+      </c>
+      <c r="F264">
+        <v>24</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>48</v>
+      </c>
+      <c r="E265">
+        <v>176</v>
+      </c>
+      <c r="F265">
+        <v>24</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>64</v>
+      </c>
+      <c r="E266">
+        <v>176</v>
+      </c>
+      <c r="F266">
+        <v>24</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>80</v>
+      </c>
+      <c r="E267">
+        <v>176</v>
+      </c>
+      <c r="F267">
+        <v>24</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>96</v>
+      </c>
+      <c r="E268">
+        <v>176</v>
+      </c>
+      <c r="F268">
+        <v>24</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>112</v>
+      </c>
+      <c r="E269">
+        <v>176</v>
+      </c>
+      <c r="F269">
+        <v>24</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>128</v>
+      </c>
+      <c r="E270">
+        <v>176</v>
+      </c>
+      <c r="F270">
+        <v>24</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>144</v>
+      </c>
+      <c r="E271">
+        <v>176</v>
+      </c>
+      <c r="F271">
+        <v>24</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>160</v>
+      </c>
+      <c r="E272">
+        <v>176</v>
+      </c>
+      <c r="F272">
+        <v>24</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>176</v>
+      </c>
+      <c r="E273">
+        <v>176</v>
+      </c>
+      <c r="F273">
+        <v>24</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>192</v>
+      </c>
+      <c r="E274">
+        <v>176</v>
+      </c>
+      <c r="F274">
+        <v>24</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>208</v>
+      </c>
+      <c r="E275">
+        <v>176</v>
+      </c>
+      <c r="F275">
+        <v>24</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>224</v>
+      </c>
+      <c r="E276">
+        <v>176</v>
+      </c>
+      <c r="F276">
+        <v>24</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>240</v>
+      </c>
+      <c r="E277">
+        <v>176</v>
+      </c>
+      <c r="F277">
+        <v>24</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>256</v>
+      </c>
+      <c r="E278">
+        <v>176</v>
+      </c>
+      <c r="F278">
+        <v>24</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>272</v>
+      </c>
+      <c r="E279">
+        <v>176</v>
+      </c>
+      <c r="F279">
+        <v>24</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>288</v>
+      </c>
+      <c r="E280">
+        <v>176</v>
+      </c>
+      <c r="F280">
+        <v>24</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>304</v>
+      </c>
+      <c r="E281">
+        <v>176</v>
+      </c>
+      <c r="F281">
+        <v>24</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>320</v>
+      </c>
+      <c r="E282">
+        <v>176</v>
+      </c>
+      <c r="F282">
+        <v>24</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>336</v>
+      </c>
+      <c r="E283">
+        <v>176</v>
+      </c>
+      <c r="F283">
+        <v>24</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>352</v>
+      </c>
+      <c r="E284">
+        <v>176</v>
+      </c>
+      <c r="F284">
+        <v>24</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>368</v>
+      </c>
+      <c r="E285">
+        <v>176</v>
+      </c>
+      <c r="F285">
+        <v>24</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>384</v>
+      </c>
+      <c r="E286">
+        <v>176</v>
+      </c>
+      <c r="F286">
+        <v>24</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>400</v>
+      </c>
+      <c r="E287">
+        <v>176</v>
+      </c>
+      <c r="F287">
+        <v>24</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>416</v>
+      </c>
+      <c r="E288">
+        <v>176</v>
+      </c>
+      <c r="F288">
+        <v>24</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="I288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>432</v>
+      </c>
+      <c r="E289">
+        <v>176</v>
+      </c>
+      <c r="F289">
+        <v>24</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="I289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>448</v>
+      </c>
+      <c r="E290">
+        <v>176</v>
+      </c>
+      <c r="F290">
+        <v>24</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>464</v>
+      </c>
+      <c r="E291">
+        <v>176</v>
+      </c>
+      <c r="F291">
+        <v>24</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>480</v>
+      </c>
+      <c r="E292">
+        <v>176</v>
+      </c>
+      <c r="F292">
+        <v>24</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>496</v>
+      </c>
+      <c r="E293">
+        <v>176</v>
+      </c>
+      <c r="F293">
+        <v>24</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0540729-C1FE-4FC7-B640-9ECD44BEA2D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552B35B-A06D-4AD0-A822-3DD3F492EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
@@ -1240,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
-  <dimension ref="A1:S387"/>
+  <dimension ref="A1:S396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S339" sqref="S339"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E397" sqref="E397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12276,7 +12276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>40060</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>40061</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>40062</v>
       </c>
@@ -12322,6 +12322,112 @@
       </c>
       <c r="F387">
         <v>25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>30400</v>
+      </c>
+      <c r="B390">
+        <v>1174</v>
+      </c>
+      <c r="C390">
+        <v>69</v>
+      </c>
+      <c r="D390">
+        <f>B390+16</f>
+        <v>1190</v>
+      </c>
+      <c r="E390">
+        <f>C390+16</f>
+        <v>85</v>
+      </c>
+      <c r="F390">
+        <v>21</v>
+      </c>
+      <c r="G390">
+        <f>B390+16</f>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>30401</v>
+      </c>
+      <c r="B391">
+        <v>1191</v>
+      </c>
+      <c r="C391">
+        <v>69</v>
+      </c>
+      <c r="D391">
+        <f t="shared" ref="D391:D393" si="22">B391+16</f>
+        <v>1207</v>
+      </c>
+      <c r="E391">
+        <f t="shared" ref="E391:E393" si="23">C391+16</f>
+        <v>85</v>
+      </c>
+      <c r="F391">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>30402</v>
+      </c>
+      <c r="B392">
+        <v>1208</v>
+      </c>
+      <c r="C392">
+        <v>69</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="22"/>
+        <v>1224</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="23"/>
+        <v>85</v>
+      </c>
+      <c r="F392">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>30403</v>
+      </c>
+      <c r="B393">
+        <v>1225</v>
+      </c>
+      <c r="C393">
+        <v>69</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="22"/>
+        <v>1241</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="23"/>
+        <v>85</v>
+      </c>
+      <c r="F393">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>30400</v>
+      </c>
+      <c r="B396">
+        <v>30401</v>
+      </c>
+      <c r="C396">
+        <v>30402</v>
+      </c>
+      <c r="D396">
+        <v>30403</v>
       </c>
     </row>
   </sheetData>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552B35B-A06D-4AD0-A822-3DD3F492EC49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED9CBE-FB70-4F89-AB3D-021CA77AFE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
@@ -1240,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
-  <dimension ref="A1:S396"/>
+  <dimension ref="A1:S442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E397" sqref="E397"/>
+    <sheetView tabSelected="1" topLeftCell="B394" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K398" sqref="K398:Q400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11843,6 +11843,35 @@
       <c r="H363">
         <v>7</v>
       </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>224</v>
+      </c>
+      <c r="M363">
+        <v>111</v>
+      </c>
+      <c r="N363">
+        <v>24</v>
+      </c>
+      <c r="O363">
+        <f>L363+R363</f>
+        <v>240</v>
+      </c>
+      <c r="P363">
+        <f>M363+S363</f>
+        <v>127</v>
+      </c>
+      <c r="Q363">
+        <v>3</v>
+      </c>
+      <c r="R363">
+        <v>16</v>
+      </c>
+      <c r="S363">
+        <v>16</v>
+      </c>
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364">
@@ -11871,6 +11900,35 @@
       <c r="H364">
         <v>7</v>
       </c>
+      <c r="K364">
+        <v>1</v>
+      </c>
+      <c r="L364">
+        <v>240</v>
+      </c>
+      <c r="M364">
+        <v>111</v>
+      </c>
+      <c r="N364">
+        <v>24</v>
+      </c>
+      <c r="O364">
+        <f>L364+R364</f>
+        <v>256</v>
+      </c>
+      <c r="P364">
+        <f>M364+S364</f>
+        <v>127</v>
+      </c>
+      <c r="Q364">
+        <v>3</v>
+      </c>
+      <c r="R364">
+        <v>16</v>
+      </c>
+      <c r="S364">
+        <v>16</v>
+      </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365">
@@ -11899,6 +11957,35 @@
       <c r="H365">
         <v>7</v>
       </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>256</v>
+      </c>
+      <c r="M365">
+        <v>111</v>
+      </c>
+      <c r="N365">
+        <v>24</v>
+      </c>
+      <c r="O365">
+        <f>L365+R365</f>
+        <v>272</v>
+      </c>
+      <c r="P365">
+        <f>M365+S365</f>
+        <v>127</v>
+      </c>
+      <c r="Q365">
+        <v>3</v>
+      </c>
+      <c r="R365">
+        <v>16</v>
+      </c>
+      <c r="S365">
+        <v>16</v>
+      </c>
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366">
@@ -11927,6 +12014,35 @@
       <c r="H366">
         <v>7</v>
       </c>
+      <c r="K366">
+        <v>1</v>
+      </c>
+      <c r="L366">
+        <v>272</v>
+      </c>
+      <c r="M366">
+        <v>111</v>
+      </c>
+      <c r="N366">
+        <v>24</v>
+      </c>
+      <c r="O366">
+        <f>L366+R366</f>
+        <v>288</v>
+      </c>
+      <c r="P366">
+        <f>M366+S366</f>
+        <v>127</v>
+      </c>
+      <c r="Q366">
+        <v>3</v>
+      </c>
+      <c r="R366">
+        <v>16</v>
+      </c>
+      <c r="S366">
+        <v>16</v>
+      </c>
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367">
@@ -11955,6 +12071,35 @@
       <c r="H367">
         <v>7</v>
       </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>288</v>
+      </c>
+      <c r="M367">
+        <v>111</v>
+      </c>
+      <c r="N367">
+        <v>24</v>
+      </c>
+      <c r="O367">
+        <f>L367+R367</f>
+        <v>304</v>
+      </c>
+      <c r="P367">
+        <f>M367+S367</f>
+        <v>127</v>
+      </c>
+      <c r="Q367">
+        <v>3</v>
+      </c>
+      <c r="R367">
+        <v>16</v>
+      </c>
+      <c r="S367">
+        <v>16</v>
+      </c>
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368">
@@ -11984,7 +12129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>40044</v>
       </c>
@@ -12011,8 +12156,37 @@
       <c r="H369">
         <v>28</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K369">
+        <v>1</v>
+      </c>
+      <c r="L369">
+        <v>385</v>
+      </c>
+      <c r="M369">
+        <v>95</v>
+      </c>
+      <c r="N369">
+        <v>24</v>
+      </c>
+      <c r="O369">
+        <f>L369+R369</f>
+        <v>401</v>
+      </c>
+      <c r="P369">
+        <f>M369+S369</f>
+        <v>111</v>
+      </c>
+      <c r="Q369">
+        <v>3</v>
+      </c>
+      <c r="R369">
+        <v>16</v>
+      </c>
+      <c r="S369">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>40045</v>
       </c>
@@ -12039,8 +12213,37 @@
       <c r="H370">
         <v>28</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>401</v>
+      </c>
+      <c r="M370">
+        <v>95</v>
+      </c>
+      <c r="N370">
+        <v>24</v>
+      </c>
+      <c r="O370">
+        <f>L370+R370</f>
+        <v>417</v>
+      </c>
+      <c r="P370">
+        <f>M370+S370</f>
+        <v>111</v>
+      </c>
+      <c r="Q370">
+        <v>3</v>
+      </c>
+      <c r="R370">
+        <v>16</v>
+      </c>
+      <c r="S370">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>40046</v>
       </c>
@@ -12067,8 +12270,37 @@
       <c r="H371">
         <v>28</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K371">
+        <v>1</v>
+      </c>
+      <c r="L371">
+        <v>417</v>
+      </c>
+      <c r="M371">
+        <v>95</v>
+      </c>
+      <c r="N371">
+        <v>24</v>
+      </c>
+      <c r="O371">
+        <f>L371+R371</f>
+        <v>433</v>
+      </c>
+      <c r="P371">
+        <f>M371+S371</f>
+        <v>111</v>
+      </c>
+      <c r="Q371">
+        <v>3</v>
+      </c>
+      <c r="R371">
+        <v>16</v>
+      </c>
+      <c r="S371">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>40047</v>
       </c>
@@ -12083,8 +12315,37 @@
       <c r="F372">
         <v>25</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K372">
+        <v>1</v>
+      </c>
+      <c r="L372">
+        <v>433</v>
+      </c>
+      <c r="M372">
+        <v>95</v>
+      </c>
+      <c r="N372">
+        <v>24</v>
+      </c>
+      <c r="O372">
+        <f>L372+R372</f>
+        <v>449</v>
+      </c>
+      <c r="P372">
+        <f>M372+S372</f>
+        <v>111</v>
+      </c>
+      <c r="Q372">
+        <v>3</v>
+      </c>
+      <c r="R372">
+        <v>16</v>
+      </c>
+      <c r="S372">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>40048</v>
       </c>
@@ -12100,7 +12361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>40049</v>
       </c>
@@ -12115,8 +12376,37 @@
       <c r="F374">
         <v>25</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>608</v>
+      </c>
+      <c r="M374">
+        <v>46</v>
+      </c>
+      <c r="N374">
+        <v>24</v>
+      </c>
+      <c r="O374">
+        <f>L374+R374</f>
+        <v>624</v>
+      </c>
+      <c r="P374">
+        <f>M374+S374</f>
+        <v>62</v>
+      </c>
+      <c r="Q374">
+        <v>3</v>
+      </c>
+      <c r="R374">
+        <v>16</v>
+      </c>
+      <c r="S374">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>40050</v>
       </c>
@@ -12131,8 +12421,37 @@
       <c r="F375">
         <v>25</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K375">
+        <v>1</v>
+      </c>
+      <c r="L375">
+        <v>624</v>
+      </c>
+      <c r="M375">
+        <v>46</v>
+      </c>
+      <c r="N375">
+        <v>24</v>
+      </c>
+      <c r="O375">
+        <f>L375+R375</f>
+        <v>640</v>
+      </c>
+      <c r="P375">
+        <f>M375+S375</f>
+        <v>62</v>
+      </c>
+      <c r="Q375">
+        <v>3</v>
+      </c>
+      <c r="R375">
+        <v>16</v>
+      </c>
+      <c r="S375">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>40051</v>
       </c>
@@ -12147,8 +12466,37 @@
       <c r="F376">
         <v>25</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K376">
+        <v>1</v>
+      </c>
+      <c r="L376">
+        <v>640</v>
+      </c>
+      <c r="M376">
+        <v>46</v>
+      </c>
+      <c r="N376">
+        <v>24</v>
+      </c>
+      <c r="O376">
+        <f>L376+R376</f>
+        <v>656</v>
+      </c>
+      <c r="P376">
+        <f>M376+S376</f>
+        <v>62</v>
+      </c>
+      <c r="Q376">
+        <v>3</v>
+      </c>
+      <c r="R376">
+        <v>16</v>
+      </c>
+      <c r="S376">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>40052</v>
       </c>
@@ -12163,8 +12511,37 @@
       <c r="F377">
         <v>25</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>656</v>
+      </c>
+      <c r="M377">
+        <v>46</v>
+      </c>
+      <c r="N377">
+        <v>24</v>
+      </c>
+      <c r="O377">
+        <f>L377+R377</f>
+        <v>672</v>
+      </c>
+      <c r="P377">
+        <f>M377+S377</f>
+        <v>62</v>
+      </c>
+      <c r="Q377">
+        <v>3</v>
+      </c>
+      <c r="R377">
+        <v>16</v>
+      </c>
+      <c r="S377">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>40053</v>
       </c>
@@ -12180,7 +12557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>40054</v>
       </c>
@@ -12195,8 +12572,37 @@
       <c r="F379">
         <v>25</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K379">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>640</v>
+      </c>
+      <c r="M379">
+        <v>128</v>
+      </c>
+      <c r="N379">
+        <v>24</v>
+      </c>
+      <c r="O379">
+        <f>L379+R379</f>
+        <v>656</v>
+      </c>
+      <c r="P379">
+        <f>M379+S379</f>
+        <v>144</v>
+      </c>
+      <c r="Q379">
+        <v>3</v>
+      </c>
+      <c r="R379">
+        <v>16</v>
+      </c>
+      <c r="S379">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>40055</v>
       </c>
@@ -12211,8 +12617,38 @@
       <c r="F380">
         <v>25</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K380">
+        <v>1</v>
+      </c>
+      <c r="L380">
+        <f>L379+16</f>
+        <v>656</v>
+      </c>
+      <c r="M380">
+        <v>128</v>
+      </c>
+      <c r="N380">
+        <v>24</v>
+      </c>
+      <c r="O380">
+        <f>L380+R380</f>
+        <v>672</v>
+      </c>
+      <c r="P380">
+        <f>M380+S380</f>
+        <v>144</v>
+      </c>
+      <c r="Q380">
+        <v>3</v>
+      </c>
+      <c r="R380">
+        <v>16</v>
+      </c>
+      <c r="S380">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>40056</v>
       </c>
@@ -12228,7 +12664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>40057</v>
       </c>
@@ -12243,8 +12679,37 @@
       <c r="F382">
         <v>25</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K382">
+        <v>1</v>
+      </c>
+      <c r="L382">
+        <v>752</v>
+      </c>
+      <c r="M382">
+        <v>128</v>
+      </c>
+      <c r="N382">
+        <v>24</v>
+      </c>
+      <c r="O382">
+        <f t="shared" ref="O382:O444" si="22">L382+R382</f>
+        <v>768</v>
+      </c>
+      <c r="P382">
+        <f t="shared" ref="P382:P444" si="23">M382+S382</f>
+        <v>144</v>
+      </c>
+      <c r="Q382">
+        <v>3</v>
+      </c>
+      <c r="R382">
+        <v>16</v>
+      </c>
+      <c r="S382">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>40058</v>
       </c>
@@ -12259,8 +12724,37 @@
       <c r="F383">
         <v>25</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="L383">
+        <v>768</v>
+      </c>
+      <c r="M383">
+        <v>128</v>
+      </c>
+      <c r="N383">
+        <v>24</v>
+      </c>
+      <c r="O383">
+        <f t="shared" si="22"/>
+        <v>784</v>
+      </c>
+      <c r="P383">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q383">
+        <v>3</v>
+      </c>
+      <c r="R383">
+        <v>16</v>
+      </c>
+      <c r="S383">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>40059</v>
       </c>
@@ -12275,8 +12769,37 @@
       <c r="F384">
         <v>25</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K384">
+        <v>1</v>
+      </c>
+      <c r="L384">
+        <v>784</v>
+      </c>
+      <c r="M384">
+        <v>128</v>
+      </c>
+      <c r="N384">
+        <v>24</v>
+      </c>
+      <c r="O384">
+        <f t="shared" si="22"/>
+        <v>800</v>
+      </c>
+      <c r="P384">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q384">
+        <v>3</v>
+      </c>
+      <c r="R384">
+        <v>16</v>
+      </c>
+      <c r="S384">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>40060</v>
       </c>
@@ -12291,8 +12814,37 @@
       <c r="F385">
         <v>25</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>800</v>
+      </c>
+      <c r="M385">
+        <v>128</v>
+      </c>
+      <c r="N385">
+        <v>24</v>
+      </c>
+      <c r="O385">
+        <f t="shared" si="22"/>
+        <v>816</v>
+      </c>
+      <c r="P385">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q385">
+        <v>3</v>
+      </c>
+      <c r="R385">
+        <v>16</v>
+      </c>
+      <c r="S385">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>40061</v>
       </c>
@@ -12308,7 +12860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>40062</v>
       </c>
@@ -12323,8 +12875,99 @@
       <c r="F387">
         <v>25</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K387">
+        <v>1</v>
+      </c>
+      <c r="L387">
+        <v>752</v>
+      </c>
+      <c r="M387">
+        <v>80</v>
+      </c>
+      <c r="N387">
+        <v>24</v>
+      </c>
+      <c r="O387">
+        <f t="shared" si="22"/>
+        <v>768</v>
+      </c>
+      <c r="P387">
+        <f t="shared" si="23"/>
+        <v>96</v>
+      </c>
+      <c r="Q387">
+        <v>3</v>
+      </c>
+      <c r="R387">
+        <v>16</v>
+      </c>
+      <c r="S387">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K388">
+        <v>1</v>
+      </c>
+      <c r="L388">
+        <v>752</v>
+      </c>
+      <c r="M388">
+        <v>96</v>
+      </c>
+      <c r="N388">
+        <v>24</v>
+      </c>
+      <c r="O388">
+        <f t="shared" si="22"/>
+        <v>768</v>
+      </c>
+      <c r="P388">
+        <f t="shared" si="23"/>
+        <v>112</v>
+      </c>
+      <c r="Q388">
+        <v>3</v>
+      </c>
+      <c r="R388">
+        <v>16</v>
+      </c>
+      <c r="S388">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>752</v>
+      </c>
+      <c r="M389">
+        <v>112</v>
+      </c>
+      <c r="N389">
+        <v>24</v>
+      </c>
+      <c r="O389">
+        <f t="shared" si="22"/>
+        <v>768</v>
+      </c>
+      <c r="P389">
+        <f t="shared" si="23"/>
+        <v>128</v>
+      </c>
+      <c r="Q389">
+        <v>3</v>
+      </c>
+      <c r="R389">
+        <v>16</v>
+      </c>
+      <c r="S389">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>30400</v>
       </c>
@@ -12350,7 +12993,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>30401</v>
       </c>
@@ -12361,18 +13004,47 @@
         <v>69</v>
       </c>
       <c r="D391">
-        <f t="shared" ref="D391:D393" si="22">B391+16</f>
+        <f t="shared" ref="D391:D393" si="24">B391+16</f>
         <v>1207</v>
       </c>
       <c r="E391">
-        <f t="shared" ref="E391:E393" si="23">C391+16</f>
+        <f t="shared" ref="E391:E393" si="25">C391+16</f>
         <v>85</v>
       </c>
       <c r="F391">
         <v>21</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K391">
+        <v>1</v>
+      </c>
+      <c r="L391">
+        <v>865</v>
+      </c>
+      <c r="M391">
+        <v>96</v>
+      </c>
+      <c r="N391">
+        <v>24</v>
+      </c>
+      <c r="O391">
+        <f t="shared" si="22"/>
+        <v>881</v>
+      </c>
+      <c r="P391">
+        <f t="shared" si="23"/>
+        <v>112</v>
+      </c>
+      <c r="Q391">
+        <v>3</v>
+      </c>
+      <c r="R391">
+        <v>16</v>
+      </c>
+      <c r="S391">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>30402</v>
       </c>
@@ -12383,18 +13055,47 @@
         <v>69</v>
       </c>
       <c r="D392">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1224</v>
       </c>
       <c r="E392">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="F392">
         <v>21</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K392">
+        <v>1</v>
+      </c>
+      <c r="L392">
+        <v>865</v>
+      </c>
+      <c r="M392">
+        <v>112</v>
+      </c>
+      <c r="N392">
+        <v>24</v>
+      </c>
+      <c r="O392">
+        <f t="shared" si="22"/>
+        <v>881</v>
+      </c>
+      <c r="P392">
+        <f t="shared" si="23"/>
+        <v>128</v>
+      </c>
+      <c r="Q392">
+        <v>3</v>
+      </c>
+      <c r="R392">
+        <v>16</v>
+      </c>
+      <c r="S392">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>30403</v>
       </c>
@@ -12405,18 +13106,109 @@
         <v>69</v>
       </c>
       <c r="D393">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1241</v>
       </c>
       <c r="E393">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="F393">
         <v>21</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K393">
+        <v>1</v>
+      </c>
+      <c r="L393">
+        <v>865</v>
+      </c>
+      <c r="M393">
+        <v>128</v>
+      </c>
+      <c r="N393">
+        <v>24</v>
+      </c>
+      <c r="O393">
+        <f t="shared" si="22"/>
+        <v>881</v>
+      </c>
+      <c r="P393">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q393">
+        <v>3</v>
+      </c>
+      <c r="R393">
+        <v>16</v>
+      </c>
+      <c r="S393">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K394">
+        <v>1</v>
+      </c>
+      <c r="L394">
+        <v>865</v>
+      </c>
+      <c r="M394">
+        <v>144</v>
+      </c>
+      <c r="N394">
+        <v>24</v>
+      </c>
+      <c r="O394">
+        <f t="shared" si="22"/>
+        <v>881</v>
+      </c>
+      <c r="P394">
+        <f t="shared" si="23"/>
+        <v>160</v>
+      </c>
+      <c r="Q394">
+        <v>3</v>
+      </c>
+      <c r="R394">
+        <v>16</v>
+      </c>
+      <c r="S394">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K395">
+        <v>1</v>
+      </c>
+      <c r="L395">
+        <v>881</v>
+      </c>
+      <c r="M395">
+        <v>144</v>
+      </c>
+      <c r="N395">
+        <v>24</v>
+      </c>
+      <c r="O395">
+        <f t="shared" si="22"/>
+        <v>897</v>
+      </c>
+      <c r="P395">
+        <f t="shared" si="23"/>
+        <v>160</v>
+      </c>
+      <c r="Q395">
+        <v>3</v>
+      </c>
+      <c r="R395">
+        <v>16</v>
+      </c>
+      <c r="S395">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>30400</v>
       </c>
@@ -12428,6 +13220,1178 @@
       </c>
       <c r="D396">
         <v>30403</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
+      <c r="L396">
+        <v>897</v>
+      </c>
+      <c r="M396">
+        <v>144</v>
+      </c>
+      <c r="N396">
+        <v>24</v>
+      </c>
+      <c r="O396">
+        <f t="shared" si="22"/>
+        <v>913</v>
+      </c>
+      <c r="P396">
+        <f t="shared" si="23"/>
+        <v>160</v>
+      </c>
+      <c r="Q396">
+        <v>3</v>
+      </c>
+      <c r="R396">
+        <v>16</v>
+      </c>
+      <c r="S396">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K398">
+        <v>1</v>
+      </c>
+      <c r="L398">
+        <v>945</v>
+      </c>
+      <c r="M398">
+        <v>96</v>
+      </c>
+      <c r="N398">
+        <v>24</v>
+      </c>
+      <c r="O398">
+        <f t="shared" si="22"/>
+        <v>961</v>
+      </c>
+      <c r="P398">
+        <f t="shared" si="23"/>
+        <v>112</v>
+      </c>
+      <c r="Q398">
+        <v>3</v>
+      </c>
+      <c r="R398">
+        <v>16</v>
+      </c>
+      <c r="S398">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K399">
+        <v>1</v>
+      </c>
+      <c r="L399">
+        <v>945</v>
+      </c>
+      <c r="M399">
+        <f>M398+16</f>
+        <v>112</v>
+      </c>
+      <c r="N399">
+        <v>24</v>
+      </c>
+      <c r="O399">
+        <f t="shared" si="22"/>
+        <v>961</v>
+      </c>
+      <c r="P399">
+        <f t="shared" si="23"/>
+        <v>128</v>
+      </c>
+      <c r="Q399">
+        <v>3</v>
+      </c>
+      <c r="R399">
+        <v>16</v>
+      </c>
+      <c r="S399">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K400">
+        <v>1</v>
+      </c>
+      <c r="L400">
+        <f>L399+16</f>
+        <v>961</v>
+      </c>
+      <c r="M400">
+        <v>112</v>
+      </c>
+      <c r="N400">
+        <v>24</v>
+      </c>
+      <c r="O400">
+        <f t="shared" si="22"/>
+        <v>977</v>
+      </c>
+      <c r="P400">
+        <f t="shared" si="23"/>
+        <v>128</v>
+      </c>
+      <c r="Q400">
+        <v>3</v>
+      </c>
+      <c r="R400">
+        <v>16</v>
+      </c>
+      <c r="S400">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K402">
+        <v>1</v>
+      </c>
+      <c r="L402">
+        <v>961</v>
+      </c>
+      <c r="M402">
+        <v>160</v>
+      </c>
+      <c r="N402">
+        <v>24</v>
+      </c>
+      <c r="O402">
+        <f t="shared" si="22"/>
+        <v>977</v>
+      </c>
+      <c r="P402">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q402">
+        <v>3</v>
+      </c>
+      <c r="R402">
+        <v>16</v>
+      </c>
+      <c r="S402">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K403">
+        <v>1</v>
+      </c>
+      <c r="L403">
+        <f>L402+16</f>
+        <v>977</v>
+      </c>
+      <c r="M403">
+        <v>160</v>
+      </c>
+      <c r="N403">
+        <v>24</v>
+      </c>
+      <c r="O403">
+        <f t="shared" si="22"/>
+        <v>993</v>
+      </c>
+      <c r="P403">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q403">
+        <v>3</v>
+      </c>
+      <c r="R403">
+        <v>16</v>
+      </c>
+      <c r="S403">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K404">
+        <v>1</v>
+      </c>
+      <c r="L404">
+        <f t="shared" ref="L404:L405" si="26">L403+16</f>
+        <v>993</v>
+      </c>
+      <c r="M404">
+        <v>160</v>
+      </c>
+      <c r="N404">
+        <v>24</v>
+      </c>
+      <c r="O404">
+        <f t="shared" si="22"/>
+        <v>1009</v>
+      </c>
+      <c r="P404">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q404">
+        <v>3</v>
+      </c>
+      <c r="R404">
+        <v>16</v>
+      </c>
+      <c r="S404">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K405">
+        <v>1</v>
+      </c>
+      <c r="L405">
+        <f t="shared" si="26"/>
+        <v>1009</v>
+      </c>
+      <c r="M405">
+        <v>160</v>
+      </c>
+      <c r="N405">
+        <v>24</v>
+      </c>
+      <c r="O405">
+        <f t="shared" si="22"/>
+        <v>1025</v>
+      </c>
+      <c r="P405">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q405">
+        <v>3</v>
+      </c>
+      <c r="R405">
+        <v>16</v>
+      </c>
+      <c r="S405">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K407">
+        <v>1</v>
+      </c>
+      <c r="L407">
+        <v>1009</v>
+      </c>
+      <c r="M407">
+        <v>111</v>
+      </c>
+      <c r="N407">
+        <v>24</v>
+      </c>
+      <c r="O407">
+        <f t="shared" si="22"/>
+        <v>1025</v>
+      </c>
+      <c r="P407">
+        <f t="shared" si="23"/>
+        <v>127</v>
+      </c>
+      <c r="Q407">
+        <v>3</v>
+      </c>
+      <c r="R407">
+        <v>16</v>
+      </c>
+      <c r="S407">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K408">
+        <v>1</v>
+      </c>
+      <c r="L408">
+        <f>L407+16</f>
+        <v>1025</v>
+      </c>
+      <c r="M408">
+        <v>111</v>
+      </c>
+      <c r="N408">
+        <v>24</v>
+      </c>
+      <c r="O408">
+        <f t="shared" si="22"/>
+        <v>1041</v>
+      </c>
+      <c r="P408">
+        <f t="shared" si="23"/>
+        <v>127</v>
+      </c>
+      <c r="Q408">
+        <v>3</v>
+      </c>
+      <c r="R408">
+        <v>16</v>
+      </c>
+      <c r="S408">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <f t="shared" ref="L409:L411" si="27">L408+16</f>
+        <v>1041</v>
+      </c>
+      <c r="M409">
+        <v>111</v>
+      </c>
+      <c r="N409">
+        <v>24</v>
+      </c>
+      <c r="O409">
+        <f t="shared" si="22"/>
+        <v>1057</v>
+      </c>
+      <c r="P409">
+        <f t="shared" si="23"/>
+        <v>127</v>
+      </c>
+      <c r="Q409">
+        <v>3</v>
+      </c>
+      <c r="R409">
+        <v>16</v>
+      </c>
+      <c r="S409">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K410">
+        <v>1</v>
+      </c>
+      <c r="L410">
+        <f t="shared" si="27"/>
+        <v>1057</v>
+      </c>
+      <c r="M410">
+        <v>111</v>
+      </c>
+      <c r="N410">
+        <v>24</v>
+      </c>
+      <c r="O410">
+        <f t="shared" si="22"/>
+        <v>1073</v>
+      </c>
+      <c r="P410">
+        <f t="shared" si="23"/>
+        <v>127</v>
+      </c>
+      <c r="Q410">
+        <v>3</v>
+      </c>
+      <c r="R410">
+        <v>16</v>
+      </c>
+      <c r="S410">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K411">
+        <v>1</v>
+      </c>
+      <c r="L411">
+        <f t="shared" si="27"/>
+        <v>1073</v>
+      </c>
+      <c r="M411">
+        <v>111</v>
+      </c>
+      <c r="N411">
+        <v>24</v>
+      </c>
+      <c r="O411">
+        <f t="shared" si="22"/>
+        <v>1089</v>
+      </c>
+      <c r="P411">
+        <f t="shared" si="23"/>
+        <v>127</v>
+      </c>
+      <c r="Q411">
+        <v>3</v>
+      </c>
+      <c r="R411">
+        <v>16</v>
+      </c>
+      <c r="S411">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K413">
+        <v>1</v>
+      </c>
+      <c r="L413">
+        <v>1184</v>
+      </c>
+      <c r="M413">
+        <v>64</v>
+      </c>
+      <c r="N413">
+        <v>24</v>
+      </c>
+      <c r="O413">
+        <f t="shared" si="22"/>
+        <v>1200</v>
+      </c>
+      <c r="P413">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q413">
+        <v>3</v>
+      </c>
+      <c r="R413">
+        <v>16</v>
+      </c>
+      <c r="S413">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K414">
+        <v>1</v>
+      </c>
+      <c r="L414">
+        <f>L413+16</f>
+        <v>1200</v>
+      </c>
+      <c r="M414">
+        <v>64</v>
+      </c>
+      <c r="N414">
+        <v>24</v>
+      </c>
+      <c r="O414">
+        <f t="shared" si="22"/>
+        <v>1216</v>
+      </c>
+      <c r="P414">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q414">
+        <v>3</v>
+      </c>
+      <c r="R414">
+        <v>16</v>
+      </c>
+      <c r="S414">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K415">
+        <v>1</v>
+      </c>
+      <c r="L415">
+        <f t="shared" ref="L415:L417" si="28">L414+16</f>
+        <v>1216</v>
+      </c>
+      <c r="M415">
+        <v>64</v>
+      </c>
+      <c r="N415">
+        <v>24</v>
+      </c>
+      <c r="O415">
+        <f t="shared" si="22"/>
+        <v>1232</v>
+      </c>
+      <c r="P415">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q415">
+        <v>3</v>
+      </c>
+      <c r="R415">
+        <v>16</v>
+      </c>
+      <c r="S415">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K416">
+        <v>1</v>
+      </c>
+      <c r="L416">
+        <f t="shared" si="28"/>
+        <v>1232</v>
+      </c>
+      <c r="M416">
+        <v>64</v>
+      </c>
+      <c r="N416">
+        <v>24</v>
+      </c>
+      <c r="O416">
+        <f t="shared" si="22"/>
+        <v>1248</v>
+      </c>
+      <c r="P416">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q416">
+        <v>3</v>
+      </c>
+      <c r="R416">
+        <v>16</v>
+      </c>
+      <c r="S416">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K417">
+        <v>1</v>
+      </c>
+      <c r="L417">
+        <f>L416</f>
+        <v>1232</v>
+      </c>
+      <c r="M417">
+        <f>64-16</f>
+        <v>48</v>
+      </c>
+      <c r="N417">
+        <v>24</v>
+      </c>
+      <c r="O417">
+        <f t="shared" si="22"/>
+        <v>1248</v>
+      </c>
+      <c r="P417">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="Q417">
+        <v>3</v>
+      </c>
+      <c r="R417">
+        <v>16</v>
+      </c>
+      <c r="S417">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K419">
+        <v>1</v>
+      </c>
+      <c r="L419">
+        <v>1265</v>
+      </c>
+      <c r="M419">
+        <v>128</v>
+      </c>
+      <c r="N419">
+        <v>24</v>
+      </c>
+      <c r="O419">
+        <f t="shared" si="22"/>
+        <v>1281</v>
+      </c>
+      <c r="P419">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q419">
+        <v>3</v>
+      </c>
+      <c r="R419">
+        <v>16</v>
+      </c>
+      <c r="S419">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K420">
+        <v>1</v>
+      </c>
+      <c r="L420">
+        <f>L419+16</f>
+        <v>1281</v>
+      </c>
+      <c r="M420">
+        <v>128</v>
+      </c>
+      <c r="N420">
+        <v>24</v>
+      </c>
+      <c r="O420">
+        <f t="shared" si="22"/>
+        <v>1297</v>
+      </c>
+      <c r="P420">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q420">
+        <v>3</v>
+      </c>
+      <c r="R420">
+        <v>16</v>
+      </c>
+      <c r="S420">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K422">
+        <v>1</v>
+      </c>
+      <c r="L422">
+        <v>1393</v>
+      </c>
+      <c r="M422">
+        <v>64</v>
+      </c>
+      <c r="N422">
+        <v>24</v>
+      </c>
+      <c r="O422">
+        <f t="shared" si="22"/>
+        <v>1409</v>
+      </c>
+      <c r="P422">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q422">
+        <v>3</v>
+      </c>
+      <c r="R422">
+        <v>16</v>
+      </c>
+      <c r="S422">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K423">
+        <v>1</v>
+      </c>
+      <c r="L423">
+        <f>L422+16</f>
+        <v>1409</v>
+      </c>
+      <c r="M423">
+        <v>64</v>
+      </c>
+      <c r="N423">
+        <v>24</v>
+      </c>
+      <c r="O423">
+        <f t="shared" si="22"/>
+        <v>1425</v>
+      </c>
+      <c r="P423">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q423">
+        <v>3</v>
+      </c>
+      <c r="R423">
+        <v>16</v>
+      </c>
+      <c r="S423">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K424">
+        <v>1</v>
+      </c>
+      <c r="L424">
+        <f>L423+16</f>
+        <v>1425</v>
+      </c>
+      <c r="M424">
+        <v>64</v>
+      </c>
+      <c r="N424">
+        <v>24</v>
+      </c>
+      <c r="O424">
+        <f t="shared" si="22"/>
+        <v>1441</v>
+      </c>
+      <c r="P424">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q424">
+        <v>3</v>
+      </c>
+      <c r="R424">
+        <v>16</v>
+      </c>
+      <c r="S424">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K426">
+        <v>1</v>
+      </c>
+      <c r="L426">
+        <v>1536</v>
+      </c>
+      <c r="M426">
+        <v>48</v>
+      </c>
+      <c r="N426">
+        <v>24</v>
+      </c>
+      <c r="O426">
+        <f t="shared" si="22"/>
+        <v>1552</v>
+      </c>
+      <c r="P426">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="Q426">
+        <v>3</v>
+      </c>
+      <c r="R426">
+        <v>16</v>
+      </c>
+      <c r="S426">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K427">
+        <v>1</v>
+      </c>
+      <c r="L427">
+        <v>1536</v>
+      </c>
+      <c r="M427">
+        <f>M426+16</f>
+        <v>64</v>
+      </c>
+      <c r="N427">
+        <v>24</v>
+      </c>
+      <c r="O427">
+        <f t="shared" si="22"/>
+        <v>1552</v>
+      </c>
+      <c r="P427">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q427">
+        <v>3</v>
+      </c>
+      <c r="R427">
+        <v>16</v>
+      </c>
+      <c r="S427">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K429">
+        <v>1</v>
+      </c>
+      <c r="L429">
+        <v>1536</v>
+      </c>
+      <c r="M429">
+        <v>128</v>
+      </c>
+      <c r="N429">
+        <v>24</v>
+      </c>
+      <c r="O429">
+        <f t="shared" si="22"/>
+        <v>1552</v>
+      </c>
+      <c r="P429">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q429">
+        <v>3</v>
+      </c>
+      <c r="R429">
+        <v>16</v>
+      </c>
+      <c r="S429">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K430">
+        <v>1</v>
+      </c>
+      <c r="L430">
+        <v>1536</v>
+      </c>
+      <c r="M430">
+        <f>M429+16</f>
+        <v>144</v>
+      </c>
+      <c r="N430">
+        <v>24</v>
+      </c>
+      <c r="O430">
+        <f t="shared" si="22"/>
+        <v>1552</v>
+      </c>
+      <c r="P430">
+        <f t="shared" si="23"/>
+        <v>160</v>
+      </c>
+      <c r="Q430">
+        <v>3</v>
+      </c>
+      <c r="R430">
+        <v>16</v>
+      </c>
+      <c r="S430">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="431" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K431">
+        <v>1</v>
+      </c>
+      <c r="L431">
+        <v>1536</v>
+      </c>
+      <c r="M431">
+        <f>M430+16</f>
+        <v>160</v>
+      </c>
+      <c r="N431">
+        <v>24</v>
+      </c>
+      <c r="O431">
+        <f t="shared" si="22"/>
+        <v>1552</v>
+      </c>
+      <c r="P431">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q431">
+        <v>3</v>
+      </c>
+      <c r="R431">
+        <v>16</v>
+      </c>
+      <c r="S431">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K432">
+        <v>1</v>
+      </c>
+      <c r="L432">
+        <f>L431+16</f>
+        <v>1552</v>
+      </c>
+      <c r="M432">
+        <v>160</v>
+      </c>
+      <c r="N432">
+        <v>24</v>
+      </c>
+      <c r="O432">
+        <f t="shared" si="22"/>
+        <v>1568</v>
+      </c>
+      <c r="P432">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q432">
+        <v>3</v>
+      </c>
+      <c r="R432">
+        <v>16</v>
+      </c>
+      <c r="S432">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="433" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K433">
+        <v>1</v>
+      </c>
+      <c r="L433">
+        <f t="shared" ref="L433:L434" si="29">L432+16</f>
+        <v>1568</v>
+      </c>
+      <c r="M433">
+        <v>160</v>
+      </c>
+      <c r="N433">
+        <v>24</v>
+      </c>
+      <c r="O433">
+        <f t="shared" si="22"/>
+        <v>1584</v>
+      </c>
+      <c r="P433">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q433">
+        <v>3</v>
+      </c>
+      <c r="R433">
+        <v>16</v>
+      </c>
+      <c r="S433">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K434">
+        <v>1</v>
+      </c>
+      <c r="L434">
+        <f t="shared" si="29"/>
+        <v>1584</v>
+      </c>
+      <c r="M434">
+        <v>160</v>
+      </c>
+      <c r="N434">
+        <v>24</v>
+      </c>
+      <c r="O434">
+        <f t="shared" si="22"/>
+        <v>1600</v>
+      </c>
+      <c r="P434">
+        <f t="shared" si="23"/>
+        <v>176</v>
+      </c>
+      <c r="Q434">
+        <v>3</v>
+      </c>
+      <c r="R434">
+        <v>16</v>
+      </c>
+      <c r="S434">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K436">
+        <v>1</v>
+      </c>
+      <c r="L436">
+        <v>1728</v>
+      </c>
+      <c r="M436">
+        <v>48</v>
+      </c>
+      <c r="N436">
+        <v>24</v>
+      </c>
+      <c r="O436">
+        <f t="shared" si="22"/>
+        <v>1744</v>
+      </c>
+      <c r="P436">
+        <f t="shared" si="23"/>
+        <v>64</v>
+      </c>
+      <c r="Q436">
+        <v>3</v>
+      </c>
+      <c r="R436">
+        <v>16</v>
+      </c>
+      <c r="S436">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K437">
+        <v>1</v>
+      </c>
+      <c r="L437">
+        <v>1728</v>
+      </c>
+      <c r="M437">
+        <f>M436+16</f>
+        <v>64</v>
+      </c>
+      <c r="N437">
+        <v>24</v>
+      </c>
+      <c r="O437">
+        <f t="shared" si="22"/>
+        <v>1744</v>
+      </c>
+      <c r="P437">
+        <f t="shared" si="23"/>
+        <v>80</v>
+      </c>
+      <c r="Q437">
+        <v>3</v>
+      </c>
+      <c r="R437">
+        <v>16</v>
+      </c>
+      <c r="S437">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K438">
+        <v>1</v>
+      </c>
+      <c r="L438">
+        <v>1728</v>
+      </c>
+      <c r="M438">
+        <f t="shared" ref="M438:M439" si="30">M437+16</f>
+        <v>80</v>
+      </c>
+      <c r="N438">
+        <v>24</v>
+      </c>
+      <c r="O438">
+        <f t="shared" si="22"/>
+        <v>1744</v>
+      </c>
+      <c r="P438">
+        <f t="shared" si="23"/>
+        <v>96</v>
+      </c>
+      <c r="Q438">
+        <v>3</v>
+      </c>
+      <c r="R438">
+        <v>16</v>
+      </c>
+      <c r="S438">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K440">
+        <v>1</v>
+      </c>
+      <c r="L440">
+        <v>1776</v>
+      </c>
+      <c r="M440">
+        <v>128</v>
+      </c>
+      <c r="N440">
+        <v>24</v>
+      </c>
+      <c r="O440">
+        <f t="shared" si="22"/>
+        <v>1792</v>
+      </c>
+      <c r="P440">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q440">
+        <v>3</v>
+      </c>
+      <c r="R440">
+        <v>16</v>
+      </c>
+      <c r="S440">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K441">
+        <v>1</v>
+      </c>
+      <c r="L441">
+        <f>L440+16</f>
+        <v>1792</v>
+      </c>
+      <c r="M441">
+        <v>128</v>
+      </c>
+      <c r="N441">
+        <v>24</v>
+      </c>
+      <c r="O441">
+        <f t="shared" si="22"/>
+        <v>1808</v>
+      </c>
+      <c r="P441">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q441">
+        <v>3</v>
+      </c>
+      <c r="R441">
+        <v>16</v>
+      </c>
+      <c r="S441">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K442">
+        <v>1</v>
+      </c>
+      <c r="L442">
+        <f>L441+16</f>
+        <v>1808</v>
+      </c>
+      <c r="M442">
+        <v>128</v>
+      </c>
+      <c r="N442">
+        <v>24</v>
+      </c>
+      <c r="O442">
+        <f t="shared" si="22"/>
+        <v>1824</v>
+      </c>
+      <c r="P442">
+        <f t="shared" si="23"/>
+        <v>144</v>
+      </c>
+      <c r="Q442">
+        <v>3</v>
+      </c>
+      <c r="R442">
+        <v>16</v>
+      </c>
+      <c r="S442">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ED9CBE-FB70-4F89-AB3D-021CA77AFE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF48957-18CA-4279-B98F-F5DAA4781007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
@@ -1240,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
-  <dimension ref="A1:S442"/>
+  <dimension ref="A1:U470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K398" sqref="K398:Q400"/>
+    <sheetView tabSelected="1" topLeftCell="B449" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D461" sqref="D461:J463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11856,11 +11856,11 @@
         <v>24</v>
       </c>
       <c r="O363">
-        <f>L363+R363</f>
+        <f t="shared" ref="O363:P367" si="22">L363+R363</f>
         <v>240</v>
       </c>
       <c r="P363">
-        <f>M363+S363</f>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="Q363">
@@ -11913,11 +11913,11 @@
         <v>24</v>
       </c>
       <c r="O364">
-        <f>L364+R364</f>
+        <f t="shared" si="22"/>
         <v>256</v>
       </c>
       <c r="P364">
-        <f>M364+S364</f>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="Q364">
@@ -11970,11 +11970,11 @@
         <v>24</v>
       </c>
       <c r="O365">
-        <f>L365+R365</f>
+        <f t="shared" si="22"/>
         <v>272</v>
       </c>
       <c r="P365">
-        <f>M365+S365</f>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="Q365">
@@ -12027,11 +12027,11 @@
         <v>24</v>
       </c>
       <c r="O366">
-        <f>L366+R366</f>
+        <f t="shared" si="22"/>
         <v>288</v>
       </c>
       <c r="P366">
-        <f>M366+S366</f>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="Q366">
@@ -12084,11 +12084,11 @@
         <v>24</v>
       </c>
       <c r="O367">
-        <f>L367+R367</f>
+        <f t="shared" si="22"/>
         <v>304</v>
       </c>
       <c r="P367">
-        <f>M367+S367</f>
+        <f t="shared" si="22"/>
         <v>127</v>
       </c>
       <c r="Q367">
@@ -12169,11 +12169,11 @@
         <v>24</v>
       </c>
       <c r="O369">
-        <f>L369+R369</f>
+        <f t="shared" ref="O369:P372" si="23">L369+R369</f>
         <v>401</v>
       </c>
       <c r="P369">
-        <f>M369+S369</f>
+        <f t="shared" si="23"/>
         <v>111</v>
       </c>
       <c r="Q369">
@@ -12226,11 +12226,11 @@
         <v>24</v>
       </c>
       <c r="O370">
-        <f>L370+R370</f>
+        <f t="shared" si="23"/>
         <v>417</v>
       </c>
       <c r="P370">
-        <f>M370+S370</f>
+        <f t="shared" si="23"/>
         <v>111</v>
       </c>
       <c r="Q370">
@@ -12283,11 +12283,11 @@
         <v>24</v>
       </c>
       <c r="O371">
-        <f>L371+R371</f>
+        <f t="shared" si="23"/>
         <v>433</v>
       </c>
       <c r="P371">
-        <f>M371+S371</f>
+        <f t="shared" si="23"/>
         <v>111</v>
       </c>
       <c r="Q371">
@@ -12328,11 +12328,11 @@
         <v>24</v>
       </c>
       <c r="O372">
-        <f>L372+R372</f>
+        <f t="shared" si="23"/>
         <v>449</v>
       </c>
       <c r="P372">
-        <f>M372+S372</f>
+        <f t="shared" si="23"/>
         <v>111</v>
       </c>
       <c r="Q372">
@@ -12389,11 +12389,11 @@
         <v>24</v>
       </c>
       <c r="O374">
-        <f>L374+R374</f>
+        <f t="shared" ref="O374:P377" si="24">L374+R374</f>
         <v>624</v>
       </c>
       <c r="P374">
-        <f>M374+S374</f>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="Q374">
@@ -12434,11 +12434,11 @@
         <v>24</v>
       </c>
       <c r="O375">
-        <f>L375+R375</f>
+        <f t="shared" si="24"/>
         <v>640</v>
       </c>
       <c r="P375">
-        <f>M375+S375</f>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="Q375">
@@ -12479,11 +12479,11 @@
         <v>24</v>
       </c>
       <c r="O376">
-        <f>L376+R376</f>
+        <f t="shared" si="24"/>
         <v>656</v>
       </c>
       <c r="P376">
-        <f>M376+S376</f>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="Q376">
@@ -12524,11 +12524,11 @@
         <v>24</v>
       </c>
       <c r="O377">
-        <f>L377+R377</f>
+        <f t="shared" si="24"/>
         <v>672</v>
       </c>
       <c r="P377">
-        <f>M377+S377</f>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="Q377">
@@ -12692,11 +12692,11 @@
         <v>24</v>
       </c>
       <c r="O382">
-        <f t="shared" ref="O382:O444" si="22">L382+R382</f>
+        <f t="shared" ref="O382:O442" si="25">L382+R382</f>
         <v>768</v>
       </c>
       <c r="P382">
-        <f t="shared" ref="P382:P444" si="23">M382+S382</f>
+        <f t="shared" ref="P382:P442" si="26">M382+S382</f>
         <v>144</v>
       </c>
       <c r="Q382">
@@ -12737,11 +12737,11 @@
         <v>24</v>
       </c>
       <c r="O383">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>784</v>
       </c>
       <c r="P383">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q383">
@@ -12782,11 +12782,11 @@
         <v>24</v>
       </c>
       <c r="O384">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>800</v>
       </c>
       <c r="P384">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q384">
@@ -12827,11 +12827,11 @@
         <v>24</v>
       </c>
       <c r="O385">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>816</v>
       </c>
       <c r="P385">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q385">
@@ -12888,11 +12888,11 @@
         <v>24</v>
       </c>
       <c r="O387">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>768</v>
       </c>
       <c r="P387">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="Q387">
@@ -12919,11 +12919,11 @@
         <v>24</v>
       </c>
       <c r="O388">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>768</v>
       </c>
       <c r="P388">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="Q388">
@@ -12950,11 +12950,11 @@
         <v>24</v>
       </c>
       <c r="O389">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>768</v>
       </c>
       <c r="P389">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="Q389">
@@ -13004,11 +13004,11 @@
         <v>69</v>
       </c>
       <c r="D391">
-        <f t="shared" ref="D391:D393" si="24">B391+16</f>
+        <f t="shared" ref="D391:D393" si="27">B391+16</f>
         <v>1207</v>
       </c>
       <c r="E391">
-        <f t="shared" ref="E391:E393" si="25">C391+16</f>
+        <f t="shared" ref="E391:E393" si="28">C391+16</f>
         <v>85</v>
       </c>
       <c r="F391">
@@ -13027,11 +13027,11 @@
         <v>24</v>
       </c>
       <c r="O391">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>881</v>
       </c>
       <c r="P391">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="Q391">
@@ -13055,11 +13055,11 @@
         <v>69</v>
       </c>
       <c r="D392">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1224</v>
       </c>
       <c r="E392">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="F392">
@@ -13078,11 +13078,11 @@
         <v>24</v>
       </c>
       <c r="O392">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>881</v>
       </c>
       <c r="P392">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="Q392">
@@ -13106,11 +13106,11 @@
         <v>69</v>
       </c>
       <c r="D393">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1241</v>
       </c>
       <c r="E393">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>85</v>
       </c>
       <c r="F393">
@@ -13129,11 +13129,11 @@
         <v>24</v>
       </c>
       <c r="O393">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>881</v>
       </c>
       <c r="P393">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q393">
@@ -13160,11 +13160,11 @@
         <v>24</v>
       </c>
       <c r="O394">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>881</v>
       </c>
       <c r="P394">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="Q394">
@@ -13191,11 +13191,11 @@
         <v>24</v>
       </c>
       <c r="O395">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>897</v>
       </c>
       <c r="P395">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="Q395">
@@ -13234,11 +13234,11 @@
         <v>24</v>
       </c>
       <c r="O396">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>913</v>
       </c>
       <c r="P396">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="Q396">
@@ -13265,11 +13265,11 @@
         <v>24</v>
       </c>
       <c r="O398">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>961</v>
       </c>
       <c r="P398">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="Q398">
@@ -13297,11 +13297,11 @@
         <v>24</v>
       </c>
       <c r="O399">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>961</v>
       </c>
       <c r="P399">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="Q399">
@@ -13329,11 +13329,11 @@
         <v>24</v>
       </c>
       <c r="O400">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>977</v>
       </c>
       <c r="P400">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="Q400">
@@ -13360,11 +13360,11 @@
         <v>24</v>
       </c>
       <c r="O402">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>977</v>
       </c>
       <c r="P402">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q402">
@@ -13392,11 +13392,11 @@
         <v>24</v>
       </c>
       <c r="O403">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>993</v>
       </c>
       <c r="P403">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q403">
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="L404">
-        <f t="shared" ref="L404:L405" si="26">L403+16</f>
+        <f t="shared" ref="L404:L405" si="29">L403+16</f>
         <v>993</v>
       </c>
       <c r="M404">
@@ -13424,11 +13424,11 @@
         <v>24</v>
       </c>
       <c r="O404">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1009</v>
       </c>
       <c r="P404">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q404">
@@ -13446,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="L405">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1009</v>
       </c>
       <c r="M405">
@@ -13456,11 +13456,11 @@
         <v>24</v>
       </c>
       <c r="O405">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1025</v>
       </c>
       <c r="P405">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q405">
@@ -13487,11 +13487,11 @@
         <v>24</v>
       </c>
       <c r="O407">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1025</v>
       </c>
       <c r="P407">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="Q407">
@@ -13519,11 +13519,11 @@
         <v>24</v>
       </c>
       <c r="O408">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1041</v>
       </c>
       <c r="P408">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="Q408">
@@ -13541,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="L409">
-        <f t="shared" ref="L409:L411" si="27">L408+16</f>
+        <f t="shared" ref="L409:L411" si="30">L408+16</f>
         <v>1041</v>
       </c>
       <c r="M409">
@@ -13551,11 +13551,11 @@
         <v>24</v>
       </c>
       <c r="O409">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1057</v>
       </c>
       <c r="P409">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="Q409">
@@ -13573,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="L410">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1057</v>
       </c>
       <c r="M410">
@@ -13583,11 +13583,11 @@
         <v>24</v>
       </c>
       <c r="O410">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1073</v>
       </c>
       <c r="P410">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="Q410">
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="L411">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1073</v>
       </c>
       <c r="M411">
@@ -13615,11 +13615,11 @@
         <v>24</v>
       </c>
       <c r="O411">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1089</v>
       </c>
       <c r="P411">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>127</v>
       </c>
       <c r="Q411">
@@ -13646,11 +13646,11 @@
         <v>24</v>
       </c>
       <c r="O413">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1200</v>
       </c>
       <c r="P413">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q413">
@@ -13678,11 +13678,11 @@
         <v>24</v>
       </c>
       <c r="O414">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1216</v>
       </c>
       <c r="P414">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q414">
@@ -13700,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="L415">
-        <f t="shared" ref="L415:L417" si="28">L414+16</f>
+        <f t="shared" ref="L415:L416" si="31">L414+16</f>
         <v>1216</v>
       </c>
       <c r="M415">
@@ -13710,11 +13710,11 @@
         <v>24</v>
       </c>
       <c r="O415">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1232</v>
       </c>
       <c r="P415">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q415">
@@ -13732,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="L416">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1232</v>
       </c>
       <c r="M416">
@@ -13742,11 +13742,11 @@
         <v>24</v>
       </c>
       <c r="O416">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1248</v>
       </c>
       <c r="P416">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q416">
@@ -13775,11 +13775,11 @@
         <v>24</v>
       </c>
       <c r="O417">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1248</v>
       </c>
       <c r="P417">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="Q417">
@@ -13806,11 +13806,11 @@
         <v>24</v>
       </c>
       <c r="O419">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1281</v>
       </c>
       <c r="P419">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q419">
@@ -13838,11 +13838,11 @@
         <v>24</v>
       </c>
       <c r="O420">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1297</v>
       </c>
       <c r="P420">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q420">
@@ -13869,11 +13869,11 @@
         <v>24</v>
       </c>
       <c r="O422">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1409</v>
       </c>
       <c r="P422">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q422">
@@ -13901,11 +13901,11 @@
         <v>24</v>
       </c>
       <c r="O423">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1425</v>
       </c>
       <c r="P423">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q423">
@@ -13933,11 +13933,11 @@
         <v>24</v>
       </c>
       <c r="O424">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1441</v>
       </c>
       <c r="P424">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q424">
@@ -13964,11 +13964,11 @@
         <v>24</v>
       </c>
       <c r="O426">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1552</v>
       </c>
       <c r="P426">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="Q426">
@@ -13996,11 +13996,11 @@
         <v>24</v>
       </c>
       <c r="O427">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1552</v>
       </c>
       <c r="P427">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q427">
@@ -14027,11 +14027,11 @@
         <v>24</v>
       </c>
       <c r="O429">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1552</v>
       </c>
       <c r="P429">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q429">
@@ -14059,11 +14059,11 @@
         <v>24</v>
       </c>
       <c r="O430">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1552</v>
       </c>
       <c r="P430">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="Q430">
@@ -14091,11 +14091,11 @@
         <v>24</v>
       </c>
       <c r="O431">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1552</v>
       </c>
       <c r="P431">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q431">
@@ -14123,11 +14123,11 @@
         <v>24</v>
       </c>
       <c r="O432">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1568</v>
       </c>
       <c r="P432">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q432">
@@ -14145,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="L433">
-        <f t="shared" ref="L433:L434" si="29">L432+16</f>
+        <f t="shared" ref="L433:L434" si="32">L432+16</f>
         <v>1568</v>
       </c>
       <c r="M433">
@@ -14155,11 +14155,11 @@
         <v>24</v>
       </c>
       <c r="O433">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1584</v>
       </c>
       <c r="P433">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q433">
@@ -14177,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="L434">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1584</v>
       </c>
       <c r="M434">
@@ -14187,11 +14187,11 @@
         <v>24</v>
       </c>
       <c r="O434">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1600</v>
       </c>
       <c r="P434">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="Q434">
@@ -14218,11 +14218,11 @@
         <v>24</v>
       </c>
       <c r="O436">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1744</v>
       </c>
       <c r="P436">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>64</v>
       </c>
       <c r="Q436">
@@ -14250,11 +14250,11 @@
         <v>24</v>
       </c>
       <c r="O437">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1744</v>
       </c>
       <c r="P437">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>80</v>
       </c>
       <c r="Q437">
@@ -14275,18 +14275,18 @@
         <v>1728</v>
       </c>
       <c r="M438">
-        <f t="shared" ref="M438:M439" si="30">M437+16</f>
+        <f t="shared" ref="M438" si="33">M437+16</f>
         <v>80</v>
       </c>
       <c r="N438">
         <v>24</v>
       </c>
       <c r="O438">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1744</v>
       </c>
       <c r="P438">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>96</v>
       </c>
       <c r="Q438">
@@ -14313,11 +14313,11 @@
         <v>24</v>
       </c>
       <c r="O440">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1792</v>
       </c>
       <c r="P440">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q440">
@@ -14345,11 +14345,11 @@
         <v>24</v>
       </c>
       <c r="O441">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1808</v>
       </c>
       <c r="P441">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q441">
@@ -14377,11 +14377,11 @@
         <v>24</v>
       </c>
       <c r="O442">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1824</v>
       </c>
       <c r="P442">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>144</v>
       </c>
       <c r="Q442">
@@ -14392,6 +14392,570 @@
       </c>
       <c r="S442">
         <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K445">
+        <v>33000</v>
+      </c>
+      <c r="L445">
+        <v>14</v>
+      </c>
+      <c r="M445">
+        <v>852</v>
+      </c>
+      <c r="N445">
+        <f>L445+Q445</f>
+        <v>49</v>
+      </c>
+      <c r="O445">
+        <f>M445+R445</f>
+        <v>885</v>
+      </c>
+      <c r="P445">
+        <v>23</v>
+      </c>
+      <c r="Q445">
+        <v>35</v>
+      </c>
+      <c r="R445">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="446" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K446">
+        <v>33001</v>
+      </c>
+      <c r="L446">
+        <v>50</v>
+      </c>
+      <c r="M446">
+        <v>852</v>
+      </c>
+      <c r="N446">
+        <f t="shared" ref="N446:N456" si="34">L446+Q446</f>
+        <v>85</v>
+      </c>
+      <c r="O446">
+        <f t="shared" ref="O446:O456" si="35">M446+R446</f>
+        <v>885</v>
+      </c>
+      <c r="P446">
+        <v>23</v>
+      </c>
+      <c r="Q446">
+        <v>35</v>
+      </c>
+      <c r="R446">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="447" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K447">
+        <v>33002</v>
+      </c>
+      <c r="L447">
+        <v>14</v>
+      </c>
+      <c r="M447">
+        <v>921</v>
+      </c>
+      <c r="N447">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="O447">
+        <f t="shared" si="35"/>
+        <v>954</v>
+      </c>
+      <c r="P447">
+        <v>23</v>
+      </c>
+      <c r="Q447">
+        <v>35</v>
+      </c>
+      <c r="R447">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="448" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K448">
+        <v>33003</v>
+      </c>
+      <c r="L448">
+        <v>50</v>
+      </c>
+      <c r="M448">
+        <v>921</v>
+      </c>
+      <c r="N448">
+        <f t="shared" si="34"/>
+        <v>85</v>
+      </c>
+      <c r="O448">
+        <f t="shared" si="35"/>
+        <v>954</v>
+      </c>
+      <c r="P448">
+        <v>23</v>
+      </c>
+      <c r="Q448">
+        <v>35</v>
+      </c>
+      <c r="R448">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="449" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K449">
+        <v>33004</v>
+      </c>
+      <c r="L449">
+        <v>14</v>
+      </c>
+      <c r="M449">
+        <v>887</v>
+      </c>
+      <c r="N449">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="O449">
+        <f t="shared" si="35"/>
+        <v>920</v>
+      </c>
+      <c r="P449">
+        <v>23</v>
+      </c>
+      <c r="Q449">
+        <v>35</v>
+      </c>
+      <c r="R449">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="450" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K450">
+        <v>33005</v>
+      </c>
+      <c r="L450">
+        <v>50</v>
+      </c>
+      <c r="M450">
+        <v>887</v>
+      </c>
+      <c r="N450">
+        <f t="shared" si="34"/>
+        <v>85</v>
+      </c>
+      <c r="O450">
+        <f t="shared" si="35"/>
+        <v>920</v>
+      </c>
+      <c r="P450">
+        <v>23</v>
+      </c>
+      <c r="Q450">
+        <v>35</v>
+      </c>
+      <c r="R450">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="451" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K451">
+        <v>33006</v>
+      </c>
+      <c r="L451">
+        <v>14</v>
+      </c>
+      <c r="M451">
+        <v>956</v>
+      </c>
+      <c r="N451">
+        <f t="shared" si="34"/>
+        <v>49</v>
+      </c>
+      <c r="O451">
+        <f t="shared" si="35"/>
+        <v>989</v>
+      </c>
+      <c r="P451">
+        <v>23</v>
+      </c>
+      <c r="Q451">
+        <v>35</v>
+      </c>
+      <c r="R451">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="452" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K452">
+        <v>33007</v>
+      </c>
+      <c r="L452">
+        <v>50</v>
+      </c>
+      <c r="M452">
+        <v>956</v>
+      </c>
+      <c r="N452">
+        <f t="shared" si="34"/>
+        <v>85</v>
+      </c>
+      <c r="O452">
+        <f t="shared" si="35"/>
+        <v>989</v>
+      </c>
+      <c r="P452">
+        <v>23</v>
+      </c>
+      <c r="Q452">
+        <v>35</v>
+      </c>
+      <c r="R452">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="453" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K453">
+        <v>33008</v>
+      </c>
+      <c r="L453">
+        <v>94</v>
+      </c>
+      <c r="M453">
+        <v>858</v>
+      </c>
+      <c r="N453">
+        <f t="shared" si="34"/>
+        <v>109</v>
+      </c>
+      <c r="O453">
+        <f t="shared" si="35"/>
+        <v>874</v>
+      </c>
+      <c r="P453">
+        <v>23</v>
+      </c>
+      <c r="Q453">
+        <v>15</v>
+      </c>
+      <c r="R453">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="454" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K454">
+        <v>33009</v>
+      </c>
+      <c r="L454">
+        <v>111</v>
+      </c>
+      <c r="M454">
+        <v>858</v>
+      </c>
+      <c r="N454">
+        <f t="shared" si="34"/>
+        <v>126</v>
+      </c>
+      <c r="O454">
+        <f t="shared" si="35"/>
+        <v>874</v>
+      </c>
+      <c r="P454">
+        <v>23</v>
+      </c>
+      <c r="Q454">
+        <v>15</v>
+      </c>
+      <c r="R454">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="455" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K455">
+        <v>33010</v>
+      </c>
+      <c r="L455">
+        <v>93</v>
+      </c>
+      <c r="M455">
+        <v>877</v>
+      </c>
+      <c r="N455">
+        <f t="shared" si="34"/>
+        <v>108</v>
+      </c>
+      <c r="O455">
+        <f t="shared" si="35"/>
+        <v>893</v>
+      </c>
+      <c r="P455">
+        <v>23</v>
+      </c>
+      <c r="Q455">
+        <v>15</v>
+      </c>
+      <c r="R455">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K456">
+        <v>33011</v>
+      </c>
+      <c r="L456">
+        <v>112</v>
+      </c>
+      <c r="M456">
+        <v>877</v>
+      </c>
+      <c r="N456">
+        <f t="shared" si="34"/>
+        <v>127</v>
+      </c>
+      <c r="O456">
+        <f t="shared" si="35"/>
+        <v>893</v>
+      </c>
+      <c r="P456">
+        <v>23</v>
+      </c>
+      <c r="Q456">
+        <v>15</v>
+      </c>
+      <c r="R456">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="459" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>112</v>
+      </c>
+      <c r="E459">
+        <v>24</v>
+      </c>
+      <c r="F459">
+        <v>160</v>
+      </c>
+      <c r="G459">
+        <v>193</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>33000</v>
+      </c>
+      <c r="L459">
+        <v>33000</v>
+      </c>
+      <c r="M459">
+        <v>100</v>
+      </c>
+      <c r="N459">
+        <v>33001</v>
+      </c>
+      <c r="O459">
+        <v>100</v>
+      </c>
+      <c r="R459">
+        <v>33000</v>
+      </c>
+      <c r="S459">
+        <v>33001</v>
+      </c>
+      <c r="T459">
+        <v>33002</v>
+      </c>
+      <c r="U459">
+        <v>33003</v>
+      </c>
+    </row>
+    <row r="460" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K460">
+        <v>33001</v>
+      </c>
+      <c r="L460">
+        <v>33002</v>
+      </c>
+      <c r="M460">
+        <v>100</v>
+      </c>
+      <c r="N460">
+        <v>33003</v>
+      </c>
+      <c r="O460">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="461" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>24</v>
+      </c>
+      <c r="H461">
+        <v>8</v>
+      </c>
+      <c r="I461">
+        <v>201</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>33002</v>
+      </c>
+      <c r="M461">
+        <v>33004</v>
+      </c>
+      <c r="N461">
+        <v>100</v>
+      </c>
+      <c r="O461">
+        <v>33005</v>
+      </c>
+      <c r="P461">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="462" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>177</v>
+      </c>
+      <c r="G462">
+        <v>24</v>
+      </c>
+      <c r="H462">
+        <v>513</v>
+      </c>
+      <c r="I462">
+        <v>194</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>33003</v>
+      </c>
+      <c r="M462">
+        <v>33006</v>
+      </c>
+      <c r="N462">
+        <v>100</v>
+      </c>
+      <c r="O462">
+        <v>33007</v>
+      </c>
+      <c r="P462">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="463" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>505</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>24</v>
+      </c>
+      <c r="H463">
+        <v>513</v>
+      </c>
+      <c r="I463">
+        <v>198</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>33004</v>
+      </c>
+      <c r="M463">
+        <v>33008</v>
+      </c>
+      <c r="N463">
+        <v>100</v>
+      </c>
+      <c r="O463">
+        <v>33009</v>
+      </c>
+      <c r="P463">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="464" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K464">
+        <v>33005</v>
+      </c>
+      <c r="L464">
+        <v>33010</v>
+      </c>
+      <c r="M464">
+        <v>100</v>
+      </c>
+      <c r="N464">
+        <v>33011</v>
+      </c>
+      <c r="O464">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="465" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K465">
+        <v>33006</v>
+      </c>
+    </row>
+    <row r="466" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K466">
+        <v>33007</v>
+      </c>
+    </row>
+    <row r="467" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K467">
+        <v>33008</v>
+      </c>
+    </row>
+    <row r="468" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K468">
+        <v>33009</v>
+      </c>
+    </row>
+    <row r="469" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K469">
+        <v>33010</v>
+      </c>
+    </row>
+    <row r="470" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K470">
+        <v>33011</v>
       </c>
     </row>
   </sheetData>

--- a/filesprite.xlsx
+++ b/filesprite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\GameSuperMarioBros3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF48957-18CA-4279-B98F-F5DAA4781007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B158F4A-D04D-42E2-AEA9-2FC141E566D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3DC99527-AD12-4FF7-97DB-FB324B4E1AAE}"/>
   </bookViews>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4228EDB0-8168-458C-8221-A53F9AB2F532}">
   <dimension ref="A1:U470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B449" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D461" sqref="D461:J463"/>
+    <sheetView tabSelected="1" topLeftCell="B440" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G448" sqref="G448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14140,7 +14140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K433">
         <v>1</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K434">
         <v>1</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K436">
         <v>1</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K437">
         <v>1</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K438">
         <v>1</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K440">
         <v>1</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K441">
         <v>1</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K442">
         <v>1</v>
       </c>
@@ -14394,7 +14394,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B445">
+        <v>33008</v>
+      </c>
+      <c r="C445">
+        <v>5</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <f>C445+H445</f>
+        <v>20</v>
+      </c>
+      <c r="F445">
+        <f>D445+I445</f>
+        <v>17</v>
+      </c>
+      <c r="G445">
+        <v>11</v>
+      </c>
+      <c r="H445">
+        <v>15</v>
+      </c>
+      <c r="I445">
+        <v>16</v>
+      </c>
       <c r="K445">
         <v>33000</v>
       </c>
@@ -14422,7 +14448,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="446" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B446">
+        <v>33009</v>
+      </c>
+      <c r="C446">
+        <v>27</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <f>C446+H446</f>
+        <v>42</v>
+      </c>
+      <c r="F446">
+        <f>D446+I446</f>
+        <v>17</v>
+      </c>
+      <c r="G446">
+        <v>11</v>
+      </c>
+      <c r="H446">
+        <v>15</v>
+      </c>
+      <c r="I446">
+        <v>16</v>
+      </c>
       <c r="K446">
         <v>33001</v>
       </c>
@@ -14450,7 +14502,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="447" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B447">
+        <v>33010</v>
+      </c>
+      <c r="C447">
+        <v>47</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <f>C447+H447</f>
+        <v>62</v>
+      </c>
+      <c r="F447">
+        <f>D447+I447</f>
+        <v>17</v>
+      </c>
+      <c r="G447">
+        <v>11</v>
+      </c>
+      <c r="H447">
+        <v>15</v>
+      </c>
+      <c r="I447">
+        <v>16</v>
+      </c>
       <c r="K447">
         <v>33002</v>
       </c>
@@ -14478,7 +14556,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="448" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B448">
+        <v>33011</v>
+      </c>
+      <c r="C448">
+        <v>65</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <f>C448+H448</f>
+        <v>80</v>
+      </c>
+      <c r="F448">
+        <f>D448+I448</f>
+        <v>17</v>
+      </c>
+      <c r="G448">
+        <v>11</v>
+      </c>
+      <c r="H448">
+        <v>15</v>
+      </c>
+      <c r="I448">
+        <v>16</v>
+      </c>
       <c r="K448">
         <v>33003</v>
       </c>
@@ -14507,6 +14611,18 @@
       </c>
     </row>
     <row r="449" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B449">
+        <v>33012</v>
+      </c>
+      <c r="G449">
+        <v>11</v>
+      </c>
+      <c r="H449">
+        <v>15</v>
+      </c>
+      <c r="I449">
+        <v>16</v>
+      </c>
       <c r="K449">
         <v>33004</v>
       </c>
@@ -14535,6 +14651,18 @@
       </c>
     </row>
     <row r="450" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B450">
+        <v>33013</v>
+      </c>
+      <c r="G450">
+        <v>11</v>
+      </c>
+      <c r="H450">
+        <v>15</v>
+      </c>
+      <c r="I450">
+        <v>16</v>
+      </c>
       <c r="K450">
         <v>33005</v>
       </c>
@@ -14563,6 +14691,18 @@
       </c>
     </row>
     <row r="451" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B451">
+        <v>33014</v>
+      </c>
+      <c r="G451">
+        <v>11</v>
+      </c>
+      <c r="H451">
+        <v>15</v>
+      </c>
+      <c r="I451">
+        <v>16</v>
+      </c>
       <c r="K451">
         <v>33006</v>
       </c>
@@ -14591,6 +14731,18 @@
       </c>
     </row>
     <row r="452" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B452">
+        <v>33015</v>
+      </c>
+      <c r="G452">
+        <v>11</v>
+      </c>
+      <c r="H452">
+        <v>15</v>
+      </c>
+      <c r="I452">
+        <v>16</v>
+      </c>
       <c r="K452">
         <v>33007</v>
       </c>
@@ -14618,118 +14770,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="453" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="K453">
-        <v>33008</v>
-      </c>
-      <c r="L453">
-        <v>94</v>
-      </c>
-      <c r="M453">
-        <v>858</v>
-      </c>
-      <c r="N453">
-        <f t="shared" si="34"/>
-        <v>109</v>
-      </c>
-      <c r="O453">
-        <f t="shared" si="35"/>
-        <v>874</v>
-      </c>
-      <c r="P453">
-        <v>23</v>
-      </c>
-      <c r="Q453">
-        <v>15</v>
-      </c>
-      <c r="R453">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="454" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="K454">
-        <v>33009</v>
-      </c>
-      <c r="L454">
-        <v>111</v>
-      </c>
-      <c r="M454">
-        <v>858</v>
-      </c>
-      <c r="N454">
-        <f t="shared" si="34"/>
-        <v>126</v>
-      </c>
-      <c r="O454">
-        <f t="shared" si="35"/>
-        <v>874</v>
-      </c>
-      <c r="P454">
-        <v>23</v>
-      </c>
-      <c r="Q454">
-        <v>15</v>
-      </c>
-      <c r="R454">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="455" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="K455">
-        <v>33010</v>
-      </c>
-      <c r="L455">
-        <v>93</v>
-      </c>
-      <c r="M455">
-        <v>877</v>
-      </c>
-      <c r="N455">
-        <f t="shared" si="34"/>
-        <v>108</v>
-      </c>
-      <c r="O455">
-        <f t="shared" si="35"/>
-        <v>893</v>
-      </c>
-      <c r="P455">
-        <v>23</v>
-      </c>
-      <c r="Q455">
-        <v>15</v>
-      </c>
-      <c r="R455">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="456" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="K456">
-        <v>33011</v>
-      </c>
-      <c r="L456">
-        <v>112</v>
-      </c>
-      <c r="M456">
-        <v>877</v>
-      </c>
-      <c r="N456">
-        <f t="shared" si="34"/>
-        <v>127</v>
-      </c>
-      <c r="O456">
-        <f t="shared" si="35"/>
-        <v>893</v>
-      </c>
-      <c r="P456">
-        <v>23</v>
-      </c>
-      <c r="Q456">
-        <v>15</v>
-      </c>
-      <c r="R456">
-        <v>16</v>
-      </c>
-    </row>
     <row r="459" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B459">
         <v>1</v>
@@ -14819,19 +14859,19 @@
       <c r="J461">
         <v>0</v>
       </c>
+      <c r="K461">
+        <v>33002</v>
+      </c>
       <c r="L461">
-        <v>33002</v>
+        <v>33004</v>
       </c>
       <c r="M461">
-        <v>33004</v>
+        <v>100</v>
       </c>
       <c r="N461">
-        <v>100</v>
+        <v>33005</v>
       </c>
       <c r="O461">
-        <v>33005</v>
-      </c>
-      <c r="P461">
         <v>100</v>
       </c>
     </row>
@@ -14857,19 +14897,19 @@
       <c r="J462">
         <v>0</v>
       </c>
+      <c r="K462">
+        <v>33003</v>
+      </c>
       <c r="L462">
-        <v>33003</v>
+        <v>33006</v>
       </c>
       <c r="M462">
-        <v>33006</v>
+        <v>100</v>
       </c>
       <c r="N462">
-        <v>100</v>
+        <v>33007</v>
       </c>
       <c r="O462">
-        <v>33007</v>
-      </c>
-      <c r="P462">
         <v>100</v>
       </c>
     </row>
@@ -14895,19 +14935,19 @@
       <c r="J463">
         <v>0</v>
       </c>
+      <c r="K463">
+        <v>33004</v>
+      </c>
       <c r="L463">
-        <v>33004</v>
+        <v>33008</v>
       </c>
       <c r="M463">
-        <v>33008</v>
+        <v>100</v>
       </c>
       <c r="N463">
-        <v>100</v>
+        <v>33009</v>
       </c>
       <c r="O463">
-        <v>33009</v>
-      </c>
-      <c r="P463">
         <v>100</v>
       </c>
     </row>
